--- a/data/cs_times.xlsx
+++ b/data/cs_times.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiffanynguyen/Documents/College/Sophomore/Spring_2025/Software_Engineering/data/spring25/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ED3794-DBA9-0042-B501-897D5125EA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497B1F55-66E2-A54E-8028-C4F7D4B1A45E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{656D73CF-19A8-2144-BE6F-F39AE447F580}"/>
+    <workbookView xWindow="3580" yWindow="4160" windowWidth="25800" windowHeight="17180" xr2:uid="{656D73CF-19A8-2144-BE6F-F39AE447F580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7174" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7175" uniqueCount="553">
   <si>
     <t>C S</t>
   </si>
@@ -1692,6 +1692,9 @@
   </si>
   <si>
     <t>C S 6990-026 -Independent Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C S						</t>
   </si>
 </sst>
 </file>
@@ -1773,8 +1776,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2111,22 +2114,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D947E3-EF09-8E42-BE86-DE34725C1D42}">
   <dimension ref="A1:P1687"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1629" sqref="H1629"/>
+    <sheetView tabSelected="1" topLeftCell="A812" workbookViewId="0">
+      <selection activeCell="I817" sqref="I817"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7">
+      <c r="A1" s="8">
         <v>36057</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2161,14 +2164,14 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2275,13 +2278,13 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="1">
         <v>36059</v>
       </c>
@@ -2319,14 +2322,14 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -2416,13 +2419,13 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="1">
         <v>17628</v>
       </c>
@@ -2460,14 +2463,14 @@
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
@@ -2574,13 +2577,13 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
       <c r="H27" s="1">
         <v>17631</v>
       </c>
@@ -2618,14 +2621,14 @@
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -2715,13 +2718,13 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
       <c r="H35" s="1">
         <v>17632</v>
       </c>
@@ -2759,14 +2762,14 @@
       <c r="A37" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
@@ -2856,13 +2859,13 @@
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
       <c r="H43" s="1">
         <v>17633</v>
       </c>
@@ -2900,14 +2903,14 @@
       <c r="A45" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
@@ -2997,13 +3000,13 @@
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="1">
         <v>36230</v>
       </c>
@@ -3041,14 +3044,14 @@
       <c r="A53" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
@@ -3141,13 +3144,13 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
       <c r="H59" s="1">
         <v>32577</v>
       </c>
@@ -3185,14 +3188,14 @@
       <c r="A61" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
@@ -3299,13 +3302,13 @@
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A68" s="7"/>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
       <c r="H68" s="1">
         <v>36159</v>
       </c>
@@ -3343,14 +3346,14 @@
       <c r="A70" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
@@ -3457,13 +3460,13 @@
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
       <c r="H77" s="1">
         <v>36161</v>
       </c>
@@ -3501,14 +3504,14 @@
       <c r="A79" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
@@ -3598,13 +3601,13 @@
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
       <c r="H85" s="1">
         <v>36162</v>
       </c>
@@ -3642,14 +3645,14 @@
       <c r="A87" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
@@ -3739,13 +3742,13 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
       <c r="H93" s="1">
         <v>36163</v>
       </c>
@@ -3783,14 +3786,14 @@
       <c r="A95" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
@@ -3880,13 +3883,13 @@
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
       <c r="H101" s="1">
         <v>17639</v>
       </c>
@@ -3924,14 +3927,14 @@
       <c r="A103" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
@@ -4038,13 +4041,13 @@
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="A110" s="8"/>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
       <c r="H110" s="1">
         <v>45814</v>
       </c>
@@ -4082,14 +4085,14 @@
       <c r="A112" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-      <c r="G112" s="8"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
@@ -4196,13 +4199,13 @@
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
       <c r="H119" s="1">
         <v>17640</v>
       </c>
@@ -4240,14 +4243,14 @@
       <c r="A121" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
@@ -4337,13 +4340,13 @@
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
+      <c r="A127" s="8"/>
+      <c r="B127" s="8"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="8"/>
       <c r="H127" s="1">
         <v>17641</v>
       </c>
@@ -4381,14 +4384,14 @@
       <c r="A129" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B129" s="8" t="s">
+      <c r="B129" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="8"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
@@ -4478,13 +4481,13 @@
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8"/>
+      <c r="G135" s="8"/>
       <c r="H135" s="1">
         <v>34610</v>
       </c>
@@ -4522,14 +4525,14 @@
       <c r="A137" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8"/>
-      <c r="G137" s="8"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
@@ -4619,13 +4622,13 @@
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
+      <c r="A143" s="8"/>
+      <c r="B143" s="8"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="8"/>
+      <c r="F143" s="8"/>
+      <c r="G143" s="8"/>
       <c r="H143" s="1">
         <v>44827</v>
       </c>
@@ -4663,14 +4666,14 @@
       <c r="A145" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B145" s="8" t="s">
+      <c r="B145" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-      <c r="G145" s="8"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
@@ -4760,13 +4763,13 @@
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
       <c r="H151" s="1">
         <v>17642</v>
       </c>
@@ -4804,14 +4807,14 @@
       <c r="A153" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-      <c r="G153" s="8"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
@@ -4901,13 +4904,13 @@
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-      <c r="D159" s="7"/>
-      <c r="E159" s="7"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="7"/>
+      <c r="A159" s="8"/>
+      <c r="B159" s="8"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="8"/>
+      <c r="F159" s="8"/>
+      <c r="G159" s="8"/>
       <c r="H159" s="1">
         <v>35765</v>
       </c>
@@ -4945,14 +4948,14 @@
       <c r="A161" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
-      <c r="F161" s="8"/>
-      <c r="G161" s="8"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="4" t="s">
@@ -5059,13 +5062,13 @@
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
-      <c r="C168" s="7"/>
-      <c r="D168" s="7"/>
-      <c r="E168" s="7"/>
-      <c r="F168" s="7"/>
-      <c r="G168" s="7"/>
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="E168" s="8"/>
+      <c r="F168" s="8"/>
+      <c r="G168" s="8"/>
       <c r="H168" s="1">
         <v>43646</v>
       </c>
@@ -5103,14 +5106,14 @@
       <c r="A170" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
-      <c r="F170" s="8"/>
-      <c r="G170" s="8"/>
+      <c r="C170" s="7"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7"/>
+      <c r="G170" s="7"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
@@ -5200,13 +5203,13 @@
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-      <c r="C176" s="7"/>
-      <c r="D176" s="7"/>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
-      <c r="G176" s="7"/>
+      <c r="A176" s="8"/>
+      <c r="B176" s="8"/>
+      <c r="C176" s="8"/>
+      <c r="D176" s="8"/>
+      <c r="E176" s="8"/>
+      <c r="F176" s="8"/>
+      <c r="G176" s="8"/>
       <c r="H176" s="1">
         <v>17651</v>
       </c>
@@ -5244,14 +5247,14 @@
       <c r="A178" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="4" t="s">
@@ -5355,13 +5358,13 @@
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A185" s="7"/>
-      <c r="B185" s="7"/>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
+      <c r="A185" s="8"/>
+      <c r="B185" s="8"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
       <c r="H185" s="1">
         <v>47763</v>
       </c>
@@ -5399,14 +5402,14 @@
       <c r="A187" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="4" t="s">
@@ -5496,13 +5499,13 @@
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="7"/>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
+      <c r="A193" s="8"/>
+      <c r="B193" s="8"/>
+      <c r="C193" s="8"/>
+      <c r="D193" s="8"/>
+      <c r="E193" s="8"/>
+      <c r="F193" s="8"/>
+      <c r="G193" s="8"/>
       <c r="H193" s="1">
         <v>39358</v>
       </c>
@@ -5540,14 +5543,14 @@
       <c r="A195" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C195" s="8"/>
-      <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-      <c r="G195" s="8"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="4" t="s">
@@ -5651,13 +5654,13 @@
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A202" s="7"/>
-      <c r="B202" s="7"/>
-      <c r="C202" s="7"/>
-      <c r="D202" s="7"/>
-      <c r="E202" s="7"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
+      <c r="A202" s="8"/>
+      <c r="B202" s="8"/>
+      <c r="C202" s="8"/>
+      <c r="D202" s="8"/>
+      <c r="E202" s="8"/>
+      <c r="F202" s="8"/>
+      <c r="G202" s="8"/>
       <c r="H202" s="1">
         <v>42489</v>
       </c>
@@ -5695,14 +5698,14 @@
       <c r="A204" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C204" s="8"/>
-      <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-      <c r="G204" s="8"/>
+      <c r="C204" s="7"/>
+      <c r="D204" s="7"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7"/>
+      <c r="G204" s="7"/>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="4" t="s">
@@ -5806,13 +5809,13 @@
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="D211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
+      <c r="A211" s="8"/>
+      <c r="B211" s="8"/>
+      <c r="C211" s="8"/>
+      <c r="D211" s="8"/>
+      <c r="E211" s="8"/>
+      <c r="F211" s="8"/>
+      <c r="G211" s="8"/>
       <c r="H211" s="1">
         <v>17658</v>
       </c>
@@ -5850,14 +5853,14 @@
       <c r="A213" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C213" s="8"/>
-      <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
-      <c r="G213" s="8"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="4" t="s">
@@ -5961,13 +5964,13 @@
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A220" s="7"/>
-      <c r="B220" s="7"/>
-      <c r="C220" s="7"/>
-      <c r="D220" s="7"/>
-      <c r="E220" s="7"/>
-      <c r="F220" s="7"/>
-      <c r="G220" s="7"/>
+      <c r="A220" s="8"/>
+      <c r="B220" s="8"/>
+      <c r="C220" s="8"/>
+      <c r="D220" s="8"/>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
       <c r="H220" s="1">
         <v>48184</v>
       </c>
@@ -6005,14 +6008,14 @@
       <c r="A222" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C222" s="8"/>
-      <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-      <c r="G222" s="8"/>
+      <c r="C222" s="7"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="4" t="s">
@@ -6102,13 +6105,13 @@
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A228" s="7"/>
-      <c r="B228" s="7"/>
-      <c r="C228" s="7"/>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7"/>
-      <c r="G228" s="7"/>
+      <c r="A228" s="8"/>
+      <c r="B228" s="8"/>
+      <c r="C228" s="8"/>
+      <c r="D228" s="8"/>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+      <c r="G228" s="8"/>
       <c r="H228" s="1">
         <v>48206</v>
       </c>
@@ -6146,14 +6149,14 @@
       <c r="A230" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C230" s="8"/>
-      <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-      <c r="G230" s="8"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="4" t="s">
@@ -6243,13 +6246,13 @@
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A236" s="7"/>
-      <c r="B236" s="7"/>
-      <c r="C236" s="7"/>
-      <c r="D236" s="7"/>
-      <c r="E236" s="7"/>
-      <c r="F236" s="7"/>
-      <c r="G236" s="7"/>
+      <c r="A236" s="8"/>
+      <c r="B236" s="8"/>
+      <c r="C236" s="8"/>
+      <c r="D236" s="8"/>
+      <c r="E236" s="8"/>
+      <c r="F236" s="8"/>
+      <c r="G236" s="8"/>
       <c r="H236" s="1">
         <v>46412</v>
       </c>
@@ -6287,14 +6290,14 @@
       <c r="A238" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C238" s="8"/>
-      <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-      <c r="G238" s="8"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="4" t="s">
@@ -6384,13 +6387,13 @@
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A244" s="7"/>
-      <c r="B244" s="7"/>
-      <c r="C244" s="7"/>
-      <c r="D244" s="7"/>
-      <c r="E244" s="7"/>
-      <c r="F244" s="7"/>
-      <c r="G244" s="7"/>
+      <c r="A244" s="8"/>
+      <c r="B244" s="8"/>
+      <c r="C244" s="8"/>
+      <c r="D244" s="8"/>
+      <c r="E244" s="8"/>
+      <c r="F244" s="8"/>
+      <c r="G244" s="8"/>
       <c r="H244" s="1">
         <v>46704</v>
       </c>
@@ -6428,14 +6431,14 @@
       <c r="A246" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C246" s="8"/>
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
+      <c r="C246" s="7"/>
+      <c r="D246" s="7"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7"/>
+      <c r="G246" s="7"/>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="4" t="s">
@@ -6525,13 +6528,13 @@
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A252" s="7"/>
-      <c r="B252" s="7"/>
-      <c r="C252" s="7"/>
-      <c r="D252" s="7"/>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
+      <c r="A252" s="8"/>
+      <c r="B252" s="8"/>
+      <c r="C252" s="8"/>
+      <c r="D252" s="8"/>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="8"/>
       <c r="H252" s="1">
         <v>38030</v>
       </c>
@@ -6569,14 +6572,14 @@
       <c r="A254" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B254" s="8" t="s">
+      <c r="B254" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C254" s="8"/>
-      <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-      <c r="G254" s="8"/>
+      <c r="C254" s="7"/>
+      <c r="D254" s="7"/>
+      <c r="E254" s="7"/>
+      <c r="F254" s="7"/>
+      <c r="G254" s="7"/>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="4" t="s">
@@ -6666,13 +6669,13 @@
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A260" s="7"/>
-      <c r="B260" s="7"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="7"/>
-      <c r="F260" s="7"/>
-      <c r="G260" s="7"/>
+      <c r="A260" s="8"/>
+      <c r="B260" s="8"/>
+      <c r="C260" s="8"/>
+      <c r="D260" s="8"/>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
+      <c r="G260" s="8"/>
       <c r="H260" s="1">
         <v>46740</v>
       </c>
@@ -6710,14 +6713,14 @@
       <c r="A262" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C262" s="8"/>
-      <c r="D262" s="8"/>
-      <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-      <c r="G262" s="8"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="7"/>
+      <c r="F262" s="7"/>
+      <c r="G262" s="7"/>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="4" t="s">
@@ -6807,13 +6810,13 @@
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A268" s="7"/>
-      <c r="B268" s="7"/>
-      <c r="C268" s="7"/>
-      <c r="D268" s="7"/>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7"/>
-      <c r="G268" s="7"/>
+      <c r="A268" s="8"/>
+      <c r="B268" s="8"/>
+      <c r="C268" s="8"/>
+      <c r="D268" s="8"/>
+      <c r="E268" s="8"/>
+      <c r="F268" s="8"/>
+      <c r="G268" s="8"/>
       <c r="H268" s="1">
         <v>44780</v>
       </c>
@@ -6851,14 +6854,14 @@
       <c r="A270" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C270" s="8"/>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-      <c r="G270" s="8"/>
+      <c r="C270" s="7"/>
+      <c r="D270" s="7"/>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7"/>
+      <c r="G270" s="7"/>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="4" t="s">
@@ -6948,13 +6951,13 @@
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A276" s="7"/>
-      <c r="B276" s="7"/>
-      <c r="C276" s="7"/>
-      <c r="D276" s="7"/>
-      <c r="E276" s="7"/>
-      <c r="F276" s="7"/>
-      <c r="G276" s="7"/>
+      <c r="A276" s="8"/>
+      <c r="B276" s="8"/>
+      <c r="C276" s="8"/>
+      <c r="D276" s="8"/>
+      <c r="E276" s="8"/>
+      <c r="F276" s="8"/>
+      <c r="G276" s="8"/>
       <c r="H276" s="1">
         <v>45005</v>
       </c>
@@ -6992,14 +6995,14 @@
       <c r="A278" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B278" s="8" t="s">
+      <c r="B278" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C278" s="8"/>
-      <c r="D278" s="8"/>
-      <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-      <c r="G278" s="8"/>
+      <c r="C278" s="7"/>
+      <c r="D278" s="7"/>
+      <c r="E278" s="7"/>
+      <c r="F278" s="7"/>
+      <c r="G278" s="7"/>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="4" t="s">
@@ -7089,13 +7092,13 @@
       </c>
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A284" s="7"/>
-      <c r="B284" s="7"/>
-      <c r="C284" s="7"/>
-      <c r="D284" s="7"/>
-      <c r="E284" s="7"/>
-      <c r="F284" s="7"/>
-      <c r="G284" s="7"/>
+      <c r="A284" s="8"/>
+      <c r="B284" s="8"/>
+      <c r="C284" s="8"/>
+      <c r="D284" s="8"/>
+      <c r="E284" s="8"/>
+      <c r="F284" s="8"/>
+      <c r="G284" s="8"/>
       <c r="H284" s="1">
         <v>44952</v>
       </c>
@@ -7133,14 +7136,14 @@
       <c r="A286" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B286" s="8" t="s">
+      <c r="B286" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C286" s="8"/>
-      <c r="D286" s="8"/>
-      <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-      <c r="G286" s="8"/>
+      <c r="C286" s="7"/>
+      <c r="D286" s="7"/>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7"/>
+      <c r="G286" s="7"/>
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="4" t="s">
@@ -7230,13 +7233,13 @@
       </c>
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A292" s="7"/>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
-      <c r="F292" s="7"/>
-      <c r="G292" s="7"/>
+      <c r="A292" s="8"/>
+      <c r="B292" s="8"/>
+      <c r="C292" s="8"/>
+      <c r="D292" s="8"/>
+      <c r="E292" s="8"/>
+      <c r="F292" s="8"/>
+      <c r="G292" s="8"/>
       <c r="H292" s="1">
         <v>46557</v>
       </c>
@@ -7274,14 +7277,14 @@
       <c r="A294" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C294" s="8"/>
-      <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-      <c r="G294" s="8"/>
+      <c r="C294" s="7"/>
+      <c r="D294" s="7"/>
+      <c r="E294" s="7"/>
+      <c r="F294" s="7"/>
+      <c r="G294" s="7"/>
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="4" t="s">
@@ -7371,13 +7374,13 @@
       </c>
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A300" s="7"/>
-      <c r="B300" s="7"/>
-      <c r="C300" s="7"/>
-      <c r="D300" s="7"/>
-      <c r="E300" s="7"/>
-      <c r="F300" s="7"/>
-      <c r="G300" s="7"/>
+      <c r="A300" s="8"/>
+      <c r="B300" s="8"/>
+      <c r="C300" s="8"/>
+      <c r="D300" s="8"/>
+      <c r="E300" s="8"/>
+      <c r="F300" s="8"/>
+      <c r="G300" s="8"/>
       <c r="H300" s="1">
         <v>44873</v>
       </c>
@@ -7415,14 +7418,14 @@
       <c r="A302" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C302" s="8"/>
-      <c r="D302" s="8"/>
-      <c r="E302" s="8"/>
-      <c r="F302" s="8"/>
-      <c r="G302" s="8"/>
+      <c r="C302" s="7"/>
+      <c r="D302" s="7"/>
+      <c r="E302" s="7"/>
+      <c r="F302" s="7"/>
+      <c r="G302" s="7"/>
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="4" t="s">
@@ -7512,13 +7515,13 @@
       </c>
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A308" s="7"/>
-      <c r="B308" s="7"/>
-      <c r="C308" s="7"/>
-      <c r="D308" s="7"/>
-      <c r="E308" s="7"/>
-      <c r="F308" s="7"/>
-      <c r="G308" s="7"/>
+      <c r="A308" s="8"/>
+      <c r="B308" s="8"/>
+      <c r="C308" s="8"/>
+      <c r="D308" s="8"/>
+      <c r="E308" s="8"/>
+      <c r="F308" s="8"/>
+      <c r="G308" s="8"/>
       <c r="H308" s="1">
         <v>43546</v>
       </c>
@@ -7556,14 +7559,14 @@
       <c r="A310" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C310" s="8"/>
-      <c r="D310" s="8"/>
-      <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
-      <c r="G310" s="8"/>
+      <c r="C310" s="7"/>
+      <c r="D310" s="7"/>
+      <c r="E310" s="7"/>
+      <c r="F310" s="7"/>
+      <c r="G310" s="7"/>
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="4" t="s">
@@ -7653,13 +7656,13 @@
       </c>
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A316" s="7"/>
-      <c r="B316" s="7"/>
-      <c r="C316" s="7"/>
-      <c r="D316" s="7"/>
-      <c r="E316" s="7"/>
-      <c r="F316" s="7"/>
-      <c r="G316" s="7"/>
+      <c r="A316" s="8"/>
+      <c r="B316" s="8"/>
+      <c r="C316" s="8"/>
+      <c r="D316" s="8"/>
+      <c r="E316" s="8"/>
+      <c r="F316" s="8"/>
+      <c r="G316" s="8"/>
       <c r="H316" s="1">
         <v>47700</v>
       </c>
@@ -7697,14 +7700,14 @@
       <c r="A318" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C318" s="8"/>
-      <c r="D318" s="8"/>
-      <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
-      <c r="G318" s="8"/>
+      <c r="C318" s="7"/>
+      <c r="D318" s="7"/>
+      <c r="E318" s="7"/>
+      <c r="F318" s="7"/>
+      <c r="G318" s="7"/>
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="4" t="s">
@@ -7794,13 +7797,13 @@
       </c>
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A324" s="7"/>
-      <c r="B324" s="7"/>
-      <c r="C324" s="7"/>
-      <c r="D324" s="7"/>
-      <c r="E324" s="7"/>
-      <c r="F324" s="7"/>
-      <c r="G324" s="7"/>
+      <c r="A324" s="8"/>
+      <c r="B324" s="8"/>
+      <c r="C324" s="8"/>
+      <c r="D324" s="8"/>
+      <c r="E324" s="8"/>
+      <c r="F324" s="8"/>
+      <c r="G324" s="8"/>
       <c r="H324" s="1">
         <v>47701</v>
       </c>
@@ -7838,14 +7841,14 @@
       <c r="A326" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B326" s="8" t="s">
+      <c r="B326" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C326" s="8"/>
-      <c r="D326" s="8"/>
-      <c r="E326" s="8"/>
-      <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
+      <c r="C326" s="7"/>
+      <c r="D326" s="7"/>
+      <c r="E326" s="7"/>
+      <c r="F326" s="7"/>
+      <c r="G326" s="7"/>
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="4" t="s">
@@ -7935,13 +7938,13 @@
       </c>
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A332" s="7"/>
-      <c r="B332" s="7"/>
-      <c r="C332" s="7"/>
-      <c r="D332" s="7"/>
-      <c r="E332" s="7"/>
-      <c r="F332" s="7"/>
-      <c r="G332" s="7"/>
+      <c r="A332" s="8"/>
+      <c r="B332" s="8"/>
+      <c r="C332" s="8"/>
+      <c r="D332" s="8"/>
+      <c r="E332" s="8"/>
+      <c r="F332" s="8"/>
+      <c r="G332" s="8"/>
       <c r="H332" s="1">
         <v>48253</v>
       </c>
@@ -7979,14 +7982,14 @@
       <c r="A334" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C334" s="8"/>
-      <c r="D334" s="8"/>
-      <c r="E334" s="8"/>
-      <c r="F334" s="8"/>
-      <c r="G334" s="8"/>
+      <c r="C334" s="7"/>
+      <c r="D334" s="7"/>
+      <c r="E334" s="7"/>
+      <c r="F334" s="7"/>
+      <c r="G334" s="7"/>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="4" t="s">
@@ -8076,13 +8079,13 @@
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A340" s="7"/>
-      <c r="B340" s="7"/>
-      <c r="C340" s="7"/>
-      <c r="D340" s="7"/>
-      <c r="E340" s="7"/>
-      <c r="F340" s="7"/>
-      <c r="G340" s="7"/>
+      <c r="A340" s="8"/>
+      <c r="B340" s="8"/>
+      <c r="C340" s="8"/>
+      <c r="D340" s="8"/>
+      <c r="E340" s="8"/>
+      <c r="F340" s="8"/>
+      <c r="G340" s="8"/>
       <c r="H340" s="1">
         <v>39950</v>
       </c>
@@ -8120,14 +8123,14 @@
       <c r="A342" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B342" s="8" t="s">
+      <c r="B342" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
-      <c r="G342" s="8"/>
+      <c r="C342" s="7"/>
+      <c r="D342" s="7"/>
+      <c r="E342" s="7"/>
+      <c r="F342" s="7"/>
+      <c r="G342" s="7"/>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="4" t="s">
@@ -8231,13 +8234,13 @@
       </c>
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A349" s="7"/>
-      <c r="B349" s="7"/>
-      <c r="C349" s="7"/>
-      <c r="D349" s="7"/>
-      <c r="E349" s="7"/>
-      <c r="F349" s="7"/>
-      <c r="G349" s="7"/>
+      <c r="A349" s="8"/>
+      <c r="B349" s="8"/>
+      <c r="C349" s="8"/>
+      <c r="D349" s="8"/>
+      <c r="E349" s="8"/>
+      <c r="F349" s="8"/>
+      <c r="G349" s="8"/>
       <c r="H349" s="1">
         <v>17725</v>
       </c>
@@ -8275,14 +8278,14 @@
       <c r="A351" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C351" s="8"/>
-      <c r="D351" s="8"/>
-      <c r="E351" s="8"/>
-      <c r="F351" s="8"/>
-      <c r="G351" s="8"/>
+      <c r="C351" s="7"/>
+      <c r="D351" s="7"/>
+      <c r="E351" s="7"/>
+      <c r="F351" s="7"/>
+      <c r="G351" s="7"/>
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="4" t="s">
@@ -8372,13 +8375,13 @@
       </c>
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A357" s="7"/>
-      <c r="B357" s="7"/>
-      <c r="C357" s="7"/>
-      <c r="D357" s="7"/>
-      <c r="E357" s="7"/>
-      <c r="F357" s="7"/>
-      <c r="G357" s="7"/>
+      <c r="A357" s="8"/>
+      <c r="B357" s="8"/>
+      <c r="C357" s="8"/>
+      <c r="D357" s="8"/>
+      <c r="E357" s="8"/>
+      <c r="F357" s="8"/>
+      <c r="G357" s="8"/>
       <c r="H357" s="1">
         <v>17727</v>
       </c>
@@ -8416,14 +8419,14 @@
       <c r="A359" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B359" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C359" s="8"/>
-      <c r="D359" s="8"/>
-      <c r="E359" s="8"/>
-      <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
+      <c r="C359" s="7"/>
+      <c r="D359" s="7"/>
+      <c r="E359" s="7"/>
+      <c r="F359" s="7"/>
+      <c r="G359" s="7"/>
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="4" t="s">
@@ -8513,13 +8516,13 @@
       </c>
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A365" s="7"/>
-      <c r="B365" s="7"/>
-      <c r="C365" s="7"/>
-      <c r="D365" s="7"/>
-      <c r="E365" s="7"/>
-      <c r="F365" s="7"/>
-      <c r="G365" s="7"/>
+      <c r="A365" s="8"/>
+      <c r="B365" s="8"/>
+      <c r="C365" s="8"/>
+      <c r="D365" s="8"/>
+      <c r="E365" s="8"/>
+      <c r="F365" s="8"/>
+      <c r="G365" s="8"/>
       <c r="H365" s="1">
         <v>17728</v>
       </c>
@@ -8557,14 +8560,14 @@
       <c r="A367" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C367" s="8"/>
-      <c r="D367" s="8"/>
-      <c r="E367" s="8"/>
-      <c r="F367" s="8"/>
-      <c r="G367" s="8"/>
+      <c r="C367" s="7"/>
+      <c r="D367" s="7"/>
+      <c r="E367" s="7"/>
+      <c r="F367" s="7"/>
+      <c r="G367" s="7"/>
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="4" t="s">
@@ -8654,13 +8657,13 @@
       </c>
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A373" s="7"/>
-      <c r="B373" s="7"/>
-      <c r="C373" s="7"/>
-      <c r="D373" s="7"/>
-      <c r="E373" s="7"/>
-      <c r="F373" s="7"/>
-      <c r="G373" s="7"/>
+      <c r="A373" s="8"/>
+      <c r="B373" s="8"/>
+      <c r="C373" s="8"/>
+      <c r="D373" s="8"/>
+      <c r="E373" s="8"/>
+      <c r="F373" s="8"/>
+      <c r="G373" s="8"/>
       <c r="H373" s="1">
         <v>17729</v>
       </c>
@@ -8698,14 +8701,14 @@
       <c r="A375" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C375" s="8"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
-      <c r="G375" s="8"/>
+      <c r="C375" s="7"/>
+      <c r="D375" s="7"/>
+      <c r="E375" s="7"/>
+      <c r="F375" s="7"/>
+      <c r="G375" s="7"/>
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="4" t="s">
@@ -8795,13 +8798,13 @@
       </c>
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A381" s="7"/>
-      <c r="B381" s="7"/>
-      <c r="C381" s="7"/>
-      <c r="D381" s="7"/>
-      <c r="E381" s="7"/>
-      <c r="F381" s="7"/>
-      <c r="G381" s="7"/>
+      <c r="A381" s="8"/>
+      <c r="B381" s="8"/>
+      <c r="C381" s="8"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="8"/>
       <c r="H381" s="1">
         <v>17731</v>
       </c>
@@ -8839,14 +8842,14 @@
       <c r="A383" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="B383" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C383" s="8"/>
-      <c r="D383" s="8"/>
-      <c r="E383" s="8"/>
-      <c r="F383" s="8"/>
-      <c r="G383" s="8"/>
+      <c r="C383" s="7"/>
+      <c r="D383" s="7"/>
+      <c r="E383" s="7"/>
+      <c r="F383" s="7"/>
+      <c r="G383" s="7"/>
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="4" t="s">
@@ -8936,13 +8939,13 @@
       </c>
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A389" s="7"/>
-      <c r="B389" s="7"/>
-      <c r="C389" s="7"/>
-      <c r="D389" s="7"/>
-      <c r="E389" s="7"/>
-      <c r="F389" s="7"/>
-      <c r="G389" s="7"/>
+      <c r="A389" s="8"/>
+      <c r="B389" s="8"/>
+      <c r="C389" s="8"/>
+      <c r="D389" s="8"/>
+      <c r="E389" s="8"/>
+      <c r="F389" s="8"/>
+      <c r="G389" s="8"/>
       <c r="H389" s="1">
         <v>17732</v>
       </c>
@@ -8980,14 +8983,14 @@
       <c r="A391" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B391" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C391" s="8"/>
-      <c r="D391" s="8"/>
-      <c r="E391" s="8"/>
-      <c r="F391" s="8"/>
-      <c r="G391" s="8"/>
+      <c r="C391" s="7"/>
+      <c r="D391" s="7"/>
+      <c r="E391" s="7"/>
+      <c r="F391" s="7"/>
+      <c r="G391" s="7"/>
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="4" t="s">
@@ -9077,13 +9080,13 @@
       </c>
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A397" s="7"/>
-      <c r="B397" s="7"/>
-      <c r="C397" s="7"/>
-      <c r="D397" s="7"/>
-      <c r="E397" s="7"/>
-      <c r="F397" s="7"/>
-      <c r="G397" s="7"/>
+      <c r="A397" s="8"/>
+      <c r="B397" s="8"/>
+      <c r="C397" s="8"/>
+      <c r="D397" s="8"/>
+      <c r="E397" s="8"/>
+      <c r="F397" s="8"/>
+      <c r="G397" s="8"/>
       <c r="H397" s="1">
         <v>17734</v>
       </c>
@@ -9121,14 +9124,14 @@
       <c r="A399" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B399" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C399" s="8"/>
-      <c r="D399" s="8"/>
-      <c r="E399" s="8"/>
-      <c r="F399" s="8"/>
-      <c r="G399" s="8"/>
+      <c r="C399" s="7"/>
+      <c r="D399" s="7"/>
+      <c r="E399" s="7"/>
+      <c r="F399" s="7"/>
+      <c r="G399" s="7"/>
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="4" t="s">
@@ -9218,13 +9221,13 @@
       </c>
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A405" s="7"/>
-      <c r="B405" s="7"/>
-      <c r="C405" s="7"/>
-      <c r="D405" s="7"/>
-      <c r="E405" s="7"/>
-      <c r="F405" s="7"/>
-      <c r="G405" s="7"/>
+      <c r="A405" s="8"/>
+      <c r="B405" s="8"/>
+      <c r="C405" s="8"/>
+      <c r="D405" s="8"/>
+      <c r="E405" s="8"/>
+      <c r="F405" s="8"/>
+      <c r="G405" s="8"/>
       <c r="H405" s="1">
         <v>17735</v>
       </c>
@@ -9262,14 +9265,14 @@
       <c r="A407" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B407" s="8" t="s">
+      <c r="B407" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C407" s="8"/>
-      <c r="D407" s="8"/>
-      <c r="E407" s="8"/>
-      <c r="F407" s="8"/>
-      <c r="G407" s="8"/>
+      <c r="C407" s="7"/>
+      <c r="D407" s="7"/>
+      <c r="E407" s="7"/>
+      <c r="F407" s="7"/>
+      <c r="G407" s="7"/>
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="4" t="s">
@@ -9359,13 +9362,13 @@
       </c>
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A413" s="7"/>
-      <c r="B413" s="7"/>
-      <c r="C413" s="7"/>
-      <c r="D413" s="7"/>
-      <c r="E413" s="7"/>
-      <c r="F413" s="7"/>
-      <c r="G413" s="7"/>
+      <c r="A413" s="8"/>
+      <c r="B413" s="8"/>
+      <c r="C413" s="8"/>
+      <c r="D413" s="8"/>
+      <c r="E413" s="8"/>
+      <c r="F413" s="8"/>
+      <c r="G413" s="8"/>
       <c r="H413" s="1">
         <v>17736</v>
       </c>
@@ -9403,14 +9406,14 @@
       <c r="A415" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B415" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C415" s="8"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
-      <c r="G415" s="8"/>
+      <c r="C415" s="7"/>
+      <c r="D415" s="7"/>
+      <c r="E415" s="7"/>
+      <c r="F415" s="7"/>
+      <c r="G415" s="7"/>
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="4" t="s">
@@ -9500,13 +9503,13 @@
       </c>
     </row>
     <row r="421" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A421" s="7"/>
-      <c r="B421" s="7"/>
-      <c r="C421" s="7"/>
-      <c r="D421" s="7"/>
-      <c r="E421" s="7"/>
-      <c r="F421" s="7"/>
-      <c r="G421" s="7"/>
+      <c r="A421" s="8"/>
+      <c r="B421" s="8"/>
+      <c r="C421" s="8"/>
+      <c r="D421" s="8"/>
+      <c r="E421" s="8"/>
+      <c r="F421" s="8"/>
+      <c r="G421" s="8"/>
       <c r="H421" s="1">
         <v>17737</v>
       </c>
@@ -9544,14 +9547,14 @@
       <c r="A423" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B423" s="8" t="s">
+      <c r="B423" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C423" s="8"/>
-      <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
-      <c r="F423" s="8"/>
-      <c r="G423" s="8"/>
+      <c r="C423" s="7"/>
+      <c r="D423" s="7"/>
+      <c r="E423" s="7"/>
+      <c r="F423" s="7"/>
+      <c r="G423" s="7"/>
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="4" t="s">
@@ -9641,13 +9644,13 @@
       </c>
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A429" s="7"/>
-      <c r="B429" s="7"/>
-      <c r="C429" s="7"/>
-      <c r="D429" s="7"/>
-      <c r="E429" s="7"/>
-      <c r="F429" s="7"/>
-      <c r="G429" s="7"/>
+      <c r="A429" s="8"/>
+      <c r="B429" s="8"/>
+      <c r="C429" s="8"/>
+      <c r="D429" s="8"/>
+      <c r="E429" s="8"/>
+      <c r="F429" s="8"/>
+      <c r="G429" s="8"/>
       <c r="H429" s="1">
         <v>17738</v>
       </c>
@@ -9685,14 +9688,14 @@
       <c r="A431" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B431" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C431" s="8"/>
-      <c r="D431" s="8"/>
-      <c r="E431" s="8"/>
-      <c r="F431" s="8"/>
-      <c r="G431" s="8"/>
+      <c r="C431" s="7"/>
+      <c r="D431" s="7"/>
+      <c r="E431" s="7"/>
+      <c r="F431" s="7"/>
+      <c r="G431" s="7"/>
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" s="4" t="s">
@@ -9782,13 +9785,13 @@
       </c>
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A437" s="7"/>
-      <c r="B437" s="7"/>
-      <c r="C437" s="7"/>
-      <c r="D437" s="7"/>
-      <c r="E437" s="7"/>
-      <c r="F437" s="7"/>
-      <c r="G437" s="7"/>
+      <c r="A437" s="8"/>
+      <c r="B437" s="8"/>
+      <c r="C437" s="8"/>
+      <c r="D437" s="8"/>
+      <c r="E437" s="8"/>
+      <c r="F437" s="8"/>
+      <c r="G437" s="8"/>
       <c r="H437" s="1">
         <v>17739</v>
       </c>
@@ -9826,14 +9829,14 @@
       <c r="A439" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C439" s="8"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
-      <c r="F439" s="8"/>
-      <c r="G439" s="8"/>
+      <c r="C439" s="7"/>
+      <c r="D439" s="7"/>
+      <c r="E439" s="7"/>
+      <c r="F439" s="7"/>
+      <c r="G439" s="7"/>
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" s="4" t="s">
@@ -9923,13 +9926,13 @@
       </c>
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A445" s="7"/>
-      <c r="B445" s="7"/>
-      <c r="C445" s="7"/>
-      <c r="D445" s="7"/>
-      <c r="E445" s="7"/>
-      <c r="F445" s="7"/>
-      <c r="G445" s="7"/>
+      <c r="A445" s="8"/>
+      <c r="B445" s="8"/>
+      <c r="C445" s="8"/>
+      <c r="D445" s="8"/>
+      <c r="E445" s="8"/>
+      <c r="F445" s="8"/>
+      <c r="G445" s="8"/>
       <c r="H445" s="1">
         <v>17740</v>
       </c>
@@ -9967,14 +9970,14 @@
       <c r="A447" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C447" s="8"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
-      <c r="G447" s="8"/>
+      <c r="C447" s="7"/>
+      <c r="D447" s="7"/>
+      <c r="E447" s="7"/>
+      <c r="F447" s="7"/>
+      <c r="G447" s="7"/>
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" s="4" t="s">
@@ -10064,13 +10067,13 @@
       </c>
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A453" s="7"/>
-      <c r="B453" s="7"/>
-      <c r="C453" s="7"/>
-      <c r="D453" s="7"/>
-      <c r="E453" s="7"/>
-      <c r="F453" s="7"/>
-      <c r="G453" s="7"/>
+      <c r="A453" s="8"/>
+      <c r="B453" s="8"/>
+      <c r="C453" s="8"/>
+      <c r="D453" s="8"/>
+      <c r="E453" s="8"/>
+      <c r="F453" s="8"/>
+      <c r="G453" s="8"/>
       <c r="H453" s="1">
         <v>17741</v>
       </c>
@@ -10108,14 +10111,14 @@
       <c r="A455" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C455" s="8"/>
-      <c r="D455" s="8"/>
-      <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
-      <c r="G455" s="8"/>
+      <c r="C455" s="7"/>
+      <c r="D455" s="7"/>
+      <c r="E455" s="7"/>
+      <c r="F455" s="7"/>
+      <c r="G455" s="7"/>
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" s="4" t="s">
@@ -10205,13 +10208,13 @@
       </c>
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A461" s="7"/>
-      <c r="B461" s="7"/>
-      <c r="C461" s="7"/>
-      <c r="D461" s="7"/>
-      <c r="E461" s="7"/>
-      <c r="F461" s="7"/>
-      <c r="G461" s="7"/>
+      <c r="A461" s="8"/>
+      <c r="B461" s="8"/>
+      <c r="C461" s="8"/>
+      <c r="D461" s="8"/>
+      <c r="E461" s="8"/>
+      <c r="F461" s="8"/>
+      <c r="G461" s="8"/>
       <c r="H461" s="1">
         <v>17742</v>
       </c>
@@ -10249,14 +10252,14 @@
       <c r="A463" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B463" s="8" t="s">
+      <c r="B463" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C463" s="8"/>
-      <c r="D463" s="8"/>
-      <c r="E463" s="8"/>
-      <c r="F463" s="8"/>
-      <c r="G463" s="8"/>
+      <c r="C463" s="7"/>
+      <c r="D463" s="7"/>
+      <c r="E463" s="7"/>
+      <c r="F463" s="7"/>
+      <c r="G463" s="7"/>
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" s="4" t="s">
@@ -10346,13 +10349,13 @@
       </c>
     </row>
     <row r="469" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A469" s="7"/>
-      <c r="B469" s="7"/>
-      <c r="C469" s="7"/>
-      <c r="D469" s="7"/>
-      <c r="E469" s="7"/>
-      <c r="F469" s="7"/>
-      <c r="G469" s="7"/>
+      <c r="A469" s="8"/>
+      <c r="B469" s="8"/>
+      <c r="C469" s="8"/>
+      <c r="D469" s="8"/>
+      <c r="E469" s="8"/>
+      <c r="F469" s="8"/>
+      <c r="G469" s="8"/>
       <c r="H469" s="1">
         <v>17749</v>
       </c>
@@ -10390,14 +10393,14 @@
       <c r="A471" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B471" s="8" t="s">
+      <c r="B471" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C471" s="8"/>
-      <c r="D471" s="8"/>
-      <c r="E471" s="8"/>
-      <c r="F471" s="8"/>
-      <c r="G471" s="8"/>
+      <c r="C471" s="7"/>
+      <c r="D471" s="7"/>
+      <c r="E471" s="7"/>
+      <c r="F471" s="7"/>
+      <c r="G471" s="7"/>
     </row>
     <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472" s="4" t="s">
@@ -10487,13 +10490,13 @@
       </c>
     </row>
     <row r="477" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A477" s="7"/>
-      <c r="B477" s="7"/>
-      <c r="C477" s="7"/>
-      <c r="D477" s="7"/>
-      <c r="E477" s="7"/>
-      <c r="F477" s="7"/>
-      <c r="G477" s="7"/>
+      <c r="A477" s="8"/>
+      <c r="B477" s="8"/>
+      <c r="C477" s="8"/>
+      <c r="D477" s="8"/>
+      <c r="E477" s="8"/>
+      <c r="F477" s="8"/>
+      <c r="G477" s="8"/>
       <c r="H477" s="1">
         <v>17750</v>
       </c>
@@ -10531,14 +10534,14 @@
       <c r="A479" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B479" s="8" t="s">
+      <c r="B479" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C479" s="8"/>
-      <c r="D479" s="8"/>
-      <c r="E479" s="8"/>
-      <c r="F479" s="8"/>
-      <c r="G479" s="8"/>
+      <c r="C479" s="7"/>
+      <c r="D479" s="7"/>
+      <c r="E479" s="7"/>
+      <c r="F479" s="7"/>
+      <c r="G479" s="7"/>
     </row>
     <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" s="4" t="s">
@@ -10628,13 +10631,13 @@
       </c>
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A485" s="7"/>
-      <c r="B485" s="7"/>
-      <c r="C485" s="7"/>
-      <c r="D485" s="7"/>
-      <c r="E485" s="7"/>
-      <c r="F485" s="7"/>
-      <c r="G485" s="7"/>
+      <c r="A485" s="8"/>
+      <c r="B485" s="8"/>
+      <c r="C485" s="8"/>
+      <c r="D485" s="8"/>
+      <c r="E485" s="8"/>
+      <c r="F485" s="8"/>
+      <c r="G485" s="8"/>
       <c r="H485" s="1">
         <v>17751</v>
       </c>
@@ -10672,14 +10675,14 @@
       <c r="A487" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B487" s="8" t="s">
+      <c r="B487" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C487" s="8"/>
-      <c r="D487" s="8"/>
-      <c r="E487" s="8"/>
-      <c r="F487" s="8"/>
-      <c r="G487" s="8"/>
+      <c r="C487" s="7"/>
+      <c r="D487" s="7"/>
+      <c r="E487" s="7"/>
+      <c r="F487" s="7"/>
+      <c r="G487" s="7"/>
     </row>
     <row r="488" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A488" s="4" t="s">
@@ -10769,13 +10772,13 @@
       </c>
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A493" s="7"/>
-      <c r="B493" s="7"/>
-      <c r="C493" s="7"/>
-      <c r="D493" s="7"/>
-      <c r="E493" s="7"/>
-      <c r="F493" s="7"/>
-      <c r="G493" s="7"/>
+      <c r="A493" s="8"/>
+      <c r="B493" s="8"/>
+      <c r="C493" s="8"/>
+      <c r="D493" s="8"/>
+      <c r="E493" s="8"/>
+      <c r="F493" s="8"/>
+      <c r="G493" s="8"/>
       <c r="H493" s="1">
         <v>17754</v>
       </c>
@@ -10813,14 +10816,14 @@
       <c r="A495" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B495" s="8" t="s">
+      <c r="B495" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C495" s="8"/>
-      <c r="D495" s="8"/>
-      <c r="E495" s="8"/>
-      <c r="F495" s="8"/>
-      <c r="G495" s="8"/>
+      <c r="C495" s="7"/>
+      <c r="D495" s="7"/>
+      <c r="E495" s="7"/>
+      <c r="F495" s="7"/>
+      <c r="G495" s="7"/>
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A496" s="4" t="s">
@@ -10910,13 +10913,13 @@
       </c>
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A501" s="7"/>
-      <c r="B501" s="7"/>
-      <c r="C501" s="7"/>
-      <c r="D501" s="7"/>
-      <c r="E501" s="7"/>
-      <c r="F501" s="7"/>
-      <c r="G501" s="7"/>
+      <c r="A501" s="8"/>
+      <c r="B501" s="8"/>
+      <c r="C501" s="8"/>
+      <c r="D501" s="8"/>
+      <c r="E501" s="8"/>
+      <c r="F501" s="8"/>
+      <c r="G501" s="8"/>
       <c r="H501" s="1">
         <v>17756</v>
       </c>
@@ -10954,14 +10957,14 @@
       <c r="A503" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B503" s="8" t="s">
+      <c r="B503" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C503" s="8"/>
-      <c r="D503" s="8"/>
-      <c r="E503" s="8"/>
-      <c r="F503" s="8"/>
-      <c r="G503" s="8"/>
+      <c r="C503" s="7"/>
+      <c r="D503" s="7"/>
+      <c r="E503" s="7"/>
+      <c r="F503" s="7"/>
+      <c r="G503" s="7"/>
     </row>
     <row r="504" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A504" s="4" t="s">
@@ -11051,13 +11054,13 @@
       </c>
     </row>
     <row r="509" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A509" s="7"/>
-      <c r="B509" s="7"/>
-      <c r="C509" s="7"/>
-      <c r="D509" s="7"/>
-      <c r="E509" s="7"/>
-      <c r="F509" s="7"/>
-      <c r="G509" s="7"/>
+      <c r="A509" s="8"/>
+      <c r="B509" s="8"/>
+      <c r="C509" s="8"/>
+      <c r="D509" s="8"/>
+      <c r="E509" s="8"/>
+      <c r="F509" s="8"/>
+      <c r="G509" s="8"/>
       <c r="H509" s="1">
         <v>17758</v>
       </c>
@@ -11095,14 +11098,14 @@
       <c r="A511" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B511" s="8" t="s">
+      <c r="B511" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C511" s="8"/>
-      <c r="D511" s="8"/>
-      <c r="E511" s="8"/>
-      <c r="F511" s="8"/>
-      <c r="G511" s="8"/>
+      <c r="C511" s="7"/>
+      <c r="D511" s="7"/>
+      <c r="E511" s="7"/>
+      <c r="F511" s="7"/>
+      <c r="G511" s="7"/>
     </row>
     <row r="512" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A512" s="4" t="s">
@@ -11192,13 +11195,13 @@
       </c>
     </row>
     <row r="517" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A517" s="7"/>
-      <c r="B517" s="7"/>
-      <c r="C517" s="7"/>
-      <c r="D517" s="7"/>
-      <c r="E517" s="7"/>
-      <c r="F517" s="7"/>
-      <c r="G517" s="7"/>
+      <c r="A517" s="8"/>
+      <c r="B517" s="8"/>
+      <c r="C517" s="8"/>
+      <c r="D517" s="8"/>
+      <c r="E517" s="8"/>
+      <c r="F517" s="8"/>
+      <c r="G517" s="8"/>
       <c r="H517" s="1">
         <v>17760</v>
       </c>
@@ -11236,14 +11239,14 @@
       <c r="A519" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B519" s="8" t="s">
+      <c r="B519" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C519" s="8"/>
-      <c r="D519" s="8"/>
-      <c r="E519" s="8"/>
-      <c r="F519" s="8"/>
-      <c r="G519" s="8"/>
+      <c r="C519" s="7"/>
+      <c r="D519" s="7"/>
+      <c r="E519" s="7"/>
+      <c r="F519" s="7"/>
+      <c r="G519" s="7"/>
     </row>
     <row r="520" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A520" s="4" t="s">
@@ -11333,13 +11336,13 @@
       </c>
     </row>
     <row r="525" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A525" s="7"/>
-      <c r="B525" s="7"/>
-      <c r="C525" s="7"/>
-      <c r="D525" s="7"/>
-      <c r="E525" s="7"/>
-      <c r="F525" s="7"/>
-      <c r="G525" s="7"/>
+      <c r="A525" s="8"/>
+      <c r="B525" s="8"/>
+      <c r="C525" s="8"/>
+      <c r="D525" s="8"/>
+      <c r="E525" s="8"/>
+      <c r="F525" s="8"/>
+      <c r="G525" s="8"/>
       <c r="H525" s="1">
         <v>17761</v>
       </c>
@@ -11377,14 +11380,14 @@
       <c r="A527" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B527" s="8" t="s">
+      <c r="B527" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C527" s="8"/>
-      <c r="D527" s="8"/>
-      <c r="E527" s="8"/>
-      <c r="F527" s="8"/>
-      <c r="G527" s="8"/>
+      <c r="C527" s="7"/>
+      <c r="D527" s="7"/>
+      <c r="E527" s="7"/>
+      <c r="F527" s="7"/>
+      <c r="G527" s="7"/>
     </row>
     <row r="528" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A528" s="4" t="s">
@@ -11474,13 +11477,13 @@
       </c>
     </row>
     <row r="533" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A533" s="7"/>
-      <c r="B533" s="7"/>
-      <c r="C533" s="7"/>
-      <c r="D533" s="7"/>
-      <c r="E533" s="7"/>
-      <c r="F533" s="7"/>
-      <c r="G533" s="7"/>
+      <c r="A533" s="8"/>
+      <c r="B533" s="8"/>
+      <c r="C533" s="8"/>
+      <c r="D533" s="8"/>
+      <c r="E533" s="8"/>
+      <c r="F533" s="8"/>
+      <c r="G533" s="8"/>
       <c r="H533" s="1">
         <v>17763</v>
       </c>
@@ -11518,14 +11521,14 @@
       <c r="A535" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B535" s="8" t="s">
+      <c r="B535" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C535" s="8"/>
-      <c r="D535" s="8"/>
-      <c r="E535" s="8"/>
-      <c r="F535" s="8"/>
-      <c r="G535" s="8"/>
+      <c r="C535" s="7"/>
+      <c r="D535" s="7"/>
+      <c r="E535" s="7"/>
+      <c r="F535" s="7"/>
+      <c r="G535" s="7"/>
     </row>
     <row r="536" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A536" s="4" t="s">
@@ -11615,13 +11618,13 @@
       </c>
     </row>
     <row r="541" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A541" s="7"/>
-      <c r="B541" s="7"/>
-      <c r="C541" s="7"/>
-      <c r="D541" s="7"/>
-      <c r="E541" s="7"/>
-      <c r="F541" s="7"/>
-      <c r="G541" s="7"/>
+      <c r="A541" s="8"/>
+      <c r="B541" s="8"/>
+      <c r="C541" s="8"/>
+      <c r="D541" s="8"/>
+      <c r="E541" s="8"/>
+      <c r="F541" s="8"/>
+      <c r="G541" s="8"/>
       <c r="H541" s="1">
         <v>17765</v>
       </c>
@@ -11659,14 +11662,14 @@
       <c r="A543" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B543" s="8" t="s">
+      <c r="B543" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C543" s="8"/>
-      <c r="D543" s="8"/>
-      <c r="E543" s="8"/>
-      <c r="F543" s="8"/>
-      <c r="G543" s="8"/>
+      <c r="C543" s="7"/>
+      <c r="D543" s="7"/>
+      <c r="E543" s="7"/>
+      <c r="F543" s="7"/>
+      <c r="G543" s="7"/>
     </row>
     <row r="544" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A544" s="4" t="s">
@@ -11756,13 +11759,13 @@
       </c>
     </row>
     <row r="549" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A549" s="7"/>
-      <c r="B549" s="7"/>
-      <c r="C549" s="7"/>
-      <c r="D549" s="7"/>
-      <c r="E549" s="7"/>
-      <c r="F549" s="7"/>
-      <c r="G549" s="7"/>
+      <c r="A549" s="8"/>
+      <c r="B549" s="8"/>
+      <c r="C549" s="8"/>
+      <c r="D549" s="8"/>
+      <c r="E549" s="8"/>
+      <c r="F549" s="8"/>
+      <c r="G549" s="8"/>
       <c r="H549" s="1">
         <v>17767</v>
       </c>
@@ -11800,14 +11803,14 @@
       <c r="A551" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B551" s="8" t="s">
+      <c r="B551" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C551" s="8"/>
-      <c r="D551" s="8"/>
-      <c r="E551" s="8"/>
-      <c r="F551" s="8"/>
-      <c r="G551" s="8"/>
+      <c r="C551" s="7"/>
+      <c r="D551" s="7"/>
+      <c r="E551" s="7"/>
+      <c r="F551" s="7"/>
+      <c r="G551" s="7"/>
     </row>
     <row r="552" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A552" s="4" t="s">
@@ -11897,13 +11900,13 @@
       </c>
     </row>
     <row r="557" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A557" s="7"/>
-      <c r="B557" s="7"/>
-      <c r="C557" s="7"/>
-      <c r="D557" s="7"/>
-      <c r="E557" s="7"/>
-      <c r="F557" s="7"/>
-      <c r="G557" s="7"/>
+      <c r="A557" s="8"/>
+      <c r="B557" s="8"/>
+      <c r="C557" s="8"/>
+      <c r="D557" s="8"/>
+      <c r="E557" s="8"/>
+      <c r="F557" s="8"/>
+      <c r="G557" s="8"/>
       <c r="H557" s="1">
         <v>43462</v>
       </c>
@@ -11941,14 +11944,14 @@
       <c r="A559" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B559" s="8" t="s">
+      <c r="B559" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C559" s="8"/>
-      <c r="D559" s="8"/>
-      <c r="E559" s="8"/>
-      <c r="F559" s="8"/>
-      <c r="G559" s="8"/>
+      <c r="C559" s="7"/>
+      <c r="D559" s="7"/>
+      <c r="E559" s="7"/>
+      <c r="F559" s="7"/>
+      <c r="G559" s="7"/>
     </row>
     <row r="560" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A560" s="4" t="s">
@@ -12038,13 +12041,13 @@
       </c>
     </row>
     <row r="565" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A565" s="7"/>
-      <c r="B565" s="7"/>
-      <c r="C565" s="7"/>
-      <c r="D565" s="7"/>
-      <c r="E565" s="7"/>
-      <c r="F565" s="7"/>
-      <c r="G565" s="7"/>
+      <c r="A565" s="8"/>
+      <c r="B565" s="8"/>
+      <c r="C565" s="8"/>
+      <c r="D565" s="8"/>
+      <c r="E565" s="8"/>
+      <c r="F565" s="8"/>
+      <c r="G565" s="8"/>
       <c r="H565" s="1">
         <v>17769</v>
       </c>
@@ -12082,14 +12085,14 @@
       <c r="A567" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B567" s="8" t="s">
+      <c r="B567" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C567" s="8"/>
-      <c r="D567" s="8"/>
-      <c r="E567" s="8"/>
-      <c r="F567" s="8"/>
-      <c r="G567" s="8"/>
+      <c r="C567" s="7"/>
+      <c r="D567" s="7"/>
+      <c r="E567" s="7"/>
+      <c r="F567" s="7"/>
+      <c r="G567" s="7"/>
     </row>
     <row r="568" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A568" s="4" t="s">
@@ -12179,13 +12182,13 @@
       </c>
     </row>
     <row r="573" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A573" s="7"/>
-      <c r="B573" s="7"/>
-      <c r="C573" s="7"/>
-      <c r="D573" s="7"/>
-      <c r="E573" s="7"/>
-      <c r="F573" s="7"/>
-      <c r="G573" s="7"/>
+      <c r="A573" s="8"/>
+      <c r="B573" s="8"/>
+      <c r="C573" s="8"/>
+      <c r="D573" s="8"/>
+      <c r="E573" s="8"/>
+      <c r="F573" s="8"/>
+      <c r="G573" s="8"/>
       <c r="H573" s="1">
         <v>17773</v>
       </c>
@@ -12223,14 +12226,14 @@
       <c r="A575" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B575" s="8" t="s">
+      <c r="B575" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C575" s="8"/>
-      <c r="D575" s="8"/>
-      <c r="E575" s="8"/>
-      <c r="F575" s="8"/>
-      <c r="G575" s="8"/>
+      <c r="C575" s="7"/>
+      <c r="D575" s="7"/>
+      <c r="E575" s="7"/>
+      <c r="F575" s="7"/>
+      <c r="G575" s="7"/>
     </row>
     <row r="576" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A576" s="4" t="s">
@@ -12320,13 +12323,13 @@
       </c>
     </row>
     <row r="581" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A581" s="7"/>
-      <c r="B581" s="7"/>
-      <c r="C581" s="7"/>
-      <c r="D581" s="7"/>
-      <c r="E581" s="7"/>
-      <c r="F581" s="7"/>
-      <c r="G581" s="7"/>
+      <c r="A581" s="8"/>
+      <c r="B581" s="8"/>
+      <c r="C581" s="8"/>
+      <c r="D581" s="8"/>
+      <c r="E581" s="8"/>
+      <c r="F581" s="8"/>
+      <c r="G581" s="8"/>
       <c r="H581" s="1">
         <v>17776</v>
       </c>
@@ -12364,14 +12367,14 @@
       <c r="A583" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B583" s="8" t="s">
+      <c r="B583" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C583" s="8"/>
-      <c r="D583" s="8"/>
-      <c r="E583" s="8"/>
-      <c r="F583" s="8"/>
-      <c r="G583" s="8"/>
+      <c r="C583" s="7"/>
+      <c r="D583" s="7"/>
+      <c r="E583" s="7"/>
+      <c r="F583" s="7"/>
+      <c r="G583" s="7"/>
     </row>
     <row r="584" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A584" s="4" t="s">
@@ -12461,13 +12464,13 @@
       </c>
     </row>
     <row r="589" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A589" s="7"/>
-      <c r="B589" s="7"/>
-      <c r="C589" s="7"/>
-      <c r="D589" s="7"/>
-      <c r="E589" s="7"/>
-      <c r="F589" s="7"/>
-      <c r="G589" s="7"/>
+      <c r="A589" s="8"/>
+      <c r="B589" s="8"/>
+      <c r="C589" s="8"/>
+      <c r="D589" s="8"/>
+      <c r="E589" s="8"/>
+      <c r="F589" s="8"/>
+      <c r="G589" s="8"/>
       <c r="H589" s="1">
         <v>17777</v>
       </c>
@@ -12505,14 +12508,14 @@
       <c r="A591" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B591" s="8" t="s">
+      <c r="B591" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C591" s="8"/>
-      <c r="D591" s="8"/>
-      <c r="E591" s="8"/>
-      <c r="F591" s="8"/>
-      <c r="G591" s="8"/>
+      <c r="C591" s="7"/>
+      <c r="D591" s="7"/>
+      <c r="E591" s="7"/>
+      <c r="F591" s="7"/>
+      <c r="G591" s="7"/>
     </row>
     <row r="592" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A592" s="4" t="s">
@@ -12602,13 +12605,13 @@
       </c>
     </row>
     <row r="597" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A597" s="7"/>
-      <c r="B597" s="7"/>
-      <c r="C597" s="7"/>
-      <c r="D597" s="7"/>
-      <c r="E597" s="7"/>
-      <c r="F597" s="7"/>
-      <c r="G597" s="7"/>
+      <c r="A597" s="8"/>
+      <c r="B597" s="8"/>
+      <c r="C597" s="8"/>
+      <c r="D597" s="8"/>
+      <c r="E597" s="8"/>
+      <c r="F597" s="8"/>
+      <c r="G597" s="8"/>
       <c r="H597" s="1">
         <v>37488</v>
       </c>
@@ -12646,14 +12649,14 @@
       <c r="A599" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B599" s="8" t="s">
+      <c r="B599" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C599" s="8"/>
-      <c r="D599" s="8"/>
-      <c r="E599" s="8"/>
-      <c r="F599" s="8"/>
-      <c r="G599" s="8"/>
+      <c r="C599" s="7"/>
+      <c r="D599" s="7"/>
+      <c r="E599" s="7"/>
+      <c r="F599" s="7"/>
+      <c r="G599" s="7"/>
     </row>
     <row r="600" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A600" s="4" t="s">
@@ -12743,13 +12746,13 @@
       </c>
     </row>
     <row r="605" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A605" s="7"/>
-      <c r="B605" s="7"/>
-      <c r="C605" s="7"/>
-      <c r="D605" s="7"/>
-      <c r="E605" s="7"/>
-      <c r="F605" s="7"/>
-      <c r="G605" s="7"/>
+      <c r="A605" s="8"/>
+      <c r="B605" s="8"/>
+      <c r="C605" s="8"/>
+      <c r="D605" s="8"/>
+      <c r="E605" s="8"/>
+      <c r="F605" s="8"/>
+      <c r="G605" s="8"/>
       <c r="H605" s="1">
         <v>41269</v>
       </c>
@@ -12787,14 +12790,14 @@
       <c r="A607" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B607" s="8" t="s">
+      <c r="B607" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C607" s="8"/>
-      <c r="D607" s="8"/>
-      <c r="E607" s="8"/>
-      <c r="F607" s="8"/>
-      <c r="G607" s="8"/>
+      <c r="C607" s="7"/>
+      <c r="D607" s="7"/>
+      <c r="E607" s="7"/>
+      <c r="F607" s="7"/>
+      <c r="G607" s="7"/>
     </row>
     <row r="608" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A608" s="4" t="s">
@@ -12884,13 +12887,13 @@
       </c>
     </row>
     <row r="613" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A613" s="7"/>
-      <c r="B613" s="7"/>
-      <c r="C613" s="7"/>
-      <c r="D613" s="7"/>
-      <c r="E613" s="7"/>
-      <c r="F613" s="7"/>
-      <c r="G613" s="7"/>
+      <c r="A613" s="8"/>
+      <c r="B613" s="8"/>
+      <c r="C613" s="8"/>
+      <c r="D613" s="8"/>
+      <c r="E613" s="8"/>
+      <c r="F613" s="8"/>
+      <c r="G613" s="8"/>
       <c r="H613" s="1">
         <v>43039</v>
       </c>
@@ -12928,14 +12931,14 @@
       <c r="A615" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B615" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C615" s="8"/>
-      <c r="D615" s="8"/>
-      <c r="E615" s="8"/>
-      <c r="F615" s="8"/>
-      <c r="G615" s="8"/>
+      <c r="C615" s="7"/>
+      <c r="D615" s="7"/>
+      <c r="E615" s="7"/>
+      <c r="F615" s="7"/>
+      <c r="G615" s="7"/>
     </row>
     <row r="616" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A616" s="4" t="s">
@@ -13025,13 +13028,13 @@
       </c>
     </row>
     <row r="621" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A621" s="7"/>
-      <c r="B621" s="7"/>
-      <c r="C621" s="7"/>
-      <c r="D621" s="7"/>
-      <c r="E621" s="7"/>
-      <c r="F621" s="7"/>
-      <c r="G621" s="7"/>
+      <c r="A621" s="8"/>
+      <c r="B621" s="8"/>
+      <c r="C621" s="8"/>
+      <c r="D621" s="8"/>
+      <c r="E621" s="8"/>
+      <c r="F621" s="8"/>
+      <c r="G621" s="8"/>
       <c r="H621" s="1">
         <v>17771</v>
       </c>
@@ -13069,14 +13072,14 @@
       <c r="A623" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B623" s="8" t="s">
+      <c r="B623" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C623" s="8"/>
-      <c r="D623" s="8"/>
-      <c r="E623" s="8"/>
-      <c r="F623" s="8"/>
-      <c r="G623" s="8"/>
+      <c r="C623" s="7"/>
+      <c r="D623" s="7"/>
+      <c r="E623" s="7"/>
+      <c r="F623" s="7"/>
+      <c r="G623" s="7"/>
     </row>
     <row r="624" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A624" s="4" t="s">
@@ -13166,13 +13169,13 @@
       </c>
     </row>
     <row r="629" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A629" s="7"/>
-      <c r="B629" s="7"/>
-      <c r="C629" s="7"/>
-      <c r="D629" s="7"/>
-      <c r="E629" s="7"/>
-      <c r="F629" s="7"/>
-      <c r="G629" s="7"/>
+      <c r="A629" s="8"/>
+      <c r="B629" s="8"/>
+      <c r="C629" s="8"/>
+      <c r="D629" s="8"/>
+      <c r="E629" s="8"/>
+      <c r="F629" s="8"/>
+      <c r="G629" s="8"/>
       <c r="H629" s="1">
         <v>25390</v>
       </c>
@@ -13210,14 +13213,14 @@
       <c r="A631" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B631" s="8" t="s">
+      <c r="B631" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C631" s="8"/>
-      <c r="D631" s="8"/>
-      <c r="E631" s="8"/>
-      <c r="F631" s="8"/>
-      <c r="G631" s="8"/>
+      <c r="C631" s="7"/>
+      <c r="D631" s="7"/>
+      <c r="E631" s="7"/>
+      <c r="F631" s="7"/>
+      <c r="G631" s="7"/>
     </row>
     <row r="632" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
@@ -13321,13 +13324,13 @@
       </c>
     </row>
     <row r="638" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A638" s="7"/>
-      <c r="B638" s="7"/>
-      <c r="C638" s="7"/>
-      <c r="D638" s="7"/>
-      <c r="E638" s="7"/>
-      <c r="F638" s="7"/>
-      <c r="G638" s="7"/>
+      <c r="A638" s="8"/>
+      <c r="B638" s="8"/>
+      <c r="C638" s="8"/>
+      <c r="D638" s="8"/>
+      <c r="E638" s="8"/>
+      <c r="F638" s="8"/>
+      <c r="G638" s="8"/>
       <c r="H638" s="1">
         <v>42028</v>
       </c>
@@ -13365,14 +13368,14 @@
       <c r="A640" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B640" s="8" t="s">
+      <c r="B640" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C640" s="8"/>
-      <c r="D640" s="8"/>
-      <c r="E640" s="8"/>
-      <c r="F640" s="8"/>
-      <c r="G640" s="8"/>
+      <c r="C640" s="7"/>
+      <c r="D640" s="7"/>
+      <c r="E640" s="7"/>
+      <c r="F640" s="7"/>
+      <c r="G640" s="7"/>
     </row>
     <row r="641" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A641" s="4" t="s">
@@ -13476,13 +13479,13 @@
       </c>
     </row>
     <row r="647" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A647" s="7"/>
-      <c r="B647" s="7"/>
-      <c r="C647" s="7"/>
-      <c r="D647" s="7"/>
-      <c r="E647" s="7"/>
-      <c r="F647" s="7"/>
-      <c r="G647" s="7"/>
+      <c r="A647" s="8"/>
+      <c r="B647" s="8"/>
+      <c r="C647" s="8"/>
+      <c r="D647" s="8"/>
+      <c r="E647" s="8"/>
+      <c r="F647" s="8"/>
+      <c r="G647" s="8"/>
       <c r="H647" s="1">
         <v>47837</v>
       </c>
@@ -13520,14 +13523,14 @@
       <c r="A649" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B649" s="8" t="s">
+      <c r="B649" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C649" s="8"/>
-      <c r="D649" s="8"/>
-      <c r="E649" s="8"/>
-      <c r="F649" s="8"/>
-      <c r="G649" s="8"/>
+      <c r="C649" s="7"/>
+      <c r="D649" s="7"/>
+      <c r="E649" s="7"/>
+      <c r="F649" s="7"/>
+      <c r="G649" s="7"/>
     </row>
     <row r="650" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A650" s="4" t="s">
@@ -13631,13 +13634,13 @@
       </c>
     </row>
     <row r="656" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A656" s="7"/>
-      <c r="B656" s="7"/>
-      <c r="C656" s="7"/>
-      <c r="D656" s="7"/>
-      <c r="E656" s="7"/>
-      <c r="F656" s="7"/>
-      <c r="G656" s="7"/>
+      <c r="A656" s="8"/>
+      <c r="B656" s="8"/>
+      <c r="C656" s="8"/>
+      <c r="D656" s="8"/>
+      <c r="E656" s="8"/>
+      <c r="F656" s="8"/>
+      <c r="G656" s="8"/>
       <c r="H656" s="1">
         <v>34076</v>
       </c>
@@ -13675,14 +13678,14 @@
       <c r="A658" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B658" s="8" t="s">
+      <c r="B658" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C658" s="8"/>
-      <c r="D658" s="8"/>
-      <c r="E658" s="8"/>
-      <c r="F658" s="8"/>
-      <c r="G658" s="8"/>
+      <c r="C658" s="7"/>
+      <c r="D658" s="7"/>
+      <c r="E658" s="7"/>
+      <c r="F658" s="7"/>
+      <c r="G658" s="7"/>
     </row>
     <row r="659" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A659" s="4" t="s">
@@ -13786,13 +13789,13 @@
       </c>
     </row>
     <row r="665" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A665" s="7"/>
-      <c r="B665" s="7"/>
-      <c r="C665" s="7"/>
-      <c r="D665" s="7"/>
-      <c r="E665" s="7"/>
-      <c r="F665" s="7"/>
-      <c r="G665" s="7"/>
+      <c r="A665" s="8"/>
+      <c r="B665" s="8"/>
+      <c r="C665" s="8"/>
+      <c r="D665" s="8"/>
+      <c r="E665" s="8"/>
+      <c r="F665" s="8"/>
+      <c r="G665" s="8"/>
       <c r="H665" s="1">
         <v>40529</v>
       </c>
@@ -13830,14 +13833,14 @@
       <c r="A667" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B667" s="8" t="s">
+      <c r="B667" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C667" s="8"/>
-      <c r="D667" s="8"/>
-      <c r="E667" s="8"/>
-      <c r="F667" s="8"/>
-      <c r="G667" s="8"/>
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="7"/>
+      <c r="F667" s="7"/>
+      <c r="G667" s="7"/>
     </row>
     <row r="668" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A668" s="4" t="s">
@@ -13941,13 +13944,13 @@
       </c>
     </row>
     <row r="674" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A674" s="7"/>
-      <c r="B674" s="7"/>
-      <c r="C674" s="7"/>
-      <c r="D674" s="7"/>
-      <c r="E674" s="7"/>
-      <c r="F674" s="7"/>
-      <c r="G674" s="7"/>
+      <c r="A674" s="8"/>
+      <c r="B674" s="8"/>
+      <c r="C674" s="8"/>
+      <c r="D674" s="8"/>
+      <c r="E674" s="8"/>
+      <c r="F674" s="8"/>
+      <c r="G674" s="8"/>
       <c r="H674" s="1">
         <v>42026</v>
       </c>
@@ -13985,14 +13988,14 @@
       <c r="A676" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B676" s="8" t="s">
+      <c r="B676" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C676" s="8"/>
-      <c r="D676" s="8"/>
-      <c r="E676" s="8"/>
-      <c r="F676" s="8"/>
-      <c r="G676" s="8"/>
+      <c r="C676" s="7"/>
+      <c r="D676" s="7"/>
+      <c r="E676" s="7"/>
+      <c r="F676" s="7"/>
+      <c r="G676" s="7"/>
     </row>
     <row r="677" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A677" s="4" t="s">
@@ -14096,13 +14099,13 @@
       </c>
     </row>
     <row r="683" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A683" s="7"/>
-      <c r="B683" s="7"/>
-      <c r="C683" s="7"/>
-      <c r="D683" s="7"/>
-      <c r="E683" s="7"/>
-      <c r="F683" s="7"/>
-      <c r="G683" s="7"/>
+      <c r="A683" s="8"/>
+      <c r="B683" s="8"/>
+      <c r="C683" s="8"/>
+      <c r="D683" s="8"/>
+      <c r="E683" s="8"/>
+      <c r="F683" s="8"/>
+      <c r="G683" s="8"/>
       <c r="H683" s="1">
         <v>17678</v>
       </c>
@@ -14140,14 +14143,14 @@
       <c r="A685" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B685" s="8" t="s">
+      <c r="B685" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C685" s="8"/>
-      <c r="D685" s="8"/>
-      <c r="E685" s="8"/>
-      <c r="F685" s="8"/>
-      <c r="G685" s="8"/>
+      <c r="C685" s="7"/>
+      <c r="D685" s="7"/>
+      <c r="E685" s="7"/>
+      <c r="F685" s="7"/>
+      <c r="G685" s="7"/>
     </row>
     <row r="686" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A686" s="4" t="s">
@@ -14251,13 +14254,13 @@
       </c>
     </row>
     <row r="692" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A692" s="7"/>
-      <c r="B692" s="7"/>
-      <c r="C692" s="7"/>
-      <c r="D692" s="7"/>
-      <c r="E692" s="7"/>
-      <c r="F692" s="7"/>
-      <c r="G692" s="7"/>
+      <c r="A692" s="8"/>
+      <c r="B692" s="8"/>
+      <c r="C692" s="8"/>
+      <c r="D692" s="8"/>
+      <c r="E692" s="8"/>
+      <c r="F692" s="8"/>
+      <c r="G692" s="8"/>
       <c r="H692" s="1">
         <v>27777</v>
       </c>
@@ -14295,14 +14298,14 @@
       <c r="A694" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B694" s="8" t="s">
+      <c r="B694" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C694" s="8"/>
-      <c r="D694" s="8"/>
-      <c r="E694" s="8"/>
-      <c r="F694" s="8"/>
-      <c r="G694" s="8"/>
+      <c r="C694" s="7"/>
+      <c r="D694" s="7"/>
+      <c r="E694" s="7"/>
+      <c r="F694" s="7"/>
+      <c r="G694" s="7"/>
     </row>
     <row r="695" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A695" s="4" t="s">
@@ -14406,13 +14409,13 @@
       </c>
     </row>
     <row r="701" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A701" s="7"/>
-      <c r="B701" s="7"/>
-      <c r="C701" s="7"/>
-      <c r="D701" s="7"/>
-      <c r="E701" s="7"/>
-      <c r="F701" s="7"/>
-      <c r="G701" s="7"/>
+      <c r="A701" s="8"/>
+      <c r="B701" s="8"/>
+      <c r="C701" s="8"/>
+      <c r="D701" s="8"/>
+      <c r="E701" s="8"/>
+      <c r="F701" s="8"/>
+      <c r="G701" s="8"/>
       <c r="H701" s="1">
         <v>46496</v>
       </c>
@@ -14450,14 +14453,14 @@
       <c r="A703" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B703" s="8" t="s">
+      <c r="B703" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C703" s="8"/>
-      <c r="D703" s="8"/>
-      <c r="E703" s="8"/>
-      <c r="F703" s="8"/>
-      <c r="G703" s="8"/>
+      <c r="C703" s="7"/>
+      <c r="D703" s="7"/>
+      <c r="E703" s="7"/>
+      <c r="F703" s="7"/>
+      <c r="G703" s="7"/>
     </row>
     <row r="704" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A704" s="4" t="s">
@@ -14547,13 +14550,13 @@
       </c>
     </row>
     <row r="709" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A709" s="7"/>
-      <c r="B709" s="7"/>
-      <c r="C709" s="7"/>
-      <c r="D709" s="7"/>
-      <c r="E709" s="7"/>
-      <c r="F709" s="7"/>
-      <c r="G709" s="7"/>
+      <c r="A709" s="8"/>
+      <c r="B709" s="8"/>
+      <c r="C709" s="8"/>
+      <c r="D709" s="8"/>
+      <c r="E709" s="8"/>
+      <c r="F709" s="8"/>
+      <c r="G709" s="8"/>
       <c r="H709" s="1">
         <v>37277</v>
       </c>
@@ -14591,14 +14594,14 @@
       <c r="A711" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B711" s="8" t="s">
+      <c r="B711" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C711" s="8"/>
-      <c r="D711" s="8"/>
-      <c r="E711" s="8"/>
-      <c r="F711" s="8"/>
-      <c r="G711" s="8"/>
+      <c r="C711" s="7"/>
+      <c r="D711" s="7"/>
+      <c r="E711" s="7"/>
+      <c r="F711" s="7"/>
+      <c r="G711" s="7"/>
     </row>
     <row r="712" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A712" s="4" t="s">
@@ -14688,13 +14691,13 @@
       </c>
     </row>
     <row r="717" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A717" s="7"/>
-      <c r="B717" s="7"/>
-      <c r="C717" s="7"/>
-      <c r="D717" s="7"/>
-      <c r="E717" s="7"/>
-      <c r="F717" s="7"/>
-      <c r="G717" s="7"/>
+      <c r="A717" s="8"/>
+      <c r="B717" s="8"/>
+      <c r="C717" s="8"/>
+      <c r="D717" s="8"/>
+      <c r="E717" s="8"/>
+      <c r="F717" s="8"/>
+      <c r="G717" s="8"/>
       <c r="H717" s="1">
         <v>42228</v>
       </c>
@@ -14732,14 +14735,14 @@
       <c r="A719" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B719" s="8" t="s">
+      <c r="B719" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C719" s="8"/>
-      <c r="D719" s="8"/>
-      <c r="E719" s="8"/>
-      <c r="F719" s="8"/>
-      <c r="G719" s="8"/>
+      <c r="C719" s="7"/>
+      <c r="D719" s="7"/>
+      <c r="E719" s="7"/>
+      <c r="F719" s="7"/>
+      <c r="G719" s="7"/>
     </row>
     <row r="720" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A720" s="4" t="s">
@@ -14843,13 +14846,13 @@
       </c>
     </row>
     <row r="726" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A726" s="7"/>
-      <c r="B726" s="7"/>
-      <c r="C726" s="7"/>
-      <c r="D726" s="7"/>
-      <c r="E726" s="7"/>
-      <c r="F726" s="7"/>
-      <c r="G726" s="7"/>
+      <c r="A726" s="8"/>
+      <c r="B726" s="8"/>
+      <c r="C726" s="8"/>
+      <c r="D726" s="8"/>
+      <c r="E726" s="8"/>
+      <c r="F726" s="8"/>
+      <c r="G726" s="8"/>
       <c r="H726" s="1">
         <v>36419</v>
       </c>
@@ -14887,14 +14890,14 @@
       <c r="A728" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B728" s="8" t="s">
+      <c r="B728" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C728" s="8"/>
-      <c r="D728" s="8"/>
-      <c r="E728" s="8"/>
-      <c r="F728" s="8"/>
-      <c r="G728" s="8"/>
+      <c r="C728" s="7"/>
+      <c r="D728" s="7"/>
+      <c r="E728" s="7"/>
+      <c r="F728" s="7"/>
+      <c r="G728" s="7"/>
     </row>
     <row r="729" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A729" s="4" t="s">
@@ -14998,13 +15001,13 @@
       </c>
     </row>
     <row r="735" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A735" s="7"/>
-      <c r="B735" s="7"/>
-      <c r="C735" s="7"/>
-      <c r="D735" s="7"/>
-      <c r="E735" s="7"/>
-      <c r="F735" s="7"/>
-      <c r="G735" s="7"/>
+      <c r="A735" s="8"/>
+      <c r="B735" s="8"/>
+      <c r="C735" s="8"/>
+      <c r="D735" s="8"/>
+      <c r="E735" s="8"/>
+      <c r="F735" s="8"/>
+      <c r="G735" s="8"/>
       <c r="H735" s="1">
         <v>17691</v>
       </c>
@@ -15042,14 +15045,14 @@
       <c r="A737" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B737" s="8" t="s">
+      <c r="B737" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C737" s="8"/>
-      <c r="D737" s="8"/>
-      <c r="E737" s="8"/>
-      <c r="F737" s="8"/>
-      <c r="G737" s="8"/>
+      <c r="C737" s="7"/>
+      <c r="D737" s="7"/>
+      <c r="E737" s="7"/>
+      <c r="F737" s="7"/>
+      <c r="G737" s="7"/>
     </row>
     <row r="738" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A738" s="4" t="s">
@@ -15153,13 +15156,13 @@
       </c>
     </row>
     <row r="744" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A744" s="7"/>
-      <c r="B744" s="7"/>
-      <c r="C744" s="7"/>
-      <c r="D744" s="7"/>
-      <c r="E744" s="7"/>
-      <c r="F744" s="7"/>
-      <c r="G744" s="7"/>
+      <c r="A744" s="8"/>
+      <c r="B744" s="8"/>
+      <c r="C744" s="8"/>
+      <c r="D744" s="8"/>
+      <c r="E744" s="8"/>
+      <c r="F744" s="8"/>
+      <c r="G744" s="8"/>
       <c r="H744" s="1">
         <v>17781</v>
       </c>
@@ -15197,14 +15200,14 @@
       <c r="A746" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B746" s="8" t="s">
+      <c r="B746" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C746" s="8"/>
-      <c r="D746" s="8"/>
-      <c r="E746" s="8"/>
-      <c r="F746" s="8"/>
-      <c r="G746" s="8"/>
+      <c r="C746" s="7"/>
+      <c r="D746" s="7"/>
+      <c r="E746" s="7"/>
+      <c r="F746" s="7"/>
+      <c r="G746" s="7"/>
     </row>
     <row r="747" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A747" s="4" t="s">
@@ -15294,13 +15297,13 @@
       </c>
     </row>
     <row r="752" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A752" s="7"/>
-      <c r="B752" s="7"/>
-      <c r="C752" s="7"/>
-      <c r="D752" s="7"/>
-      <c r="E752" s="7"/>
-      <c r="F752" s="7"/>
-      <c r="G752" s="7"/>
+      <c r="A752" s="8"/>
+      <c r="B752" s="8"/>
+      <c r="C752" s="8"/>
+      <c r="D752" s="8"/>
+      <c r="E752" s="8"/>
+      <c r="F752" s="8"/>
+      <c r="G752" s="8"/>
       <c r="H752" s="1">
         <v>17782</v>
       </c>
@@ -15338,14 +15341,14 @@
       <c r="A754" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B754" s="8" t="s">
+      <c r="B754" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C754" s="8"/>
-      <c r="D754" s="8"/>
-      <c r="E754" s="8"/>
-      <c r="F754" s="8"/>
-      <c r="G754" s="8"/>
+      <c r="C754" s="7"/>
+      <c r="D754" s="7"/>
+      <c r="E754" s="7"/>
+      <c r="F754" s="7"/>
+      <c r="G754" s="7"/>
     </row>
     <row r="755" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A755" s="4" t="s">
@@ -15435,13 +15438,13 @@
       </c>
     </row>
     <row r="760" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A760" s="7"/>
-      <c r="B760" s="7"/>
-      <c r="C760" s="7"/>
-      <c r="D760" s="7"/>
-      <c r="E760" s="7"/>
-      <c r="F760" s="7"/>
-      <c r="G760" s="7"/>
+      <c r="A760" s="8"/>
+      <c r="B760" s="8"/>
+      <c r="C760" s="8"/>
+      <c r="D760" s="8"/>
+      <c r="E760" s="8"/>
+      <c r="F760" s="8"/>
+      <c r="G760" s="8"/>
       <c r="H760" s="1">
         <v>17783</v>
       </c>
@@ -15479,14 +15482,14 @@
       <c r="A762" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B762" s="8" t="s">
+      <c r="B762" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C762" s="8"/>
-      <c r="D762" s="8"/>
-      <c r="E762" s="8"/>
-      <c r="F762" s="8"/>
-      <c r="G762" s="8"/>
+      <c r="C762" s="7"/>
+      <c r="D762" s="7"/>
+      <c r="E762" s="7"/>
+      <c r="F762" s="7"/>
+      <c r="G762" s="7"/>
     </row>
     <row r="763" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A763" s="4" t="s">
@@ -15576,13 +15579,13 @@
       </c>
     </row>
     <row r="768" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A768" s="7"/>
-      <c r="B768" s="7"/>
-      <c r="C768" s="7"/>
-      <c r="D768" s="7"/>
-      <c r="E768" s="7"/>
-      <c r="F768" s="7"/>
-      <c r="G768" s="7"/>
+      <c r="A768" s="8"/>
+      <c r="B768" s="8"/>
+      <c r="C768" s="8"/>
+      <c r="D768" s="8"/>
+      <c r="E768" s="8"/>
+      <c r="F768" s="8"/>
+      <c r="G768" s="8"/>
       <c r="H768" s="1">
         <v>17784</v>
       </c>
@@ -15620,14 +15623,14 @@
       <c r="A770" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B770" s="8" t="s">
+      <c r="B770" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C770" s="8"/>
-      <c r="D770" s="8"/>
-      <c r="E770" s="8"/>
-      <c r="F770" s="8"/>
-      <c r="G770" s="8"/>
+      <c r="C770" s="7"/>
+      <c r="D770" s="7"/>
+      <c r="E770" s="7"/>
+      <c r="F770" s="7"/>
+      <c r="G770" s="7"/>
     </row>
     <row r="771" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A771" s="4" t="s">
@@ -15717,13 +15720,13 @@
       </c>
     </row>
     <row r="776" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A776" s="7"/>
-      <c r="B776" s="7"/>
-      <c r="C776" s="7"/>
-      <c r="D776" s="7"/>
-      <c r="E776" s="7"/>
-      <c r="F776" s="7"/>
-      <c r="G776" s="7"/>
+      <c r="A776" s="8"/>
+      <c r="B776" s="8"/>
+      <c r="C776" s="8"/>
+      <c r="D776" s="8"/>
+      <c r="E776" s="8"/>
+      <c r="F776" s="8"/>
+      <c r="G776" s="8"/>
       <c r="H776" s="1">
         <v>17785</v>
       </c>
@@ -15761,14 +15764,14 @@
       <c r="A778" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B778" s="8" t="s">
+      <c r="B778" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C778" s="8"/>
-      <c r="D778" s="8"/>
-      <c r="E778" s="8"/>
-      <c r="F778" s="8"/>
-      <c r="G778" s="8"/>
+      <c r="C778" s="7"/>
+      <c r="D778" s="7"/>
+      <c r="E778" s="7"/>
+      <c r="F778" s="7"/>
+      <c r="G778" s="7"/>
     </row>
     <row r="779" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A779" s="4" t="s">
@@ -15858,13 +15861,13 @@
       </c>
     </row>
     <row r="784" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A784" s="7"/>
-      <c r="B784" s="7"/>
-      <c r="C784" s="7"/>
-      <c r="D784" s="7"/>
-      <c r="E784" s="7"/>
-      <c r="F784" s="7"/>
-      <c r="G784" s="7"/>
+      <c r="A784" s="8"/>
+      <c r="B784" s="8"/>
+      <c r="C784" s="8"/>
+      <c r="D784" s="8"/>
+      <c r="E784" s="8"/>
+      <c r="F784" s="8"/>
+      <c r="G784" s="8"/>
       <c r="H784" s="1">
         <v>17786</v>
       </c>
@@ -15902,14 +15905,14 @@
       <c r="A786" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B786" s="8" t="s">
+      <c r="B786" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C786" s="8"/>
-      <c r="D786" s="8"/>
-      <c r="E786" s="8"/>
-      <c r="F786" s="8"/>
-      <c r="G786" s="8"/>
+      <c r="C786" s="7"/>
+      <c r="D786" s="7"/>
+      <c r="E786" s="7"/>
+      <c r="F786" s="7"/>
+      <c r="G786" s="7"/>
     </row>
     <row r="787" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A787" s="4" t="s">
@@ -15999,13 +16002,13 @@
       </c>
     </row>
     <row r="792" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A792" s="7"/>
-      <c r="B792" s="7"/>
-      <c r="C792" s="7"/>
-      <c r="D792" s="7"/>
-      <c r="E792" s="7"/>
-      <c r="F792" s="7"/>
-      <c r="G792" s="7"/>
+      <c r="A792" s="8"/>
+      <c r="B792" s="8"/>
+      <c r="C792" s="8"/>
+      <c r="D792" s="8"/>
+      <c r="E792" s="8"/>
+      <c r="F792" s="8"/>
+      <c r="G792" s="8"/>
       <c r="H792" s="1">
         <v>17787</v>
       </c>
@@ -16043,14 +16046,14 @@
       <c r="A794" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B794" s="8" t="s">
+      <c r="B794" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C794" s="8"/>
-      <c r="D794" s="8"/>
-      <c r="E794" s="8"/>
-      <c r="F794" s="8"/>
-      <c r="G794" s="8"/>
+      <c r="C794" s="7"/>
+      <c r="D794" s="7"/>
+      <c r="E794" s="7"/>
+      <c r="F794" s="7"/>
+      <c r="G794" s="7"/>
     </row>
     <row r="795" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A795" s="4" t="s">
@@ -16140,13 +16143,13 @@
       </c>
     </row>
     <row r="800" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A800" s="7"/>
-      <c r="B800" s="7"/>
-      <c r="C800" s="7"/>
-      <c r="D800" s="7"/>
-      <c r="E800" s="7"/>
-      <c r="F800" s="7"/>
-      <c r="G800" s="7"/>
+      <c r="A800" s="8"/>
+      <c r="B800" s="8"/>
+      <c r="C800" s="8"/>
+      <c r="D800" s="8"/>
+      <c r="E800" s="8"/>
+      <c r="F800" s="8"/>
+      <c r="G800" s="8"/>
       <c r="H800" s="1">
         <v>17788</v>
       </c>
@@ -16184,14 +16187,14 @@
       <c r="A802" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B802" s="8" t="s">
+      <c r="B802" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C802" s="8"/>
-      <c r="D802" s="8"/>
-      <c r="E802" s="8"/>
-      <c r="F802" s="8"/>
-      <c r="G802" s="8"/>
+      <c r="C802" s="7"/>
+      <c r="D802" s="7"/>
+      <c r="E802" s="7"/>
+      <c r="F802" s="7"/>
+      <c r="G802" s="7"/>
     </row>
     <row r="803" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A803" s="4" t="s">
@@ -16281,13 +16284,13 @@
       </c>
     </row>
     <row r="808" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A808" s="7"/>
-      <c r="B808" s="7"/>
-      <c r="C808" s="7"/>
-      <c r="D808" s="7"/>
-      <c r="E808" s="7"/>
-      <c r="F808" s="7"/>
-      <c r="G808" s="7"/>
+      <c r="A808" s="8"/>
+      <c r="B808" s="8"/>
+      <c r="C808" s="8"/>
+      <c r="D808" s="8"/>
+      <c r="E808" s="8"/>
+      <c r="F808" s="8"/>
+      <c r="G808" s="8"/>
       <c r="H808" s="1">
         <v>17789</v>
       </c>
@@ -16325,14 +16328,14 @@
       <c r="A810" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B810" s="8" t="s">
+      <c r="B810" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C810" s="8"/>
-      <c r="D810" s="8"/>
-      <c r="E810" s="8"/>
-      <c r="F810" s="8"/>
-      <c r="G810" s="8"/>
+      <c r="C810" s="7"/>
+      <c r="D810" s="7"/>
+      <c r="E810" s="7"/>
+      <c r="F810" s="7"/>
+      <c r="G810" s="7"/>
     </row>
     <row r="811" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A811" s="4" t="s">
@@ -16422,13 +16425,13 @@
       </c>
     </row>
     <row r="816" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A816" s="7"/>
-      <c r="B816" s="7"/>
-      <c r="C816" s="7"/>
-      <c r="D816" s="7"/>
-      <c r="E816" s="7"/>
-      <c r="F816" s="7"/>
-      <c r="G816" s="7"/>
+      <c r="A816" s="8"/>
+      <c r="B816" s="8"/>
+      <c r="C816" s="8"/>
+      <c r="D816" s="8"/>
+      <c r="E816" s="8"/>
+      <c r="F816" s="8"/>
+      <c r="G816" s="8"/>
       <c r="H816" s="1">
         <v>17790</v>
       </c>
@@ -16466,14 +16469,14 @@
       <c r="A818" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B818" s="8" t="s">
+      <c r="B818" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C818" s="8"/>
-      <c r="D818" s="8"/>
-      <c r="E818" s="8"/>
-      <c r="F818" s="8"/>
-      <c r="G818" s="8"/>
+      <c r="C818" s="7"/>
+      <c r="D818" s="7"/>
+      <c r="E818" s="7"/>
+      <c r="F818" s="7"/>
+      <c r="G818" s="7"/>
     </row>
     <row r="819" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A819" s="4" t="s">
@@ -16563,37 +16566,35 @@
       </c>
     </row>
     <row r="824" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A824" s="7">
-        <v>17791</v>
-      </c>
-      <c r="B824" s="7"/>
-      <c r="C824" s="7"/>
-      <c r="D824" s="7"/>
-      <c r="E824" s="7"/>
-      <c r="F824" s="7"/>
-      <c r="G824" s="7"/>
+      <c r="B824" s="6"/>
+      <c r="C824" s="6"/>
+      <c r="D824" s="6"/>
+      <c r="E824" s="6"/>
       <c r="H824" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="I824" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I824" s="1">
+      <c r="J824" s="1">
         <v>4910</v>
       </c>
-      <c r="J824" s="1">
+      <c r="K824" s="1">
         <v>13</v>
       </c>
-      <c r="K824" s="1" t="s">
+      <c r="L824" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="L824" s="1" t="s">
+      <c r="M824" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="M824" s="1" t="s">
+      <c r="N824" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="N824" s="1" t="s">
+      <c r="O824" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="O824" s="1" t="s">
+      <c r="P824" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -16606,14 +16607,14 @@
       <c r="A826" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B826" s="8" t="s">
+      <c r="B826" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C826" s="8"/>
-      <c r="D826" s="8"/>
-      <c r="E826" s="8"/>
-      <c r="F826" s="8"/>
-      <c r="G826" s="8"/>
+      <c r="C826" s="7"/>
+      <c r="D826" s="7"/>
+      <c r="E826" s="7"/>
+      <c r="F826" s="7"/>
+      <c r="G826" s="7"/>
     </row>
     <row r="827" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A827" s="4" t="s">
@@ -16703,13 +16704,13 @@
       </c>
     </row>
     <row r="832" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A832" s="7"/>
-      <c r="B832" s="7"/>
-      <c r="C832" s="7"/>
-      <c r="D832" s="7"/>
-      <c r="E832" s="7"/>
-      <c r="F832" s="7"/>
-      <c r="G832" s="7"/>
+      <c r="A832" s="8"/>
+      <c r="B832" s="8"/>
+      <c r="C832" s="8"/>
+      <c r="D832" s="8"/>
+      <c r="E832" s="8"/>
+      <c r="F832" s="8"/>
+      <c r="G832" s="8"/>
       <c r="H832" s="1">
         <v>17792</v>
       </c>
@@ -16747,14 +16748,14 @@
       <c r="A834" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B834" s="8" t="s">
+      <c r="B834" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C834" s="8"/>
-      <c r="D834" s="8"/>
-      <c r="E834" s="8"/>
-      <c r="F834" s="8"/>
-      <c r="G834" s="8"/>
+      <c r="C834" s="7"/>
+      <c r="D834" s="7"/>
+      <c r="E834" s="7"/>
+      <c r="F834" s="7"/>
+      <c r="G834" s="7"/>
     </row>
     <row r="835" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A835" s="4" t="s">
@@ -16844,13 +16845,13 @@
       </c>
     </row>
     <row r="840" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A840" s="7"/>
-      <c r="B840" s="7"/>
-      <c r="C840" s="7"/>
-      <c r="D840" s="7"/>
-      <c r="E840" s="7"/>
-      <c r="F840" s="7"/>
-      <c r="G840" s="7"/>
+      <c r="A840" s="8"/>
+      <c r="B840" s="8"/>
+      <c r="C840" s="8"/>
+      <c r="D840" s="8"/>
+      <c r="E840" s="8"/>
+      <c r="F840" s="8"/>
+      <c r="G840" s="8"/>
       <c r="H840" s="1">
         <v>17794</v>
       </c>
@@ -16888,14 +16889,14 @@
       <c r="A842" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B842" s="8" t="s">
+      <c r="B842" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C842" s="8"/>
-      <c r="D842" s="8"/>
-      <c r="E842" s="8"/>
-      <c r="F842" s="8"/>
-      <c r="G842" s="8"/>
+      <c r="C842" s="7"/>
+      <c r="D842" s="7"/>
+      <c r="E842" s="7"/>
+      <c r="F842" s="7"/>
+      <c r="G842" s="7"/>
     </row>
     <row r="843" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A843" s="4" t="s">
@@ -16985,13 +16986,13 @@
       </c>
     </row>
     <row r="848" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A848" s="7"/>
-      <c r="B848" s="7"/>
-      <c r="C848" s="7"/>
-      <c r="D848" s="7"/>
-      <c r="E848" s="7"/>
-      <c r="F848" s="7"/>
-      <c r="G848" s="7"/>
+      <c r="A848" s="8"/>
+      <c r="B848" s="8"/>
+      <c r="C848" s="8"/>
+      <c r="D848" s="8"/>
+      <c r="E848" s="8"/>
+      <c r="F848" s="8"/>
+      <c r="G848" s="8"/>
       <c r="H848" s="1">
         <v>17795</v>
       </c>
@@ -17029,14 +17030,14 @@
       <c r="A850" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B850" s="8" t="s">
+      <c r="B850" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C850" s="8"/>
-      <c r="D850" s="8"/>
-      <c r="E850" s="8"/>
-      <c r="F850" s="8"/>
-      <c r="G850" s="8"/>
+      <c r="C850" s="7"/>
+      <c r="D850" s="7"/>
+      <c r="E850" s="7"/>
+      <c r="F850" s="7"/>
+      <c r="G850" s="7"/>
     </row>
     <row r="851" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A851" s="4" t="s">
@@ -17126,13 +17127,13 @@
       </c>
     </row>
     <row r="856" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A856" s="7"/>
-      <c r="B856" s="7"/>
-      <c r="C856" s="7"/>
-      <c r="D856" s="7"/>
-      <c r="E856" s="7"/>
-      <c r="F856" s="7"/>
-      <c r="G856" s="7"/>
+      <c r="A856" s="8"/>
+      <c r="B856" s="8"/>
+      <c r="C856" s="8"/>
+      <c r="D856" s="8"/>
+      <c r="E856" s="8"/>
+      <c r="F856" s="8"/>
+      <c r="G856" s="8"/>
       <c r="H856" s="1">
         <v>17793</v>
       </c>
@@ -17170,14 +17171,14 @@
       <c r="A858" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B858" s="8" t="s">
+      <c r="B858" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C858" s="8"/>
-      <c r="D858" s="8"/>
-      <c r="E858" s="8"/>
-      <c r="F858" s="8"/>
-      <c r="G858" s="8"/>
+      <c r="C858" s="7"/>
+      <c r="D858" s="7"/>
+      <c r="E858" s="7"/>
+      <c r="F858" s="7"/>
+      <c r="G858" s="7"/>
     </row>
     <row r="859" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A859" s="4" t="s">
@@ -17267,13 +17268,13 @@
       </c>
     </row>
     <row r="864" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A864" s="7"/>
-      <c r="B864" s="7"/>
-      <c r="C864" s="7"/>
-      <c r="D864" s="7"/>
-      <c r="E864" s="7"/>
-      <c r="F864" s="7"/>
-      <c r="G864" s="7"/>
+      <c r="A864" s="8"/>
+      <c r="B864" s="8"/>
+      <c r="C864" s="8"/>
+      <c r="D864" s="8"/>
+      <c r="E864" s="8"/>
+      <c r="F864" s="8"/>
+      <c r="G864" s="8"/>
       <c r="H864" s="1">
         <v>25391</v>
       </c>
@@ -17311,14 +17312,14 @@
       <c r="A866" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B866" s="8" t="s">
+      <c r="B866" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C866" s="8"/>
-      <c r="D866" s="8"/>
-      <c r="E866" s="8"/>
-      <c r="F866" s="8"/>
-      <c r="G866" s="8"/>
+      <c r="C866" s="7"/>
+      <c r="D866" s="7"/>
+      <c r="E866" s="7"/>
+      <c r="F866" s="7"/>
+      <c r="G866" s="7"/>
     </row>
     <row r="867" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A867" s="4" t="s">
@@ -17422,13 +17423,13 @@
       </c>
     </row>
     <row r="873" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A873" s="7"/>
-      <c r="B873" s="7"/>
-      <c r="C873" s="7"/>
-      <c r="D873" s="7"/>
-      <c r="E873" s="7"/>
-      <c r="F873" s="7"/>
-      <c r="G873" s="7"/>
+      <c r="A873" s="8"/>
+      <c r="B873" s="8"/>
+      <c r="C873" s="8"/>
+      <c r="D873" s="8"/>
+      <c r="E873" s="8"/>
+      <c r="F873" s="8"/>
+      <c r="G873" s="8"/>
       <c r="H873" s="1">
         <v>42029</v>
       </c>
@@ -17466,14 +17467,14 @@
       <c r="A875" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B875" s="8" t="s">
+      <c r="B875" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C875" s="8"/>
-      <c r="D875" s="8"/>
-      <c r="E875" s="8"/>
-      <c r="F875" s="8"/>
-      <c r="G875" s="8"/>
+      <c r="C875" s="7"/>
+      <c r="D875" s="7"/>
+      <c r="E875" s="7"/>
+      <c r="F875" s="7"/>
+      <c r="G875" s="7"/>
     </row>
     <row r="876" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A876" s="4" t="s">
@@ -17577,13 +17578,13 @@
       </c>
     </row>
     <row r="882" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A882" s="7"/>
-      <c r="B882" s="7"/>
-      <c r="C882" s="7"/>
-      <c r="D882" s="7"/>
-      <c r="E882" s="7"/>
-      <c r="F882" s="7"/>
-      <c r="G882" s="7"/>
+      <c r="A882" s="8"/>
+      <c r="B882" s="8"/>
+      <c r="C882" s="8"/>
+      <c r="D882" s="8"/>
+      <c r="E882" s="8"/>
+      <c r="F882" s="8"/>
+      <c r="G882" s="8"/>
       <c r="H882" s="1">
         <v>47838</v>
       </c>
@@ -17621,14 +17622,14 @@
       <c r="A884" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B884" s="8" t="s">
+      <c r="B884" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C884" s="8"/>
-      <c r="D884" s="8"/>
-      <c r="E884" s="8"/>
-      <c r="F884" s="8"/>
-      <c r="G884" s="8"/>
+      <c r="C884" s="7"/>
+      <c r="D884" s="7"/>
+      <c r="E884" s="7"/>
+      <c r="F884" s="7"/>
+      <c r="G884" s="7"/>
     </row>
     <row r="885" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A885" s="4" t="s">
@@ -17732,13 +17733,13 @@
       </c>
     </row>
     <row r="891" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A891" s="7"/>
-      <c r="B891" s="7"/>
-      <c r="C891" s="7"/>
-      <c r="D891" s="7"/>
-      <c r="E891" s="7"/>
-      <c r="F891" s="7"/>
-      <c r="G891" s="7"/>
+      <c r="A891" s="8"/>
+      <c r="B891" s="8"/>
+      <c r="C891" s="8"/>
+      <c r="D891" s="8"/>
+      <c r="E891" s="8"/>
+      <c r="F891" s="8"/>
+      <c r="G891" s="8"/>
       <c r="H891" s="1">
         <v>36337</v>
       </c>
@@ -17776,14 +17777,14 @@
       <c r="A893" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B893" s="8" t="s">
+      <c r="B893" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C893" s="8"/>
-      <c r="D893" s="8"/>
-      <c r="E893" s="8"/>
-      <c r="F893" s="8"/>
-      <c r="G893" s="8"/>
+      <c r="C893" s="7"/>
+      <c r="D893" s="7"/>
+      <c r="E893" s="7"/>
+      <c r="F893" s="7"/>
+      <c r="G893" s="7"/>
     </row>
     <row r="894" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A894" s="4" t="s">
@@ -17887,13 +17888,13 @@
       </c>
     </row>
     <row r="900" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A900" s="7"/>
-      <c r="B900" s="7"/>
-      <c r="C900" s="7"/>
-      <c r="D900" s="7"/>
-      <c r="E900" s="7"/>
-      <c r="F900" s="7"/>
-      <c r="G900" s="7"/>
+      <c r="A900" s="8"/>
+      <c r="B900" s="8"/>
+      <c r="C900" s="8"/>
+      <c r="D900" s="8"/>
+      <c r="E900" s="8"/>
+      <c r="F900" s="8"/>
+      <c r="G900" s="8"/>
       <c r="H900" s="1">
         <v>45993</v>
       </c>
@@ -17931,14 +17932,14 @@
       <c r="A902" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B902" s="8" t="s">
+      <c r="B902" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C902" s="8"/>
-      <c r="D902" s="8"/>
-      <c r="E902" s="8"/>
-      <c r="F902" s="8"/>
-      <c r="G902" s="8"/>
+      <c r="C902" s="7"/>
+      <c r="D902" s="7"/>
+      <c r="E902" s="7"/>
+      <c r="F902" s="7"/>
+      <c r="G902" s="7"/>
     </row>
     <row r="903" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A903" s="4" t="s">
@@ -18042,13 +18043,13 @@
       </c>
     </row>
     <row r="909" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A909" s="7"/>
-      <c r="B909" s="7"/>
-      <c r="C909" s="7"/>
-      <c r="D909" s="7"/>
-      <c r="E909" s="7"/>
-      <c r="F909" s="7"/>
-      <c r="G909" s="7"/>
+      <c r="A909" s="8"/>
+      <c r="B909" s="8"/>
+      <c r="C909" s="8"/>
+      <c r="D909" s="8"/>
+      <c r="E909" s="8"/>
+      <c r="F909" s="8"/>
+      <c r="G909" s="8"/>
       <c r="H909" s="1">
         <v>42229</v>
       </c>
@@ -18086,14 +18087,14 @@
       <c r="A911" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B911" s="8" t="s">
+      <c r="B911" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C911" s="8"/>
-      <c r="D911" s="8"/>
-      <c r="E911" s="8"/>
-      <c r="F911" s="8"/>
-      <c r="G911" s="8"/>
+      <c r="C911" s="7"/>
+      <c r="D911" s="7"/>
+      <c r="E911" s="7"/>
+      <c r="F911" s="7"/>
+      <c r="G911" s="7"/>
     </row>
     <row r="912" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A912" s="4" t="s">
@@ -18197,13 +18198,13 @@
       </c>
     </row>
     <row r="918" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A918" s="7"/>
-      <c r="B918" s="7"/>
-      <c r="C918" s="7"/>
-      <c r="D918" s="7"/>
-      <c r="E918" s="7"/>
-      <c r="F918" s="7"/>
-      <c r="G918" s="7"/>
+      <c r="A918" s="8"/>
+      <c r="B918" s="8"/>
+      <c r="C918" s="8"/>
+      <c r="D918" s="8"/>
+      <c r="E918" s="8"/>
+      <c r="F918" s="8"/>
+      <c r="G918" s="8"/>
       <c r="H918" s="1">
         <v>31967</v>
       </c>
@@ -18241,14 +18242,14 @@
       <c r="A920" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B920" s="8" t="s">
+      <c r="B920" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C920" s="8"/>
-      <c r="D920" s="8"/>
-      <c r="E920" s="8"/>
-      <c r="F920" s="8"/>
-      <c r="G920" s="8"/>
+      <c r="C920" s="7"/>
+      <c r="D920" s="7"/>
+      <c r="E920" s="7"/>
+      <c r="F920" s="7"/>
+      <c r="G920" s="7"/>
     </row>
     <row r="921" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A921" s="4" t="s">
@@ -18352,13 +18353,13 @@
       </c>
     </row>
     <row r="927" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A927" s="7"/>
-      <c r="B927" s="7"/>
-      <c r="C927" s="7"/>
-      <c r="D927" s="7"/>
-      <c r="E927" s="7"/>
-      <c r="F927" s="7"/>
-      <c r="G927" s="7"/>
+      <c r="A927" s="8"/>
+      <c r="B927" s="8"/>
+      <c r="C927" s="8"/>
+      <c r="D927" s="8"/>
+      <c r="E927" s="8"/>
+      <c r="F927" s="8"/>
+      <c r="G927" s="8"/>
       <c r="H927" s="1">
         <v>45719</v>
       </c>
@@ -18396,14 +18397,14 @@
       <c r="A929" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B929" s="8" t="s">
+      <c r="B929" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C929" s="8"/>
-      <c r="D929" s="8"/>
-      <c r="E929" s="8"/>
-      <c r="F929" s="8"/>
-      <c r="G929" s="8"/>
+      <c r="C929" s="7"/>
+      <c r="D929" s="7"/>
+      <c r="E929" s="7"/>
+      <c r="F929" s="7"/>
+      <c r="G929" s="7"/>
     </row>
     <row r="930" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A930" s="4" t="s">
@@ -18507,13 +18508,13 @@
       </c>
     </row>
     <row r="936" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A936" s="7"/>
-      <c r="B936" s="7"/>
-      <c r="C936" s="7"/>
-      <c r="D936" s="7"/>
-      <c r="E936" s="7"/>
-      <c r="F936" s="7"/>
-      <c r="G936" s="7"/>
+      <c r="A936" s="8"/>
+      <c r="B936" s="8"/>
+      <c r="C936" s="8"/>
+      <c r="D936" s="8"/>
+      <c r="E936" s="8"/>
+      <c r="F936" s="8"/>
+      <c r="G936" s="8"/>
       <c r="H936" s="1">
         <v>47615</v>
       </c>
@@ -18551,14 +18552,14 @@
       <c r="A938" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B938" s="8" t="s">
+      <c r="B938" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C938" s="8"/>
-      <c r="D938" s="8"/>
-      <c r="E938" s="8"/>
-      <c r="F938" s="8"/>
-      <c r="G938" s="8"/>
+      <c r="C938" s="7"/>
+      <c r="D938" s="7"/>
+      <c r="E938" s="7"/>
+      <c r="F938" s="7"/>
+      <c r="G938" s="7"/>
     </row>
     <row r="939" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A939" s="4" t="s">
@@ -18648,13 +18649,13 @@
       </c>
     </row>
     <row r="944" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A944" s="7"/>
-      <c r="B944" s="7"/>
-      <c r="C944" s="7"/>
-      <c r="D944" s="7"/>
-      <c r="E944" s="7"/>
-      <c r="F944" s="7"/>
-      <c r="G944" s="7"/>
+      <c r="A944" s="8"/>
+      <c r="B944" s="8"/>
+      <c r="C944" s="8"/>
+      <c r="D944" s="8"/>
+      <c r="E944" s="8"/>
+      <c r="F944" s="8"/>
+      <c r="G944" s="8"/>
       <c r="H944" s="1">
         <v>17799</v>
       </c>
@@ -18692,14 +18693,14 @@
       <c r="A946" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B946" s="8" t="s">
+      <c r="B946" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C946" s="8"/>
-      <c r="D946" s="8"/>
-      <c r="E946" s="8"/>
-      <c r="F946" s="8"/>
-      <c r="G946" s="8"/>
+      <c r="C946" s="7"/>
+      <c r="D946" s="7"/>
+      <c r="E946" s="7"/>
+      <c r="F946" s="7"/>
+      <c r="G946" s="7"/>
     </row>
     <row r="947" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A947" s="4" t="s">
@@ -18789,13 +18790,13 @@
       </c>
     </row>
     <row r="952" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A952" s="7"/>
-      <c r="B952" s="7"/>
-      <c r="C952" s="7"/>
-      <c r="D952" s="7"/>
-      <c r="E952" s="7"/>
-      <c r="F952" s="7"/>
-      <c r="G952" s="7"/>
+      <c r="A952" s="8"/>
+      <c r="B952" s="8"/>
+      <c r="C952" s="8"/>
+      <c r="D952" s="8"/>
+      <c r="E952" s="8"/>
+      <c r="F952" s="8"/>
+      <c r="G952" s="8"/>
       <c r="H952" s="1">
         <v>17801</v>
       </c>
@@ -18833,14 +18834,14 @@
       <c r="A954" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B954" s="8" t="s">
+      <c r="B954" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C954" s="8"/>
-      <c r="D954" s="8"/>
-      <c r="E954" s="8"/>
-      <c r="F954" s="8"/>
-      <c r="G954" s="8"/>
+      <c r="C954" s="7"/>
+      <c r="D954" s="7"/>
+      <c r="E954" s="7"/>
+      <c r="F954" s="7"/>
+      <c r="G954" s="7"/>
     </row>
     <row r="955" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A955" s="4" t="s">
@@ -18930,13 +18931,13 @@
       </c>
     </row>
     <row r="960" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A960" s="7"/>
-      <c r="B960" s="7"/>
-      <c r="C960" s="7"/>
-      <c r="D960" s="7"/>
-      <c r="E960" s="7"/>
-      <c r="F960" s="7"/>
-      <c r="G960" s="7"/>
+      <c r="A960" s="8"/>
+      <c r="B960" s="8"/>
+      <c r="C960" s="8"/>
+      <c r="D960" s="8"/>
+      <c r="E960" s="8"/>
+      <c r="F960" s="8"/>
+      <c r="G960" s="8"/>
       <c r="H960" s="1">
         <v>17802</v>
       </c>
@@ -18974,14 +18975,14 @@
       <c r="A962" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B962" s="8" t="s">
+      <c r="B962" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C962" s="8"/>
-      <c r="D962" s="8"/>
-      <c r="E962" s="8"/>
-      <c r="F962" s="8"/>
-      <c r="G962" s="8"/>
+      <c r="C962" s="7"/>
+      <c r="D962" s="7"/>
+      <c r="E962" s="7"/>
+      <c r="F962" s="7"/>
+      <c r="G962" s="7"/>
     </row>
     <row r="963" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A963" s="4" t="s">
@@ -19071,13 +19072,13 @@
       </c>
     </row>
     <row r="968" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A968" s="7"/>
-      <c r="B968" s="7"/>
-      <c r="C968" s="7"/>
-      <c r="D968" s="7"/>
-      <c r="E968" s="7"/>
-      <c r="F968" s="7"/>
-      <c r="G968" s="7"/>
+      <c r="A968" s="8"/>
+      <c r="B968" s="8"/>
+      <c r="C968" s="8"/>
+      <c r="D968" s="8"/>
+      <c r="E968" s="8"/>
+      <c r="F968" s="8"/>
+      <c r="G968" s="8"/>
       <c r="H968" s="1">
         <v>17803</v>
       </c>
@@ -19115,14 +19116,14 @@
       <c r="A970" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B970" s="8" t="s">
+      <c r="B970" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C970" s="8"/>
-      <c r="D970" s="8"/>
-      <c r="E970" s="8"/>
-      <c r="F970" s="8"/>
-      <c r="G970" s="8"/>
+      <c r="C970" s="7"/>
+      <c r="D970" s="7"/>
+      <c r="E970" s="7"/>
+      <c r="F970" s="7"/>
+      <c r="G970" s="7"/>
     </row>
     <row r="971" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A971" s="4" t="s">
@@ -19212,13 +19213,13 @@
       </c>
     </row>
     <row r="976" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A976" s="7"/>
-      <c r="B976" s="7"/>
-      <c r="C976" s="7"/>
-      <c r="D976" s="7"/>
-      <c r="E976" s="7"/>
-      <c r="F976" s="7"/>
-      <c r="G976" s="7"/>
+      <c r="A976" s="8"/>
+      <c r="B976" s="8"/>
+      <c r="C976" s="8"/>
+      <c r="D976" s="8"/>
+      <c r="E976" s="8"/>
+      <c r="F976" s="8"/>
+      <c r="G976" s="8"/>
       <c r="H976" s="1">
         <v>17804</v>
       </c>
@@ -19256,14 +19257,14 @@
       <c r="A978" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B978" s="8" t="s">
+      <c r="B978" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C978" s="8"/>
-      <c r="D978" s="8"/>
-      <c r="E978" s="8"/>
-      <c r="F978" s="8"/>
-      <c r="G978" s="8"/>
+      <c r="C978" s="7"/>
+      <c r="D978" s="7"/>
+      <c r="E978" s="7"/>
+      <c r="F978" s="7"/>
+      <c r="G978" s="7"/>
     </row>
     <row r="979" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A979" s="4" t="s">
@@ -19353,13 +19354,13 @@
       </c>
     </row>
     <row r="984" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A984" s="7"/>
-      <c r="B984" s="7"/>
-      <c r="C984" s="7"/>
-      <c r="D984" s="7"/>
-      <c r="E984" s="7"/>
-      <c r="F984" s="7"/>
-      <c r="G984" s="7"/>
+      <c r="A984" s="8"/>
+      <c r="B984" s="8"/>
+      <c r="C984" s="8"/>
+      <c r="D984" s="8"/>
+      <c r="E984" s="8"/>
+      <c r="F984" s="8"/>
+      <c r="G984" s="8"/>
       <c r="H984" s="1">
         <v>17805</v>
       </c>
@@ -19397,14 +19398,14 @@
       <c r="A986" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B986" s="8" t="s">
+      <c r="B986" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C986" s="8"/>
-      <c r="D986" s="8"/>
-      <c r="E986" s="8"/>
-      <c r="F986" s="8"/>
-      <c r="G986" s="8"/>
+      <c r="C986" s="7"/>
+      <c r="D986" s="7"/>
+      <c r="E986" s="7"/>
+      <c r="F986" s="7"/>
+      <c r="G986" s="7"/>
     </row>
     <row r="987" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A987" s="4" t="s">
@@ -19494,13 +19495,13 @@
       </c>
     </row>
     <row r="992" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A992" s="7"/>
-      <c r="B992" s="7"/>
-      <c r="C992" s="7"/>
-      <c r="D992" s="7"/>
-      <c r="E992" s="7"/>
-      <c r="F992" s="7"/>
-      <c r="G992" s="7"/>
+      <c r="A992" s="8"/>
+      <c r="B992" s="8"/>
+      <c r="C992" s="8"/>
+      <c r="D992" s="8"/>
+      <c r="E992" s="8"/>
+      <c r="F992" s="8"/>
+      <c r="G992" s="8"/>
       <c r="H992" s="1">
         <v>17806</v>
       </c>
@@ -19538,14 +19539,14 @@
       <c r="A994" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B994" s="8" t="s">
+      <c r="B994" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C994" s="8"/>
-      <c r="D994" s="8"/>
-      <c r="E994" s="8"/>
-      <c r="F994" s="8"/>
-      <c r="G994" s="8"/>
+      <c r="C994" s="7"/>
+      <c r="D994" s="7"/>
+      <c r="E994" s="7"/>
+      <c r="F994" s="7"/>
+      <c r="G994" s="7"/>
     </row>
     <row r="995" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A995" s="4" t="s">
@@ -19635,13 +19636,13 @@
       </c>
     </row>
     <row r="1000" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1000" s="7"/>
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="7"/>
-      <c r="D1000" s="7"/>
-      <c r="E1000" s="7"/>
-      <c r="F1000" s="7"/>
-      <c r="G1000" s="7"/>
+      <c r="A1000" s="8"/>
+      <c r="B1000" s="8"/>
+      <c r="C1000" s="8"/>
+      <c r="D1000" s="8"/>
+      <c r="E1000" s="8"/>
+      <c r="F1000" s="8"/>
+      <c r="G1000" s="8"/>
       <c r="H1000" s="1">
         <v>17807</v>
       </c>
@@ -19679,14 +19680,14 @@
       <c r="A1002" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1002" s="8" t="s">
+      <c r="B1002" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1002" s="8"/>
-      <c r="D1002" s="8"/>
-      <c r="E1002" s="8"/>
-      <c r="F1002" s="8"/>
-      <c r="G1002" s="8"/>
+      <c r="C1002" s="7"/>
+      <c r="D1002" s="7"/>
+      <c r="E1002" s="7"/>
+      <c r="F1002" s="7"/>
+      <c r="G1002" s="7"/>
     </row>
     <row r="1003" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1003" s="4" t="s">
@@ -19776,13 +19777,13 @@
       </c>
     </row>
     <row r="1008" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1008" s="7"/>
-      <c r="B1008" s="7"/>
-      <c r="C1008" s="7"/>
-      <c r="D1008" s="7"/>
-      <c r="E1008" s="7"/>
-      <c r="F1008" s="7"/>
-      <c r="G1008" s="7"/>
+      <c r="A1008" s="8"/>
+      <c r="B1008" s="8"/>
+      <c r="C1008" s="8"/>
+      <c r="D1008" s="8"/>
+      <c r="E1008" s="8"/>
+      <c r="F1008" s="8"/>
+      <c r="G1008" s="8"/>
       <c r="H1008" s="1">
         <v>45788</v>
       </c>
@@ -19820,14 +19821,14 @@
       <c r="A1010" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1010" s="8" t="s">
+      <c r="B1010" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1010" s="8"/>
-      <c r="D1010" s="8"/>
-      <c r="E1010" s="8"/>
-      <c r="F1010" s="8"/>
-      <c r="G1010" s="8"/>
+      <c r="C1010" s="7"/>
+      <c r="D1010" s="7"/>
+      <c r="E1010" s="7"/>
+      <c r="F1010" s="7"/>
+      <c r="G1010" s="7"/>
     </row>
     <row r="1011" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1011" s="4" t="s">
@@ -19917,13 +19918,13 @@
       </c>
     </row>
     <row r="1016" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1016" s="7"/>
-      <c r="B1016" s="7"/>
-      <c r="C1016" s="7"/>
-      <c r="D1016" s="7"/>
-      <c r="E1016" s="7"/>
-      <c r="F1016" s="7"/>
-      <c r="G1016" s="7"/>
+      <c r="A1016" s="8"/>
+      <c r="B1016" s="8"/>
+      <c r="C1016" s="8"/>
+      <c r="D1016" s="8"/>
+      <c r="E1016" s="8"/>
+      <c r="F1016" s="8"/>
+      <c r="G1016" s="8"/>
       <c r="H1016" s="1">
         <v>17808</v>
       </c>
@@ -19961,14 +19962,14 @@
       <c r="A1018" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1018" s="8" t="s">
+      <c r="B1018" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1018" s="8"/>
-      <c r="D1018" s="8"/>
-      <c r="E1018" s="8"/>
-      <c r="F1018" s="8"/>
-      <c r="G1018" s="8"/>
+      <c r="C1018" s="7"/>
+      <c r="D1018" s="7"/>
+      <c r="E1018" s="7"/>
+      <c r="F1018" s="7"/>
+      <c r="G1018" s="7"/>
     </row>
     <row r="1019" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1019" s="4" t="s">
@@ -20058,13 +20059,13 @@
       </c>
     </row>
     <row r="1024" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1024" s="7"/>
-      <c r="B1024" s="7"/>
-      <c r="C1024" s="7"/>
-      <c r="D1024" s="7"/>
-      <c r="E1024" s="7"/>
-      <c r="F1024" s="7"/>
-      <c r="G1024" s="7"/>
+      <c r="A1024" s="8"/>
+      <c r="B1024" s="8"/>
+      <c r="C1024" s="8"/>
+      <c r="D1024" s="8"/>
+      <c r="E1024" s="8"/>
+      <c r="F1024" s="8"/>
+      <c r="G1024" s="8"/>
       <c r="H1024" s="1">
         <v>17809</v>
       </c>
@@ -20102,14 +20103,14 @@
       <c r="A1026" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1026" s="8" t="s">
+      <c r="B1026" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1026" s="8"/>
-      <c r="D1026" s="8"/>
-      <c r="E1026" s="8"/>
-      <c r="F1026" s="8"/>
-      <c r="G1026" s="8"/>
+      <c r="C1026" s="7"/>
+      <c r="D1026" s="7"/>
+      <c r="E1026" s="7"/>
+      <c r="F1026" s="7"/>
+      <c r="G1026" s="7"/>
     </row>
     <row r="1027" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1027" s="4" t="s">
@@ -20199,13 +20200,13 @@
       </c>
     </row>
     <row r="1032" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1032" s="7"/>
-      <c r="B1032" s="7"/>
-      <c r="C1032" s="7"/>
-      <c r="D1032" s="7"/>
-      <c r="E1032" s="7"/>
-      <c r="F1032" s="7"/>
-      <c r="G1032" s="7"/>
+      <c r="A1032" s="8"/>
+      <c r="B1032" s="8"/>
+      <c r="C1032" s="8"/>
+      <c r="D1032" s="8"/>
+      <c r="E1032" s="8"/>
+      <c r="F1032" s="8"/>
+      <c r="G1032" s="8"/>
       <c r="H1032" s="1">
         <v>43461</v>
       </c>
@@ -20243,14 +20244,14 @@
       <c r="A1034" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1034" s="8" t="s">
+      <c r="B1034" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1034" s="8"/>
-      <c r="D1034" s="8"/>
-      <c r="E1034" s="8"/>
-      <c r="F1034" s="8"/>
-      <c r="G1034" s="8"/>
+      <c r="C1034" s="7"/>
+      <c r="D1034" s="7"/>
+      <c r="E1034" s="7"/>
+      <c r="F1034" s="7"/>
+      <c r="G1034" s="7"/>
     </row>
     <row r="1035" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1035" s="4" t="s">
@@ -20340,13 +20341,13 @@
       </c>
     </row>
     <row r="1040" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1040" s="7"/>
-      <c r="B1040" s="7"/>
-      <c r="C1040" s="7"/>
-      <c r="D1040" s="7"/>
-      <c r="E1040" s="7"/>
-      <c r="F1040" s="7"/>
-      <c r="G1040" s="7"/>
+      <c r="A1040" s="8"/>
+      <c r="B1040" s="8"/>
+      <c r="C1040" s="8"/>
+      <c r="D1040" s="8"/>
+      <c r="E1040" s="8"/>
+      <c r="F1040" s="8"/>
+      <c r="G1040" s="8"/>
       <c r="H1040" s="1">
         <v>17810</v>
       </c>
@@ -20384,14 +20385,14 @@
       <c r="A1042" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1042" s="8" t="s">
+      <c r="B1042" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1042" s="8"/>
-      <c r="D1042" s="8"/>
-      <c r="E1042" s="8"/>
-      <c r="F1042" s="8"/>
-      <c r="G1042" s="8"/>
+      <c r="C1042" s="7"/>
+      <c r="D1042" s="7"/>
+      <c r="E1042" s="7"/>
+      <c r="F1042" s="7"/>
+      <c r="G1042" s="7"/>
     </row>
     <row r="1043" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1043" s="4" t="s">
@@ -20481,13 +20482,13 @@
       </c>
     </row>
     <row r="1048" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1048" s="7"/>
-      <c r="B1048" s="7"/>
-      <c r="C1048" s="7"/>
-      <c r="D1048" s="7"/>
-      <c r="E1048" s="7"/>
-      <c r="F1048" s="7"/>
-      <c r="G1048" s="7"/>
+      <c r="A1048" s="8"/>
+      <c r="B1048" s="8"/>
+      <c r="C1048" s="8"/>
+      <c r="D1048" s="8"/>
+      <c r="E1048" s="8"/>
+      <c r="F1048" s="8"/>
+      <c r="G1048" s="8"/>
       <c r="H1048" s="1">
         <v>17811</v>
       </c>
@@ -20525,14 +20526,14 @@
       <c r="A1050" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1050" s="8" t="s">
+      <c r="B1050" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1050" s="8"/>
-      <c r="D1050" s="8"/>
-      <c r="E1050" s="8"/>
-      <c r="F1050" s="8"/>
-      <c r="G1050" s="8"/>
+      <c r="C1050" s="7"/>
+      <c r="D1050" s="7"/>
+      <c r="E1050" s="7"/>
+      <c r="F1050" s="7"/>
+      <c r="G1050" s="7"/>
     </row>
     <row r="1051" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1051" s="4" t="s">
@@ -20622,13 +20623,13 @@
       </c>
     </row>
     <row r="1056" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1056" s="7"/>
-      <c r="B1056" s="7"/>
-      <c r="C1056" s="7"/>
-      <c r="D1056" s="7"/>
-      <c r="E1056" s="7"/>
-      <c r="F1056" s="7"/>
-      <c r="G1056" s="7"/>
+      <c r="A1056" s="8"/>
+      <c r="B1056" s="8"/>
+      <c r="C1056" s="8"/>
+      <c r="D1056" s="8"/>
+      <c r="E1056" s="8"/>
+      <c r="F1056" s="8"/>
+      <c r="G1056" s="8"/>
       <c r="H1056" s="1">
         <v>17812</v>
       </c>
@@ -20666,14 +20667,14 @@
       <c r="A1058" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1058" s="8" t="s">
+      <c r="B1058" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1058" s="8"/>
-      <c r="D1058" s="8"/>
-      <c r="E1058" s="8"/>
-      <c r="F1058" s="8"/>
-      <c r="G1058" s="8"/>
+      <c r="C1058" s="7"/>
+      <c r="D1058" s="7"/>
+      <c r="E1058" s="7"/>
+      <c r="F1058" s="7"/>
+      <c r="G1058" s="7"/>
     </row>
     <row r="1059" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1059" s="4" t="s">
@@ -20763,13 +20764,13 @@
       </c>
     </row>
     <row r="1064" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1064" s="7"/>
-      <c r="B1064" s="7"/>
-      <c r="C1064" s="7"/>
-      <c r="D1064" s="7"/>
-      <c r="E1064" s="7"/>
-      <c r="F1064" s="7"/>
-      <c r="G1064" s="7"/>
+      <c r="A1064" s="8"/>
+      <c r="B1064" s="8"/>
+      <c r="C1064" s="8"/>
+      <c r="D1064" s="8"/>
+      <c r="E1064" s="8"/>
+      <c r="F1064" s="8"/>
+      <c r="G1064" s="8"/>
       <c r="H1064" s="1">
         <v>17813</v>
       </c>
@@ -20807,14 +20808,14 @@
       <c r="A1066" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1066" s="8" t="s">
+      <c r="B1066" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1066" s="8"/>
-      <c r="D1066" s="8"/>
-      <c r="E1066" s="8"/>
-      <c r="F1066" s="8"/>
-      <c r="G1066" s="8"/>
+      <c r="C1066" s="7"/>
+      <c r="D1066" s="7"/>
+      <c r="E1066" s="7"/>
+      <c r="F1066" s="7"/>
+      <c r="G1066" s="7"/>
     </row>
     <row r="1067" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1067" s="4" t="s">
@@ -20904,13 +20905,13 @@
       </c>
     </row>
     <row r="1072" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1072" s="7"/>
-      <c r="B1072" s="7"/>
-      <c r="C1072" s="7"/>
-      <c r="D1072" s="7"/>
-      <c r="E1072" s="7"/>
-      <c r="F1072" s="7"/>
-      <c r="G1072" s="7"/>
+      <c r="A1072" s="8"/>
+      <c r="B1072" s="8"/>
+      <c r="C1072" s="8"/>
+      <c r="D1072" s="8"/>
+      <c r="E1072" s="8"/>
+      <c r="F1072" s="8"/>
+      <c r="G1072" s="8"/>
       <c r="H1072" s="1">
         <v>45789</v>
       </c>
@@ -20948,14 +20949,14 @@
       <c r="A1074" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1074" s="8" t="s">
+      <c r="B1074" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1074" s="8"/>
-      <c r="D1074" s="8"/>
-      <c r="E1074" s="8"/>
-      <c r="F1074" s="8"/>
-      <c r="G1074" s="8"/>
+      <c r="C1074" s="7"/>
+      <c r="D1074" s="7"/>
+      <c r="E1074" s="7"/>
+      <c r="F1074" s="7"/>
+      <c r="G1074" s="7"/>
     </row>
     <row r="1075" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1075" s="4" t="s">
@@ -21045,13 +21046,13 @@
       </c>
     </row>
     <row r="1080" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1080" s="7"/>
-      <c r="B1080" s="7"/>
-      <c r="C1080" s="7"/>
-      <c r="D1080" s="7"/>
-      <c r="E1080" s="7"/>
-      <c r="F1080" s="7"/>
-      <c r="G1080" s="7"/>
+      <c r="A1080" s="8"/>
+      <c r="B1080" s="8"/>
+      <c r="C1080" s="8"/>
+      <c r="D1080" s="8"/>
+      <c r="E1080" s="8"/>
+      <c r="F1080" s="8"/>
+      <c r="G1080" s="8"/>
       <c r="H1080" s="1">
         <v>43457</v>
       </c>
@@ -21089,14 +21090,14 @@
       <c r="A1082" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1082" s="8" t="s">
+      <c r="B1082" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1082" s="8"/>
-      <c r="D1082" s="8"/>
-      <c r="E1082" s="8"/>
-      <c r="F1082" s="8"/>
-      <c r="G1082" s="8"/>
+      <c r="C1082" s="7"/>
+      <c r="D1082" s="7"/>
+      <c r="E1082" s="7"/>
+      <c r="F1082" s="7"/>
+      <c r="G1082" s="7"/>
     </row>
     <row r="1083" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1083" s="4" t="s">
@@ -21186,13 +21187,13 @@
       </c>
     </row>
     <row r="1088" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1088" s="7"/>
-      <c r="B1088" s="7"/>
-      <c r="C1088" s="7"/>
-      <c r="D1088" s="7"/>
-      <c r="E1088" s="7"/>
-      <c r="F1088" s="7"/>
-      <c r="G1088" s="7"/>
+      <c r="A1088" s="8"/>
+      <c r="B1088" s="8"/>
+      <c r="C1088" s="8"/>
+      <c r="D1088" s="8"/>
+      <c r="E1088" s="8"/>
+      <c r="F1088" s="8"/>
+      <c r="G1088" s="8"/>
       <c r="H1088" s="1">
         <v>43458</v>
       </c>
@@ -21230,14 +21231,14 @@
       <c r="A1090" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1090" s="8" t="s">
+      <c r="B1090" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1090" s="8"/>
-      <c r="D1090" s="8"/>
-      <c r="E1090" s="8"/>
-      <c r="F1090" s="8"/>
-      <c r="G1090" s="8"/>
+      <c r="C1090" s="7"/>
+      <c r="D1090" s="7"/>
+      <c r="E1090" s="7"/>
+      <c r="F1090" s="7"/>
+      <c r="G1090" s="7"/>
     </row>
     <row r="1091" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1091" s="4" t="s">
@@ -21327,13 +21328,13 @@
       </c>
     </row>
     <row r="1096" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1096" s="7"/>
-      <c r="B1096" s="7"/>
-      <c r="C1096" s="7"/>
-      <c r="D1096" s="7"/>
-      <c r="E1096" s="7"/>
-      <c r="F1096" s="7"/>
-      <c r="G1096" s="7"/>
+      <c r="A1096" s="8"/>
+      <c r="B1096" s="8"/>
+      <c r="C1096" s="8"/>
+      <c r="D1096" s="8"/>
+      <c r="E1096" s="8"/>
+      <c r="F1096" s="8"/>
+      <c r="G1096" s="8"/>
       <c r="H1096" s="1">
         <v>43459</v>
       </c>
@@ -21371,14 +21372,14 @@
       <c r="A1098" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1098" s="8" t="s">
+      <c r="B1098" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1098" s="8"/>
-      <c r="D1098" s="8"/>
-      <c r="E1098" s="8"/>
-      <c r="F1098" s="8"/>
-      <c r="G1098" s="8"/>
+      <c r="C1098" s="7"/>
+      <c r="D1098" s="7"/>
+      <c r="E1098" s="7"/>
+      <c r="F1098" s="7"/>
+      <c r="G1098" s="7"/>
     </row>
     <row r="1099" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1099" s="4" t="s">
@@ -21468,13 +21469,13 @@
       </c>
     </row>
     <row r="1104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1104" s="7"/>
-      <c r="B1104" s="7"/>
-      <c r="C1104" s="7"/>
-      <c r="D1104" s="7"/>
-      <c r="E1104" s="7"/>
-      <c r="F1104" s="7"/>
-      <c r="G1104" s="7"/>
+      <c r="A1104" s="8"/>
+      <c r="B1104" s="8"/>
+      <c r="C1104" s="8"/>
+      <c r="D1104" s="8"/>
+      <c r="E1104" s="8"/>
+      <c r="F1104" s="8"/>
+      <c r="G1104" s="8"/>
       <c r="H1104" s="1">
         <v>47702</v>
       </c>
@@ -21512,14 +21513,14 @@
       <c r="A1106" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1106" s="8" t="s">
+      <c r="B1106" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1106" s="8"/>
-      <c r="D1106" s="8"/>
-      <c r="E1106" s="8"/>
-      <c r="F1106" s="8"/>
-      <c r="G1106" s="8"/>
+      <c r="C1106" s="7"/>
+      <c r="D1106" s="7"/>
+      <c r="E1106" s="7"/>
+      <c r="F1106" s="7"/>
+      <c r="G1106" s="7"/>
     </row>
     <row r="1107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1107" s="4" t="s">
@@ -21609,13 +21610,13 @@
       </c>
     </row>
     <row r="1112" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1112" s="7"/>
-      <c r="B1112" s="7"/>
-      <c r="C1112" s="7"/>
-      <c r="D1112" s="7"/>
-      <c r="E1112" s="7"/>
-      <c r="F1112" s="7"/>
-      <c r="G1112" s="7"/>
+      <c r="A1112" s="8"/>
+      <c r="B1112" s="8"/>
+      <c r="C1112" s="8"/>
+      <c r="D1112" s="8"/>
+      <c r="E1112" s="8"/>
+      <c r="F1112" s="8"/>
+      <c r="G1112" s="8"/>
       <c r="H1112" s="1">
         <v>47703</v>
       </c>
@@ -21653,14 +21654,14 @@
       <c r="A1114" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1114" s="8" t="s">
+      <c r="B1114" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1114" s="8"/>
-      <c r="D1114" s="8"/>
-      <c r="E1114" s="8"/>
-      <c r="F1114" s="8"/>
-      <c r="G1114" s="8"/>
+      <c r="C1114" s="7"/>
+      <c r="D1114" s="7"/>
+      <c r="E1114" s="7"/>
+      <c r="F1114" s="7"/>
+      <c r="G1114" s="7"/>
     </row>
     <row r="1115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1115" s="4" t="s">
@@ -21750,13 +21751,13 @@
       </c>
     </row>
     <row r="1120" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1120" s="7"/>
-      <c r="B1120" s="7"/>
-      <c r="C1120" s="7"/>
-      <c r="D1120" s="7"/>
-      <c r="E1120" s="7"/>
-      <c r="F1120" s="7"/>
-      <c r="G1120" s="7"/>
+      <c r="A1120" s="8"/>
+      <c r="B1120" s="8"/>
+      <c r="C1120" s="8"/>
+      <c r="D1120" s="8"/>
+      <c r="E1120" s="8"/>
+      <c r="F1120" s="8"/>
+      <c r="G1120" s="8"/>
       <c r="H1120" s="1">
         <v>17817</v>
       </c>
@@ -21794,14 +21795,14 @@
       <c r="A1122" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1122" s="8" t="s">
+      <c r="B1122" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1122" s="8"/>
-      <c r="D1122" s="8"/>
-      <c r="E1122" s="8"/>
-      <c r="F1122" s="8"/>
-      <c r="G1122" s="8"/>
+      <c r="C1122" s="7"/>
+      <c r="D1122" s="7"/>
+      <c r="E1122" s="7"/>
+      <c r="F1122" s="7"/>
+      <c r="G1122" s="7"/>
     </row>
     <row r="1123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1123" s="4" t="s">
@@ -21891,13 +21892,13 @@
       </c>
     </row>
     <row r="1128" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1128" s="7"/>
-      <c r="B1128" s="7"/>
-      <c r="C1128" s="7"/>
-      <c r="D1128" s="7"/>
-      <c r="E1128" s="7"/>
-      <c r="F1128" s="7"/>
-      <c r="G1128" s="7"/>
+      <c r="A1128" s="8"/>
+      <c r="B1128" s="8"/>
+      <c r="C1128" s="8"/>
+      <c r="D1128" s="8"/>
+      <c r="E1128" s="8"/>
+      <c r="F1128" s="8"/>
+      <c r="G1128" s="8"/>
       <c r="H1128" s="1">
         <v>17819</v>
       </c>
@@ -21935,14 +21936,14 @@
       <c r="A1130" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1130" s="8" t="s">
+      <c r="B1130" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1130" s="8"/>
-      <c r="D1130" s="8"/>
-      <c r="E1130" s="8"/>
-      <c r="F1130" s="8"/>
-      <c r="G1130" s="8"/>
+      <c r="C1130" s="7"/>
+      <c r="D1130" s="7"/>
+      <c r="E1130" s="7"/>
+      <c r="F1130" s="7"/>
+      <c r="G1130" s="7"/>
     </row>
     <row r="1131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1131" s="4" t="s">
@@ -22032,13 +22033,13 @@
       </c>
     </row>
     <row r="1136" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1136" s="7"/>
-      <c r="B1136" s="7"/>
-      <c r="C1136" s="7"/>
-      <c r="D1136" s="7"/>
-      <c r="E1136" s="7"/>
-      <c r="F1136" s="7"/>
-      <c r="G1136" s="7"/>
+      <c r="A1136" s="8"/>
+      <c r="B1136" s="8"/>
+      <c r="C1136" s="8"/>
+      <c r="D1136" s="8"/>
+      <c r="E1136" s="8"/>
+      <c r="F1136" s="8"/>
+      <c r="G1136" s="8"/>
       <c r="H1136" s="1">
         <v>17820</v>
       </c>
@@ -22076,14 +22077,14 @@
       <c r="A1138" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1138" s="8" t="s">
+      <c r="B1138" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1138" s="8"/>
-      <c r="D1138" s="8"/>
-      <c r="E1138" s="8"/>
-      <c r="F1138" s="8"/>
-      <c r="G1138" s="8"/>
+      <c r="C1138" s="7"/>
+      <c r="D1138" s="7"/>
+      <c r="E1138" s="7"/>
+      <c r="F1138" s="7"/>
+      <c r="G1138" s="7"/>
     </row>
     <row r="1139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1139" s="4" t="s">
@@ -22173,13 +22174,13 @@
       </c>
     </row>
     <row r="1144" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1144" s="7"/>
-      <c r="B1144" s="7"/>
-      <c r="C1144" s="7"/>
-      <c r="D1144" s="7"/>
-      <c r="E1144" s="7"/>
-      <c r="F1144" s="7"/>
-      <c r="G1144" s="7"/>
+      <c r="A1144" s="8"/>
+      <c r="B1144" s="8"/>
+      <c r="C1144" s="8"/>
+      <c r="D1144" s="8"/>
+      <c r="E1144" s="8"/>
+      <c r="F1144" s="8"/>
+      <c r="G1144" s="8"/>
       <c r="H1144" s="1">
         <v>17821</v>
       </c>
@@ -22217,14 +22218,14 @@
       <c r="A1146" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1146" s="8" t="s">
+      <c r="B1146" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1146" s="8"/>
-      <c r="D1146" s="8"/>
-      <c r="E1146" s="8"/>
-      <c r="F1146" s="8"/>
-      <c r="G1146" s="8"/>
+      <c r="C1146" s="7"/>
+      <c r="D1146" s="7"/>
+      <c r="E1146" s="7"/>
+      <c r="F1146" s="7"/>
+      <c r="G1146" s="7"/>
     </row>
     <row r="1147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1147" s="4" t="s">
@@ -22314,13 +22315,13 @@
       </c>
     </row>
     <row r="1152" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1152" s="7"/>
-      <c r="B1152" s="7"/>
-      <c r="C1152" s="7"/>
-      <c r="D1152" s="7"/>
-      <c r="E1152" s="7"/>
-      <c r="F1152" s="7"/>
-      <c r="G1152" s="7"/>
+      <c r="A1152" s="8"/>
+      <c r="B1152" s="8"/>
+      <c r="C1152" s="8"/>
+      <c r="D1152" s="8"/>
+      <c r="E1152" s="8"/>
+      <c r="F1152" s="8"/>
+      <c r="G1152" s="8"/>
       <c r="H1152" s="1">
         <v>17822</v>
       </c>
@@ -22358,14 +22359,14 @@
       <c r="A1154" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1154" s="8" t="s">
+      <c r="B1154" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1154" s="8"/>
-      <c r="D1154" s="8"/>
-      <c r="E1154" s="8"/>
-      <c r="F1154" s="8"/>
-      <c r="G1154" s="8"/>
+      <c r="C1154" s="7"/>
+      <c r="D1154" s="7"/>
+      <c r="E1154" s="7"/>
+      <c r="F1154" s="7"/>
+      <c r="G1154" s="7"/>
     </row>
     <row r="1155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1155" s="4" t="s">
@@ -22455,13 +22456,13 @@
       </c>
     </row>
     <row r="1160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1160" s="7"/>
-      <c r="B1160" s="7"/>
-      <c r="C1160" s="7"/>
-      <c r="D1160" s="7"/>
-      <c r="E1160" s="7"/>
-      <c r="F1160" s="7"/>
-      <c r="G1160" s="7"/>
+      <c r="A1160" s="8"/>
+      <c r="B1160" s="8"/>
+      <c r="C1160" s="8"/>
+      <c r="D1160" s="8"/>
+      <c r="E1160" s="8"/>
+      <c r="F1160" s="8"/>
+      <c r="G1160" s="8"/>
       <c r="H1160" s="1">
         <v>17824</v>
       </c>
@@ -22499,14 +22500,14 @@
       <c r="A1162" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1162" s="8" t="s">
+      <c r="B1162" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1162" s="8"/>
-      <c r="D1162" s="8"/>
-      <c r="E1162" s="8"/>
-      <c r="F1162" s="8"/>
-      <c r="G1162" s="8"/>
+      <c r="C1162" s="7"/>
+      <c r="D1162" s="7"/>
+      <c r="E1162" s="7"/>
+      <c r="F1162" s="7"/>
+      <c r="G1162" s="7"/>
     </row>
     <row r="1163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1163" s="4" t="s">
@@ -22596,13 +22597,13 @@
       </c>
     </row>
     <row r="1168" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1168" s="7"/>
-      <c r="B1168" s="7"/>
-      <c r="C1168" s="7"/>
-      <c r="D1168" s="7"/>
-      <c r="E1168" s="7"/>
-      <c r="F1168" s="7"/>
-      <c r="G1168" s="7"/>
+      <c r="A1168" s="8"/>
+      <c r="B1168" s="8"/>
+      <c r="C1168" s="8"/>
+      <c r="D1168" s="8"/>
+      <c r="E1168" s="8"/>
+      <c r="F1168" s="8"/>
+      <c r="G1168" s="8"/>
       <c r="H1168" s="1">
         <v>17825</v>
       </c>
@@ -22640,14 +22641,14 @@
       <c r="A1170" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1170" s="8" t="s">
+      <c r="B1170" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1170" s="8"/>
-      <c r="D1170" s="8"/>
-      <c r="E1170" s="8"/>
-      <c r="F1170" s="8"/>
-      <c r="G1170" s="8"/>
+      <c r="C1170" s="7"/>
+      <c r="D1170" s="7"/>
+      <c r="E1170" s="7"/>
+      <c r="F1170" s="7"/>
+      <c r="G1170" s="7"/>
     </row>
     <row r="1171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1171" s="4" t="s">
@@ -22737,13 +22738,13 @@
       </c>
     </row>
     <row r="1176" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1176" s="7"/>
-      <c r="B1176" s="7"/>
-      <c r="C1176" s="7"/>
-      <c r="D1176" s="7"/>
-      <c r="E1176" s="7"/>
-      <c r="F1176" s="7"/>
-      <c r="G1176" s="7"/>
+      <c r="A1176" s="8"/>
+      <c r="B1176" s="8"/>
+      <c r="C1176" s="8"/>
+      <c r="D1176" s="8"/>
+      <c r="E1176" s="8"/>
+      <c r="F1176" s="8"/>
+      <c r="G1176" s="8"/>
       <c r="H1176" s="1">
         <v>17826</v>
       </c>
@@ -22781,14 +22782,14 @@
       <c r="A1178" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1178" s="8" t="s">
+      <c r="B1178" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1178" s="8"/>
-      <c r="D1178" s="8"/>
-      <c r="E1178" s="8"/>
-      <c r="F1178" s="8"/>
-      <c r="G1178" s="8"/>
+      <c r="C1178" s="7"/>
+      <c r="D1178" s="7"/>
+      <c r="E1178" s="7"/>
+      <c r="F1178" s="7"/>
+      <c r="G1178" s="7"/>
     </row>
     <row r="1179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1179" s="4" t="s">
@@ -22878,13 +22879,13 @@
       </c>
     </row>
     <row r="1184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1184" s="7"/>
-      <c r="B1184" s="7"/>
-      <c r="C1184" s="7"/>
-      <c r="D1184" s="7"/>
-      <c r="E1184" s="7"/>
-      <c r="F1184" s="7"/>
-      <c r="G1184" s="7"/>
+      <c r="A1184" s="8"/>
+      <c r="B1184" s="8"/>
+      <c r="C1184" s="8"/>
+      <c r="D1184" s="8"/>
+      <c r="E1184" s="8"/>
+      <c r="F1184" s="8"/>
+      <c r="G1184" s="8"/>
       <c r="H1184" s="1">
         <v>27072</v>
       </c>
@@ -22922,14 +22923,14 @@
       <c r="A1186" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1186" s="8" t="s">
+      <c r="B1186" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1186" s="8"/>
-      <c r="D1186" s="8"/>
-      <c r="E1186" s="8"/>
-      <c r="F1186" s="8"/>
-      <c r="G1186" s="8"/>
+      <c r="C1186" s="7"/>
+      <c r="D1186" s="7"/>
+      <c r="E1186" s="7"/>
+      <c r="F1186" s="7"/>
+      <c r="G1186" s="7"/>
     </row>
     <row r="1187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1187" s="4" t="s">
@@ -23019,13 +23020,13 @@
       </c>
     </row>
     <row r="1192" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1192" s="7"/>
-      <c r="B1192" s="7"/>
-      <c r="C1192" s="7"/>
-      <c r="D1192" s="7"/>
-      <c r="E1192" s="7"/>
-      <c r="F1192" s="7"/>
-      <c r="G1192" s="7"/>
+      <c r="A1192" s="8"/>
+      <c r="B1192" s="8"/>
+      <c r="C1192" s="8"/>
+      <c r="D1192" s="8"/>
+      <c r="E1192" s="8"/>
+      <c r="F1192" s="8"/>
+      <c r="G1192" s="8"/>
       <c r="H1192" s="1">
         <v>17828</v>
       </c>
@@ -23063,14 +23064,14 @@
       <c r="A1194" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1194" s="8" t="s">
+      <c r="B1194" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1194" s="8"/>
-      <c r="D1194" s="8"/>
-      <c r="E1194" s="8"/>
-      <c r="F1194" s="8"/>
-      <c r="G1194" s="8"/>
+      <c r="C1194" s="7"/>
+      <c r="D1194" s="7"/>
+      <c r="E1194" s="7"/>
+      <c r="F1194" s="7"/>
+      <c r="G1194" s="7"/>
     </row>
     <row r="1195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1195" s="4" t="s">
@@ -23160,13 +23161,13 @@
       </c>
     </row>
     <row r="1200" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1200" s="7"/>
-      <c r="B1200" s="7"/>
-      <c r="C1200" s="7"/>
-      <c r="D1200" s="7"/>
-      <c r="E1200" s="7"/>
-      <c r="F1200" s="7"/>
-      <c r="G1200" s="7"/>
+      <c r="A1200" s="8"/>
+      <c r="B1200" s="8"/>
+      <c r="C1200" s="8"/>
+      <c r="D1200" s="8"/>
+      <c r="E1200" s="8"/>
+      <c r="F1200" s="8"/>
+      <c r="G1200" s="8"/>
       <c r="H1200" s="1">
         <v>17829</v>
       </c>
@@ -23204,14 +23205,14 @@
       <c r="A1202" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1202" s="8" t="s">
+      <c r="B1202" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1202" s="8"/>
-      <c r="D1202" s="8"/>
-      <c r="E1202" s="8"/>
-      <c r="F1202" s="8"/>
-      <c r="G1202" s="8"/>
+      <c r="C1202" s="7"/>
+      <c r="D1202" s="7"/>
+      <c r="E1202" s="7"/>
+      <c r="F1202" s="7"/>
+      <c r="G1202" s="7"/>
     </row>
     <row r="1203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1203" s="4" t="s">
@@ -23301,13 +23302,13 @@
       </c>
     </row>
     <row r="1208" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1208" s="7"/>
-      <c r="B1208" s="7"/>
-      <c r="C1208" s="7"/>
-      <c r="D1208" s="7"/>
-      <c r="E1208" s="7"/>
-      <c r="F1208" s="7"/>
-      <c r="G1208" s="7"/>
+      <c r="A1208" s="8"/>
+      <c r="B1208" s="8"/>
+      <c r="C1208" s="8"/>
+      <c r="D1208" s="8"/>
+      <c r="E1208" s="8"/>
+      <c r="F1208" s="8"/>
+      <c r="G1208" s="8"/>
       <c r="H1208" s="1">
         <v>43074</v>
       </c>
@@ -23345,14 +23346,14 @@
       <c r="A1210" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1210" s="8" t="s">
+      <c r="B1210" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1210" s="8"/>
-      <c r="D1210" s="8"/>
-      <c r="E1210" s="8"/>
-      <c r="F1210" s="8"/>
-      <c r="G1210" s="8"/>
+      <c r="C1210" s="7"/>
+      <c r="D1210" s="7"/>
+      <c r="E1210" s="7"/>
+      <c r="F1210" s="7"/>
+      <c r="G1210" s="7"/>
     </row>
     <row r="1211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1211" s="4" t="s">
@@ -23442,13 +23443,13 @@
       </c>
     </row>
     <row r="1216" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1216" s="7"/>
-      <c r="B1216" s="7"/>
-      <c r="C1216" s="7"/>
-      <c r="D1216" s="7"/>
-      <c r="E1216" s="7"/>
-      <c r="F1216" s="7"/>
-      <c r="G1216" s="7"/>
+      <c r="A1216" s="8"/>
+      <c r="B1216" s="8"/>
+      <c r="C1216" s="8"/>
+      <c r="D1216" s="8"/>
+      <c r="E1216" s="8"/>
+      <c r="F1216" s="8"/>
+      <c r="G1216" s="8"/>
       <c r="H1216" s="1">
         <v>17831</v>
       </c>
@@ -23486,14 +23487,14 @@
       <c r="A1218" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1218" s="8" t="s">
+      <c r="B1218" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1218" s="8"/>
-      <c r="D1218" s="8"/>
-      <c r="E1218" s="8"/>
-      <c r="F1218" s="8"/>
-      <c r="G1218" s="8"/>
+      <c r="C1218" s="7"/>
+      <c r="D1218" s="7"/>
+      <c r="E1218" s="7"/>
+      <c r="F1218" s="7"/>
+      <c r="G1218" s="7"/>
     </row>
     <row r="1219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1219" s="4" t="s">
@@ -23583,13 +23584,13 @@
       </c>
     </row>
     <row r="1224" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1224" s="7"/>
-      <c r="B1224" s="7"/>
-      <c r="C1224" s="7"/>
-      <c r="D1224" s="7"/>
-      <c r="E1224" s="7"/>
-      <c r="F1224" s="7"/>
-      <c r="G1224" s="7"/>
+      <c r="A1224" s="8"/>
+      <c r="B1224" s="8"/>
+      <c r="C1224" s="8"/>
+      <c r="D1224" s="8"/>
+      <c r="E1224" s="8"/>
+      <c r="F1224" s="8"/>
+      <c r="G1224" s="8"/>
       <c r="H1224" s="1">
         <v>17832</v>
       </c>
@@ -23627,14 +23628,14 @@
       <c r="A1226" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1226" s="8" t="s">
+      <c r="B1226" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1226" s="8"/>
-      <c r="D1226" s="8"/>
-      <c r="E1226" s="8"/>
-      <c r="F1226" s="8"/>
-      <c r="G1226" s="8"/>
+      <c r="C1226" s="7"/>
+      <c r="D1226" s="7"/>
+      <c r="E1226" s="7"/>
+      <c r="F1226" s="7"/>
+      <c r="G1226" s="7"/>
     </row>
     <row r="1227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1227" s="4" t="s">
@@ -23724,13 +23725,13 @@
       </c>
     </row>
     <row r="1232" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1232" s="7"/>
-      <c r="B1232" s="7"/>
-      <c r="C1232" s="7"/>
-      <c r="D1232" s="7"/>
-      <c r="E1232" s="7"/>
-      <c r="F1232" s="7"/>
-      <c r="G1232" s="7"/>
+      <c r="A1232" s="8"/>
+      <c r="B1232" s="8"/>
+      <c r="C1232" s="8"/>
+      <c r="D1232" s="8"/>
+      <c r="E1232" s="8"/>
+      <c r="F1232" s="8"/>
+      <c r="G1232" s="8"/>
       <c r="H1232" s="1">
         <v>17833</v>
       </c>
@@ -23768,14 +23769,14 @@
       <c r="A1234" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1234" s="8" t="s">
+      <c r="B1234" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1234" s="8"/>
-      <c r="D1234" s="8"/>
-      <c r="E1234" s="8"/>
-      <c r="F1234" s="8"/>
-      <c r="G1234" s="8"/>
+      <c r="C1234" s="7"/>
+      <c r="D1234" s="7"/>
+      <c r="E1234" s="7"/>
+      <c r="F1234" s="7"/>
+      <c r="G1234" s="7"/>
     </row>
     <row r="1235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1235" s="4" t="s">
@@ -23865,13 +23866,13 @@
       </c>
     </row>
     <row r="1240" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1240" s="7"/>
-      <c r="B1240" s="7"/>
-      <c r="C1240" s="7"/>
-      <c r="D1240" s="7"/>
-      <c r="E1240" s="7"/>
-      <c r="F1240" s="7"/>
-      <c r="G1240" s="7"/>
+      <c r="A1240" s="8"/>
+      <c r="B1240" s="8"/>
+      <c r="C1240" s="8"/>
+      <c r="D1240" s="8"/>
+      <c r="E1240" s="8"/>
+      <c r="F1240" s="8"/>
+      <c r="G1240" s="8"/>
       <c r="H1240" s="1">
         <v>17835</v>
       </c>
@@ -23909,14 +23910,14 @@
       <c r="A1242" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1242" s="8" t="s">
+      <c r="B1242" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1242" s="8"/>
-      <c r="D1242" s="8"/>
-      <c r="E1242" s="8"/>
-      <c r="F1242" s="8"/>
-      <c r="G1242" s="8"/>
+      <c r="C1242" s="7"/>
+      <c r="D1242" s="7"/>
+      <c r="E1242" s="7"/>
+      <c r="F1242" s="7"/>
+      <c r="G1242" s="7"/>
     </row>
     <row r="1243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1243" s="4" t="s">
@@ -24006,13 +24007,13 @@
       </c>
     </row>
     <row r="1248" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1248" s="7"/>
-      <c r="B1248" s="7"/>
-      <c r="C1248" s="7"/>
-      <c r="D1248" s="7"/>
-      <c r="E1248" s="7"/>
-      <c r="F1248" s="7"/>
-      <c r="G1248" s="7"/>
+      <c r="A1248" s="8"/>
+      <c r="B1248" s="8"/>
+      <c r="C1248" s="8"/>
+      <c r="D1248" s="8"/>
+      <c r="E1248" s="8"/>
+      <c r="F1248" s="8"/>
+      <c r="G1248" s="8"/>
       <c r="H1248" s="1">
         <v>34611</v>
       </c>
@@ -24050,14 +24051,14 @@
       <c r="A1250" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1250" s="8" t="s">
+      <c r="B1250" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1250" s="8"/>
-      <c r="D1250" s="8"/>
-      <c r="E1250" s="8"/>
-      <c r="F1250" s="8"/>
-      <c r="G1250" s="8"/>
+      <c r="C1250" s="7"/>
+      <c r="D1250" s="7"/>
+      <c r="E1250" s="7"/>
+      <c r="F1250" s="7"/>
+      <c r="G1250" s="7"/>
     </row>
     <row r="1251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1251" s="4" t="s">
@@ -24147,13 +24148,13 @@
       </c>
     </row>
     <row r="1256" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1256" s="7"/>
-      <c r="B1256" s="7"/>
-      <c r="C1256" s="7"/>
-      <c r="D1256" s="7"/>
-      <c r="E1256" s="7"/>
-      <c r="F1256" s="7"/>
-      <c r="G1256" s="7"/>
+      <c r="A1256" s="8"/>
+      <c r="B1256" s="8"/>
+      <c r="C1256" s="8"/>
+      <c r="D1256" s="8"/>
+      <c r="E1256" s="8"/>
+      <c r="F1256" s="8"/>
+      <c r="G1256" s="8"/>
       <c r="H1256" s="1">
         <v>43075</v>
       </c>
@@ -24191,14 +24192,14 @@
       <c r="A1258" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1258" s="8" t="s">
+      <c r="B1258" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1258" s="8"/>
-      <c r="D1258" s="8"/>
-      <c r="E1258" s="8"/>
-      <c r="F1258" s="8"/>
-      <c r="G1258" s="8"/>
+      <c r="C1258" s="7"/>
+      <c r="D1258" s="7"/>
+      <c r="E1258" s="7"/>
+      <c r="F1258" s="7"/>
+      <c r="G1258" s="7"/>
     </row>
     <row r="1259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1259" s="4" t="s">
@@ -24288,13 +24289,13 @@
       </c>
     </row>
     <row r="1264" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1264" s="7"/>
-      <c r="B1264" s="7"/>
-      <c r="C1264" s="7"/>
-      <c r="D1264" s="7"/>
-      <c r="E1264" s="7"/>
-      <c r="F1264" s="7"/>
-      <c r="G1264" s="7"/>
+      <c r="A1264" s="8"/>
+      <c r="B1264" s="8"/>
+      <c r="C1264" s="8"/>
+      <c r="D1264" s="8"/>
+      <c r="E1264" s="8"/>
+      <c r="F1264" s="8"/>
+      <c r="G1264" s="8"/>
       <c r="H1264" s="1">
         <v>43455</v>
       </c>
@@ -24332,14 +24333,14 @@
       <c r="A1266" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1266" s="8" t="s">
+      <c r="B1266" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1266" s="8"/>
-      <c r="D1266" s="8"/>
-      <c r="E1266" s="8"/>
-      <c r="F1266" s="8"/>
-      <c r="G1266" s="8"/>
+      <c r="C1266" s="7"/>
+      <c r="D1266" s="7"/>
+      <c r="E1266" s="7"/>
+      <c r="F1266" s="7"/>
+      <c r="G1266" s="7"/>
     </row>
     <row r="1267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1267" s="4" t="s">
@@ -24429,13 +24430,13 @@
       </c>
     </row>
     <row r="1272" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1272" s="7"/>
-      <c r="B1272" s="7"/>
-      <c r="C1272" s="7"/>
-      <c r="D1272" s="7"/>
-      <c r="E1272" s="7"/>
-      <c r="F1272" s="7"/>
-      <c r="G1272" s="7"/>
+      <c r="A1272" s="8"/>
+      <c r="B1272" s="8"/>
+      <c r="C1272" s="8"/>
+      <c r="D1272" s="8"/>
+      <c r="E1272" s="8"/>
+      <c r="F1272" s="8"/>
+      <c r="G1272" s="8"/>
       <c r="H1272" s="1">
         <v>43456</v>
       </c>
@@ -24473,14 +24474,14 @@
       <c r="A1274" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1274" s="8" t="s">
+      <c r="B1274" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1274" s="8"/>
-      <c r="D1274" s="8"/>
-      <c r="E1274" s="8"/>
-      <c r="F1274" s="8"/>
-      <c r="G1274" s="8"/>
+      <c r="C1274" s="7"/>
+      <c r="D1274" s="7"/>
+      <c r="E1274" s="7"/>
+      <c r="F1274" s="7"/>
+      <c r="G1274" s="7"/>
     </row>
     <row r="1275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1275" s="4" t="s">
@@ -24570,13 +24571,13 @@
       </c>
     </row>
     <row r="1280" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1280" s="7"/>
-      <c r="B1280" s="7"/>
-      <c r="C1280" s="7"/>
-      <c r="D1280" s="7"/>
-      <c r="E1280" s="7"/>
-      <c r="F1280" s="7"/>
-      <c r="G1280" s="7"/>
+      <c r="A1280" s="8"/>
+      <c r="B1280" s="8"/>
+      <c r="C1280" s="8"/>
+      <c r="D1280" s="8"/>
+      <c r="E1280" s="8"/>
+      <c r="F1280" s="8"/>
+      <c r="G1280" s="8"/>
       <c r="H1280" s="1">
         <v>47704</v>
       </c>
@@ -24614,14 +24615,14 @@
       <c r="A1282" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1282" s="8" t="s">
+      <c r="B1282" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1282" s="8"/>
-      <c r="D1282" s="8"/>
-      <c r="E1282" s="8"/>
-      <c r="F1282" s="8"/>
-      <c r="G1282" s="8"/>
+      <c r="C1282" s="7"/>
+      <c r="D1282" s="7"/>
+      <c r="E1282" s="7"/>
+      <c r="F1282" s="7"/>
+      <c r="G1282" s="7"/>
     </row>
     <row r="1283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1283" s="4" t="s">
@@ -24711,13 +24712,13 @@
       </c>
     </row>
     <row r="1288" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1288" s="7"/>
-      <c r="B1288" s="7"/>
-      <c r="C1288" s="7"/>
-      <c r="D1288" s="7"/>
-      <c r="E1288" s="7"/>
-      <c r="F1288" s="7"/>
-      <c r="G1288" s="7"/>
+      <c r="A1288" s="8"/>
+      <c r="B1288" s="8"/>
+      <c r="C1288" s="8"/>
+      <c r="D1288" s="8"/>
+      <c r="E1288" s="8"/>
+      <c r="F1288" s="8"/>
+      <c r="G1288" s="8"/>
       <c r="H1288" s="1">
         <v>47705</v>
       </c>
@@ -24755,14 +24756,14 @@
       <c r="A1290" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1290" s="8" t="s">
+      <c r="B1290" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1290" s="8"/>
-      <c r="D1290" s="8"/>
-      <c r="E1290" s="8"/>
-      <c r="F1290" s="8"/>
-      <c r="G1290" s="8"/>
+      <c r="C1290" s="7"/>
+      <c r="D1290" s="7"/>
+      <c r="E1290" s="7"/>
+      <c r="F1290" s="7"/>
+      <c r="G1290" s="7"/>
     </row>
     <row r="1291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1291" s="4" t="s">
@@ -24852,13 +24853,13 @@
       </c>
     </row>
     <row r="1296" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1296" s="7"/>
-      <c r="B1296" s="7"/>
-      <c r="C1296" s="7"/>
-      <c r="D1296" s="7"/>
-      <c r="E1296" s="7"/>
-      <c r="F1296" s="7"/>
-      <c r="G1296" s="7"/>
+      <c r="A1296" s="8"/>
+      <c r="B1296" s="8"/>
+      <c r="C1296" s="8"/>
+      <c r="D1296" s="8"/>
+      <c r="E1296" s="8"/>
+      <c r="F1296" s="8"/>
+      <c r="G1296" s="8"/>
       <c r="H1296" s="1">
         <v>47894</v>
       </c>
@@ -24896,14 +24897,14 @@
       <c r="A1298" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1298" s="8" t="s">
+      <c r="B1298" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1298" s="8"/>
-      <c r="D1298" s="8"/>
-      <c r="E1298" s="8"/>
-      <c r="F1298" s="8"/>
-      <c r="G1298" s="8"/>
+      <c r="C1298" s="7"/>
+      <c r="D1298" s="7"/>
+      <c r="E1298" s="7"/>
+      <c r="F1298" s="7"/>
+      <c r="G1298" s="7"/>
     </row>
     <row r="1299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1299" s="4" t="s">
@@ -24993,13 +24994,13 @@
       </c>
     </row>
     <row r="1304" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1304" s="7"/>
-      <c r="B1304" s="7"/>
-      <c r="C1304" s="7"/>
-      <c r="D1304" s="7"/>
-      <c r="E1304" s="7"/>
-      <c r="F1304" s="7"/>
-      <c r="G1304" s="7"/>
+      <c r="A1304" s="8"/>
+      <c r="B1304" s="8"/>
+      <c r="C1304" s="8"/>
+      <c r="D1304" s="8"/>
+      <c r="E1304" s="8"/>
+      <c r="F1304" s="8"/>
+      <c r="G1304" s="8"/>
       <c r="H1304" s="1">
         <v>17842</v>
       </c>
@@ -25037,14 +25038,14 @@
       <c r="A1306" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1306" s="8" t="s">
+      <c r="B1306" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1306" s="8"/>
-      <c r="D1306" s="8"/>
-      <c r="E1306" s="8"/>
-      <c r="F1306" s="8"/>
-      <c r="G1306" s="8"/>
+      <c r="C1306" s="7"/>
+      <c r="D1306" s="7"/>
+      <c r="E1306" s="7"/>
+      <c r="F1306" s="7"/>
+      <c r="G1306" s="7"/>
     </row>
     <row r="1307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1307" s="4" t="s">
@@ -25134,13 +25135,13 @@
       </c>
     </row>
     <row r="1312" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1312" s="7"/>
-      <c r="B1312" s="7"/>
-      <c r="C1312" s="7"/>
-      <c r="D1312" s="7"/>
-      <c r="E1312" s="7"/>
-      <c r="F1312" s="7"/>
-      <c r="G1312" s="7"/>
+      <c r="A1312" s="8"/>
+      <c r="B1312" s="8"/>
+      <c r="C1312" s="8"/>
+      <c r="D1312" s="8"/>
+      <c r="E1312" s="8"/>
+      <c r="F1312" s="8"/>
+      <c r="G1312" s="8"/>
       <c r="H1312" s="1">
         <v>17845</v>
       </c>
@@ -25178,14 +25179,14 @@
       <c r="A1314" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1314" s="8" t="s">
+      <c r="B1314" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1314" s="8"/>
-      <c r="D1314" s="8"/>
-      <c r="E1314" s="8"/>
-      <c r="F1314" s="8"/>
-      <c r="G1314" s="8"/>
+      <c r="C1314" s="7"/>
+      <c r="D1314" s="7"/>
+      <c r="E1314" s="7"/>
+      <c r="F1314" s="7"/>
+      <c r="G1314" s="7"/>
     </row>
     <row r="1315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1315" s="4" t="s">
@@ -25275,13 +25276,13 @@
       </c>
     </row>
     <row r="1320" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1320" s="7"/>
-      <c r="B1320" s="7"/>
-      <c r="C1320" s="7"/>
-      <c r="D1320" s="7"/>
-      <c r="E1320" s="7"/>
-      <c r="F1320" s="7"/>
-      <c r="G1320" s="7"/>
+      <c r="A1320" s="8"/>
+      <c r="B1320" s="8"/>
+      <c r="C1320" s="8"/>
+      <c r="D1320" s="8"/>
+      <c r="E1320" s="8"/>
+      <c r="F1320" s="8"/>
+      <c r="G1320" s="8"/>
       <c r="H1320" s="1">
         <v>17847</v>
       </c>
@@ -25319,14 +25320,14 @@
       <c r="A1322" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1322" s="8" t="s">
+      <c r="B1322" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1322" s="8"/>
-      <c r="D1322" s="8"/>
-      <c r="E1322" s="8"/>
-      <c r="F1322" s="8"/>
-      <c r="G1322" s="8"/>
+      <c r="C1322" s="7"/>
+      <c r="D1322" s="7"/>
+      <c r="E1322" s="7"/>
+      <c r="F1322" s="7"/>
+      <c r="G1322" s="7"/>
     </row>
     <row r="1323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1323" s="4" t="s">
@@ -25416,13 +25417,13 @@
       </c>
     </row>
     <row r="1328" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1328" s="7"/>
-      <c r="B1328" s="7"/>
-      <c r="C1328" s="7"/>
-      <c r="D1328" s="7"/>
-      <c r="E1328" s="7"/>
-      <c r="F1328" s="7"/>
-      <c r="G1328" s="7"/>
+      <c r="A1328" s="8"/>
+      <c r="B1328" s="8"/>
+      <c r="C1328" s="8"/>
+      <c r="D1328" s="8"/>
+      <c r="E1328" s="8"/>
+      <c r="F1328" s="8"/>
+      <c r="G1328" s="8"/>
       <c r="H1328" s="1">
         <v>17851</v>
       </c>
@@ -25460,14 +25461,14 @@
       <c r="A1330" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1330" s="8" t="s">
+      <c r="B1330" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1330" s="8"/>
-      <c r="D1330" s="8"/>
-      <c r="E1330" s="8"/>
-      <c r="F1330" s="8"/>
-      <c r="G1330" s="8"/>
+      <c r="C1330" s="7"/>
+      <c r="D1330" s="7"/>
+      <c r="E1330" s="7"/>
+      <c r="F1330" s="7"/>
+      <c r="G1330" s="7"/>
     </row>
     <row r="1331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1331" s="4" t="s">
@@ -25557,13 +25558,13 @@
       </c>
     </row>
     <row r="1336" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1336" s="7"/>
-      <c r="B1336" s="7"/>
-      <c r="C1336" s="7"/>
-      <c r="D1336" s="7"/>
-      <c r="E1336" s="7"/>
-      <c r="F1336" s="7"/>
-      <c r="G1336" s="7"/>
+      <c r="A1336" s="8"/>
+      <c r="B1336" s="8"/>
+      <c r="C1336" s="8"/>
+      <c r="D1336" s="8"/>
+      <c r="E1336" s="8"/>
+      <c r="F1336" s="8"/>
+      <c r="G1336" s="8"/>
       <c r="H1336" s="1">
         <v>17853</v>
       </c>
@@ -25601,14 +25602,14 @@
       <c r="A1338" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1338" s="8" t="s">
+      <c r="B1338" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1338" s="8"/>
-      <c r="D1338" s="8"/>
-      <c r="E1338" s="8"/>
-      <c r="F1338" s="8"/>
-      <c r="G1338" s="8"/>
+      <c r="C1338" s="7"/>
+      <c r="D1338" s="7"/>
+      <c r="E1338" s="7"/>
+      <c r="F1338" s="7"/>
+      <c r="G1338" s="7"/>
     </row>
     <row r="1339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1339" s="4" t="s">
@@ -25698,13 +25699,13 @@
       </c>
     </row>
     <row r="1344" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1344" s="7"/>
-      <c r="B1344" s="7"/>
-      <c r="C1344" s="7"/>
-      <c r="D1344" s="7"/>
-      <c r="E1344" s="7"/>
-      <c r="F1344" s="7"/>
-      <c r="G1344" s="7"/>
+      <c r="A1344" s="8"/>
+      <c r="B1344" s="8"/>
+      <c r="C1344" s="8"/>
+      <c r="D1344" s="8"/>
+      <c r="E1344" s="8"/>
+      <c r="F1344" s="8"/>
+      <c r="G1344" s="8"/>
       <c r="H1344" s="1">
         <v>17855</v>
       </c>
@@ -25742,14 +25743,14 @@
       <c r="A1346" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1346" s="8" t="s">
+      <c r="B1346" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1346" s="8"/>
-      <c r="D1346" s="8"/>
-      <c r="E1346" s="8"/>
-      <c r="F1346" s="8"/>
-      <c r="G1346" s="8"/>
+      <c r="C1346" s="7"/>
+      <c r="D1346" s="7"/>
+      <c r="E1346" s="7"/>
+      <c r="F1346" s="7"/>
+      <c r="G1346" s="7"/>
     </row>
     <row r="1347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1347" s="4" t="s">
@@ -25839,13 +25840,13 @@
       </c>
     </row>
     <row r="1352" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1352" s="7"/>
-      <c r="B1352" s="7"/>
-      <c r="C1352" s="7"/>
-      <c r="D1352" s="7"/>
-      <c r="E1352" s="7"/>
-      <c r="F1352" s="7"/>
-      <c r="G1352" s="7"/>
+      <c r="A1352" s="8"/>
+      <c r="B1352" s="8"/>
+      <c r="C1352" s="8"/>
+      <c r="D1352" s="8"/>
+      <c r="E1352" s="8"/>
+      <c r="F1352" s="8"/>
+      <c r="G1352" s="8"/>
       <c r="H1352" s="1">
         <v>17858</v>
       </c>
@@ -25883,14 +25884,14 @@
       <c r="A1354" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1354" s="8" t="s">
+      <c r="B1354" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1354" s="8"/>
-      <c r="D1354" s="8"/>
-      <c r="E1354" s="8"/>
-      <c r="F1354" s="8"/>
-      <c r="G1354" s="8"/>
+      <c r="C1354" s="7"/>
+      <c r="D1354" s="7"/>
+      <c r="E1354" s="7"/>
+      <c r="F1354" s="7"/>
+      <c r="G1354" s="7"/>
     </row>
     <row r="1355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1355" s="4" t="s">
@@ -25980,13 +25981,13 @@
       </c>
     </row>
     <row r="1360" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1360" s="7"/>
-      <c r="B1360" s="7"/>
-      <c r="C1360" s="7"/>
-      <c r="D1360" s="7"/>
-      <c r="E1360" s="7"/>
-      <c r="F1360" s="7"/>
-      <c r="G1360" s="7"/>
+      <c r="A1360" s="8"/>
+      <c r="B1360" s="8"/>
+      <c r="C1360" s="8"/>
+      <c r="D1360" s="8"/>
+      <c r="E1360" s="8"/>
+      <c r="F1360" s="8"/>
+      <c r="G1360" s="8"/>
       <c r="H1360" s="1">
         <v>17860</v>
       </c>
@@ -26024,14 +26025,14 @@
       <c r="A1362" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1362" s="8" t="s">
+      <c r="B1362" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1362" s="8"/>
-      <c r="D1362" s="8"/>
-      <c r="E1362" s="8"/>
-      <c r="F1362" s="8"/>
-      <c r="G1362" s="8"/>
+      <c r="C1362" s="7"/>
+      <c r="D1362" s="7"/>
+      <c r="E1362" s="7"/>
+      <c r="F1362" s="7"/>
+      <c r="G1362" s="7"/>
     </row>
     <row r="1363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1363" s="4" t="s">
@@ -26121,13 +26122,13 @@
       </c>
     </row>
     <row r="1368" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1368" s="7"/>
-      <c r="B1368" s="7"/>
-      <c r="C1368" s="7"/>
-      <c r="D1368" s="7"/>
-      <c r="E1368" s="7"/>
-      <c r="F1368" s="7"/>
-      <c r="G1368" s="7"/>
+      <c r="A1368" s="8"/>
+      <c r="B1368" s="8"/>
+      <c r="C1368" s="8"/>
+      <c r="D1368" s="8"/>
+      <c r="E1368" s="8"/>
+      <c r="F1368" s="8"/>
+      <c r="G1368" s="8"/>
       <c r="H1368" s="1">
         <v>45790</v>
       </c>
@@ -26165,14 +26166,14 @@
       <c r="A1370" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1370" s="8" t="s">
+      <c r="B1370" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1370" s="8"/>
-      <c r="D1370" s="8"/>
-      <c r="E1370" s="8"/>
-      <c r="F1370" s="8"/>
-      <c r="G1370" s="8"/>
+      <c r="C1370" s="7"/>
+      <c r="D1370" s="7"/>
+      <c r="E1370" s="7"/>
+      <c r="F1370" s="7"/>
+      <c r="G1370" s="7"/>
     </row>
     <row r="1371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1371" s="4" t="s">
@@ -26262,13 +26263,13 @@
       </c>
     </row>
     <row r="1376" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1376" s="7"/>
-      <c r="B1376" s="7"/>
-      <c r="C1376" s="7"/>
-      <c r="D1376" s="7"/>
-      <c r="E1376" s="7"/>
-      <c r="F1376" s="7"/>
-      <c r="G1376" s="7"/>
+      <c r="A1376" s="8"/>
+      <c r="B1376" s="8"/>
+      <c r="C1376" s="8"/>
+      <c r="D1376" s="8"/>
+      <c r="E1376" s="8"/>
+      <c r="F1376" s="8"/>
+      <c r="G1376" s="8"/>
       <c r="H1376" s="1">
         <v>17863</v>
       </c>
@@ -26306,14 +26307,14 @@
       <c r="A1378" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1378" s="8" t="s">
+      <c r="B1378" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1378" s="8"/>
-      <c r="D1378" s="8"/>
-      <c r="E1378" s="8"/>
-      <c r="F1378" s="8"/>
-      <c r="G1378" s="8"/>
+      <c r="C1378" s="7"/>
+      <c r="D1378" s="7"/>
+      <c r="E1378" s="7"/>
+      <c r="F1378" s="7"/>
+      <c r="G1378" s="7"/>
     </row>
     <row r="1379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1379" s="4" t="s">
@@ -26403,13 +26404,13 @@
       </c>
     </row>
     <row r="1384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1384" s="7"/>
-      <c r="B1384" s="7"/>
-      <c r="C1384" s="7"/>
-      <c r="D1384" s="7"/>
-      <c r="E1384" s="7"/>
-      <c r="F1384" s="7"/>
-      <c r="G1384" s="7"/>
+      <c r="A1384" s="8"/>
+      <c r="B1384" s="8"/>
+      <c r="C1384" s="8"/>
+      <c r="D1384" s="8"/>
+      <c r="E1384" s="8"/>
+      <c r="F1384" s="8"/>
+      <c r="G1384" s="8"/>
       <c r="H1384" s="1">
         <v>17865</v>
       </c>
@@ -26447,14 +26448,14 @@
       <c r="A1386" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1386" s="8" t="s">
+      <c r="B1386" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1386" s="8"/>
-      <c r="D1386" s="8"/>
-      <c r="E1386" s="8"/>
-      <c r="F1386" s="8"/>
-      <c r="G1386" s="8"/>
+      <c r="C1386" s="7"/>
+      <c r="D1386" s="7"/>
+      <c r="E1386" s="7"/>
+      <c r="F1386" s="7"/>
+      <c r="G1386" s="7"/>
     </row>
     <row r="1387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1387" s="4" t="s">
@@ -26544,13 +26545,13 @@
       </c>
     </row>
     <row r="1392" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1392" s="7"/>
-      <c r="B1392" s="7"/>
-      <c r="C1392" s="7"/>
-      <c r="D1392" s="7"/>
-      <c r="E1392" s="7"/>
-      <c r="F1392" s="7"/>
-      <c r="G1392" s="7"/>
+      <c r="A1392" s="8"/>
+      <c r="B1392" s="8"/>
+      <c r="C1392" s="8"/>
+      <c r="D1392" s="8"/>
+      <c r="E1392" s="8"/>
+      <c r="F1392" s="8"/>
+      <c r="G1392" s="8"/>
       <c r="H1392" s="1">
         <v>43460</v>
       </c>
@@ -26588,14 +26589,14 @@
       <c r="A1394" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1394" s="8" t="s">
+      <c r="B1394" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1394" s="8"/>
-      <c r="D1394" s="8"/>
-      <c r="E1394" s="8"/>
-      <c r="F1394" s="8"/>
-      <c r="G1394" s="8"/>
+      <c r="C1394" s="7"/>
+      <c r="D1394" s="7"/>
+      <c r="E1394" s="7"/>
+      <c r="F1394" s="7"/>
+      <c r="G1394" s="7"/>
     </row>
     <row r="1395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1395" s="4" t="s">
@@ -26685,13 +26686,13 @@
       </c>
     </row>
     <row r="1400" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1400" s="7"/>
-      <c r="B1400" s="7"/>
-      <c r="C1400" s="7"/>
-      <c r="D1400" s="7"/>
-      <c r="E1400" s="7"/>
-      <c r="F1400" s="7"/>
-      <c r="G1400" s="7"/>
+      <c r="A1400" s="8"/>
+      <c r="B1400" s="8"/>
+      <c r="C1400" s="8"/>
+      <c r="D1400" s="8"/>
+      <c r="E1400" s="8"/>
+      <c r="F1400" s="8"/>
+      <c r="G1400" s="8"/>
       <c r="H1400" s="1">
         <v>17868</v>
       </c>
@@ -26729,14 +26730,14 @@
       <c r="A1402" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1402" s="8" t="s">
+      <c r="B1402" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1402" s="8"/>
-      <c r="D1402" s="8"/>
-      <c r="E1402" s="8"/>
-      <c r="F1402" s="8"/>
-      <c r="G1402" s="8"/>
+      <c r="C1402" s="7"/>
+      <c r="D1402" s="7"/>
+      <c r="E1402" s="7"/>
+      <c r="F1402" s="7"/>
+      <c r="G1402" s="7"/>
     </row>
     <row r="1403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1403" s="4" t="s">
@@ -26826,13 +26827,13 @@
       </c>
     </row>
     <row r="1408" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1408" s="7"/>
-      <c r="B1408" s="7"/>
-      <c r="C1408" s="7"/>
-      <c r="D1408" s="7"/>
-      <c r="E1408" s="7"/>
-      <c r="F1408" s="7"/>
-      <c r="G1408" s="7"/>
+      <c r="A1408" s="8"/>
+      <c r="B1408" s="8"/>
+      <c r="C1408" s="8"/>
+      <c r="D1408" s="8"/>
+      <c r="E1408" s="8"/>
+      <c r="F1408" s="8"/>
+      <c r="G1408" s="8"/>
       <c r="H1408" s="1">
         <v>17870</v>
       </c>
@@ -26870,14 +26871,14 @@
       <c r="A1410" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1410" s="8" t="s">
+      <c r="B1410" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1410" s="8"/>
-      <c r="D1410" s="8"/>
-      <c r="E1410" s="8"/>
-      <c r="F1410" s="8"/>
-      <c r="G1410" s="8"/>
+      <c r="C1410" s="7"/>
+      <c r="D1410" s="7"/>
+      <c r="E1410" s="7"/>
+      <c r="F1410" s="7"/>
+      <c r="G1410" s="7"/>
     </row>
     <row r="1411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1411" s="4" t="s">
@@ -26967,13 +26968,13 @@
       </c>
     </row>
     <row r="1416" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1416" s="7"/>
-      <c r="B1416" s="7"/>
-      <c r="C1416" s="7"/>
-      <c r="D1416" s="7"/>
-      <c r="E1416" s="7"/>
-      <c r="F1416" s="7"/>
-      <c r="G1416" s="7"/>
+      <c r="A1416" s="8"/>
+      <c r="B1416" s="8"/>
+      <c r="C1416" s="8"/>
+      <c r="D1416" s="8"/>
+      <c r="E1416" s="8"/>
+      <c r="F1416" s="8"/>
+      <c r="G1416" s="8"/>
       <c r="H1416" s="1">
         <v>17875</v>
       </c>
@@ -27011,14 +27012,14 @@
       <c r="A1418" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1418" s="8" t="s">
+      <c r="B1418" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1418" s="8"/>
-      <c r="D1418" s="8"/>
-      <c r="E1418" s="8"/>
-      <c r="F1418" s="8"/>
-      <c r="G1418" s="8"/>
+      <c r="C1418" s="7"/>
+      <c r="D1418" s="7"/>
+      <c r="E1418" s="7"/>
+      <c r="F1418" s="7"/>
+      <c r="G1418" s="7"/>
     </row>
     <row r="1419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1419" s="4" t="s">
@@ -27108,13 +27109,13 @@
       </c>
     </row>
     <row r="1424" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1424" s="7"/>
-      <c r="B1424" s="7"/>
-      <c r="C1424" s="7"/>
-      <c r="D1424" s="7"/>
-      <c r="E1424" s="7"/>
-      <c r="F1424" s="7"/>
-      <c r="G1424" s="7"/>
+      <c r="A1424" s="8"/>
+      <c r="B1424" s="8"/>
+      <c r="C1424" s="8"/>
+      <c r="D1424" s="8"/>
+      <c r="E1424" s="8"/>
+      <c r="F1424" s="8"/>
+      <c r="G1424" s="8"/>
       <c r="H1424" s="1">
         <v>17878</v>
       </c>
@@ -27152,14 +27153,14 @@
       <c r="A1426" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1426" s="8" t="s">
+      <c r="B1426" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1426" s="8"/>
-      <c r="D1426" s="8"/>
-      <c r="E1426" s="8"/>
-      <c r="F1426" s="8"/>
-      <c r="G1426" s="8"/>
+      <c r="C1426" s="7"/>
+      <c r="D1426" s="7"/>
+      <c r="E1426" s="7"/>
+      <c r="F1426" s="7"/>
+      <c r="G1426" s="7"/>
     </row>
     <row r="1427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1427" s="4" t="s">
@@ -27249,13 +27250,13 @@
       </c>
     </row>
     <row r="1432" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1432" s="7"/>
-      <c r="B1432" s="7"/>
-      <c r="C1432" s="7"/>
-      <c r="D1432" s="7"/>
-      <c r="E1432" s="7"/>
-      <c r="F1432" s="7"/>
-      <c r="G1432" s="7"/>
+      <c r="A1432" s="8"/>
+      <c r="B1432" s="8"/>
+      <c r="C1432" s="8"/>
+      <c r="D1432" s="8"/>
+      <c r="E1432" s="8"/>
+      <c r="F1432" s="8"/>
+      <c r="G1432" s="8"/>
       <c r="H1432" s="1">
         <v>45791</v>
       </c>
@@ -27293,14 +27294,14 @@
       <c r="A1434" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1434" s="8" t="s">
+      <c r="B1434" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1434" s="8"/>
-      <c r="D1434" s="8"/>
-      <c r="E1434" s="8"/>
-      <c r="F1434" s="8"/>
-      <c r="G1434" s="8"/>
+      <c r="C1434" s="7"/>
+      <c r="D1434" s="7"/>
+      <c r="E1434" s="7"/>
+      <c r="F1434" s="7"/>
+      <c r="G1434" s="7"/>
     </row>
     <row r="1435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1435" s="4" t="s">
@@ -27390,13 +27391,13 @@
       </c>
     </row>
     <row r="1440" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1440" s="7"/>
-      <c r="B1440" s="7"/>
-      <c r="C1440" s="7"/>
-      <c r="D1440" s="7"/>
-      <c r="E1440" s="7"/>
-      <c r="F1440" s="7"/>
-      <c r="G1440" s="7"/>
+      <c r="A1440" s="8"/>
+      <c r="B1440" s="8"/>
+      <c r="C1440" s="8"/>
+      <c r="D1440" s="8"/>
+      <c r="E1440" s="8"/>
+      <c r="F1440" s="8"/>
+      <c r="G1440" s="8"/>
       <c r="H1440" s="1">
         <v>43414</v>
       </c>
@@ -27434,14 +27435,14 @@
       <c r="A1442" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1442" s="8" t="s">
+      <c r="B1442" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1442" s="8"/>
-      <c r="D1442" s="8"/>
-      <c r="E1442" s="8"/>
-      <c r="F1442" s="8"/>
-      <c r="G1442" s="8"/>
+      <c r="C1442" s="7"/>
+      <c r="D1442" s="7"/>
+      <c r="E1442" s="7"/>
+      <c r="F1442" s="7"/>
+      <c r="G1442" s="7"/>
     </row>
     <row r="1443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1443" s="4" t="s">
@@ -27531,13 +27532,13 @@
       </c>
     </row>
     <row r="1448" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1448" s="7"/>
-      <c r="B1448" s="7"/>
-      <c r="C1448" s="7"/>
-      <c r="D1448" s="7"/>
-      <c r="E1448" s="7"/>
-      <c r="F1448" s="7"/>
-      <c r="G1448" s="7"/>
+      <c r="A1448" s="8"/>
+      <c r="B1448" s="8"/>
+      <c r="C1448" s="8"/>
+      <c r="D1448" s="8"/>
+      <c r="E1448" s="8"/>
+      <c r="F1448" s="8"/>
+      <c r="G1448" s="8"/>
       <c r="H1448" s="1">
         <v>43453</v>
       </c>
@@ -27575,14 +27576,14 @@
       <c r="A1450" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1450" s="8" t="s">
+      <c r="B1450" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1450" s="8"/>
-      <c r="D1450" s="8"/>
-      <c r="E1450" s="8"/>
-      <c r="F1450" s="8"/>
-      <c r="G1450" s="8"/>
+      <c r="C1450" s="7"/>
+      <c r="D1450" s="7"/>
+      <c r="E1450" s="7"/>
+      <c r="F1450" s="7"/>
+      <c r="G1450" s="7"/>
     </row>
     <row r="1451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1451" s="4" t="s">
@@ -27672,13 +27673,13 @@
       </c>
     </row>
     <row r="1456" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1456" s="7"/>
-      <c r="B1456" s="7"/>
-      <c r="C1456" s="7"/>
-      <c r="D1456" s="7"/>
-      <c r="E1456" s="7"/>
-      <c r="F1456" s="7"/>
-      <c r="G1456" s="7"/>
+      <c r="A1456" s="8"/>
+      <c r="B1456" s="8"/>
+      <c r="C1456" s="8"/>
+      <c r="D1456" s="8"/>
+      <c r="E1456" s="8"/>
+      <c r="F1456" s="8"/>
+      <c r="G1456" s="8"/>
       <c r="H1456" s="1">
         <v>43454</v>
       </c>
@@ -27716,14 +27717,14 @@
       <c r="A1458" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1458" s="8" t="s">
+      <c r="B1458" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1458" s="8"/>
-      <c r="D1458" s="8"/>
-      <c r="E1458" s="8"/>
-      <c r="F1458" s="8"/>
-      <c r="G1458" s="8"/>
+      <c r="C1458" s="7"/>
+      <c r="D1458" s="7"/>
+      <c r="E1458" s="7"/>
+      <c r="F1458" s="7"/>
+      <c r="G1458" s="7"/>
     </row>
     <row r="1459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1459" s="4" t="s">
@@ -27813,13 +27814,13 @@
       </c>
     </row>
     <row r="1464" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1464" s="7"/>
-      <c r="B1464" s="7"/>
-      <c r="C1464" s="7"/>
-      <c r="D1464" s="7"/>
-      <c r="E1464" s="7"/>
-      <c r="F1464" s="7"/>
-      <c r="G1464" s="7"/>
+      <c r="A1464" s="8"/>
+      <c r="B1464" s="8"/>
+      <c r="C1464" s="8"/>
+      <c r="D1464" s="8"/>
+      <c r="E1464" s="8"/>
+      <c r="F1464" s="8"/>
+      <c r="G1464" s="8"/>
       <c r="H1464" s="1">
         <v>47706</v>
       </c>
@@ -27857,14 +27858,14 @@
       <c r="A1466" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1466" s="8" t="s">
+      <c r="B1466" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1466" s="8"/>
-      <c r="D1466" s="8"/>
-      <c r="E1466" s="8"/>
-      <c r="F1466" s="8"/>
-      <c r="G1466" s="8"/>
+      <c r="C1466" s="7"/>
+      <c r="D1466" s="7"/>
+      <c r="E1466" s="7"/>
+      <c r="F1466" s="7"/>
+      <c r="G1466" s="7"/>
     </row>
     <row r="1467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1467" s="4" t="s">
@@ -27954,13 +27955,13 @@
       </c>
     </row>
     <row r="1472" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1472" s="7"/>
-      <c r="B1472" s="7"/>
-      <c r="C1472" s="7"/>
-      <c r="D1472" s="7"/>
-      <c r="E1472" s="7"/>
-      <c r="F1472" s="7"/>
-      <c r="G1472" s="7"/>
+      <c r="A1472" s="8"/>
+      <c r="B1472" s="8"/>
+      <c r="C1472" s="8"/>
+      <c r="D1472" s="8"/>
+      <c r="E1472" s="8"/>
+      <c r="F1472" s="8"/>
+      <c r="G1472" s="8"/>
       <c r="H1472" s="1">
         <v>47707</v>
       </c>
@@ -27998,14 +27999,14 @@
       <c r="A1474" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1474" s="8" t="s">
+      <c r="B1474" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1474" s="8"/>
-      <c r="D1474" s="8"/>
-      <c r="E1474" s="8"/>
-      <c r="F1474" s="8"/>
-      <c r="G1474" s="8"/>
+      <c r="C1474" s="7"/>
+      <c r="D1474" s="7"/>
+      <c r="E1474" s="7"/>
+      <c r="F1474" s="7"/>
+      <c r="G1474" s="7"/>
     </row>
     <row r="1475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1475" s="4" t="s">
@@ -28095,13 +28096,13 @@
       </c>
     </row>
     <row r="1480" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1480" s="7"/>
-      <c r="B1480" s="7"/>
-      <c r="C1480" s="7"/>
-      <c r="D1480" s="7"/>
-      <c r="E1480" s="7"/>
-      <c r="F1480" s="7"/>
-      <c r="G1480" s="7"/>
+      <c r="A1480" s="8"/>
+      <c r="B1480" s="8"/>
+      <c r="C1480" s="8"/>
+      <c r="D1480" s="8"/>
+      <c r="E1480" s="8"/>
+      <c r="F1480" s="8"/>
+      <c r="G1480" s="8"/>
       <c r="H1480" s="1">
         <v>47708</v>
       </c>
@@ -28139,14 +28140,14 @@
       <c r="A1482" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1482" s="8" t="s">
+      <c r="B1482" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1482" s="8"/>
-      <c r="D1482" s="8"/>
-      <c r="E1482" s="8"/>
-      <c r="F1482" s="8"/>
-      <c r="G1482" s="8"/>
+      <c r="C1482" s="7"/>
+      <c r="D1482" s="7"/>
+      <c r="E1482" s="7"/>
+      <c r="F1482" s="7"/>
+      <c r="G1482" s="7"/>
     </row>
     <row r="1483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1483" s="4" t="s">
@@ -28236,13 +28237,13 @@
       </c>
     </row>
     <row r="1488" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1488" s="7"/>
-      <c r="B1488" s="7"/>
-      <c r="C1488" s="7"/>
-      <c r="D1488" s="7"/>
-      <c r="E1488" s="7"/>
-      <c r="F1488" s="7"/>
-      <c r="G1488" s="7"/>
+      <c r="A1488" s="8"/>
+      <c r="B1488" s="8"/>
+      <c r="C1488" s="8"/>
+      <c r="D1488" s="8"/>
+      <c r="E1488" s="8"/>
+      <c r="F1488" s="8"/>
+      <c r="G1488" s="8"/>
       <c r="H1488" s="1">
         <v>24074</v>
       </c>
@@ -28280,14 +28281,14 @@
       <c r="A1490" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1490" s="8" t="s">
+      <c r="B1490" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1490" s="8"/>
-      <c r="D1490" s="8"/>
-      <c r="E1490" s="8"/>
-      <c r="F1490" s="8"/>
-      <c r="G1490" s="8"/>
+      <c r="C1490" s="7"/>
+      <c r="D1490" s="7"/>
+      <c r="E1490" s="7"/>
+      <c r="F1490" s="7"/>
+      <c r="G1490" s="7"/>
     </row>
     <row r="1491" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1491" s="4" t="s">
@@ -28377,13 +28378,13 @@
       </c>
     </row>
     <row r="1496" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1496" s="7"/>
-      <c r="B1496" s="7"/>
-      <c r="C1496" s="7"/>
-      <c r="D1496" s="7"/>
-      <c r="E1496" s="7"/>
-      <c r="F1496" s="7"/>
-      <c r="G1496" s="7"/>
+      <c r="A1496" s="8"/>
+      <c r="B1496" s="8"/>
+      <c r="C1496" s="8"/>
+      <c r="D1496" s="8"/>
+      <c r="E1496" s="8"/>
+      <c r="F1496" s="8"/>
+      <c r="G1496" s="8"/>
       <c r="H1496" s="1">
         <v>24075</v>
       </c>
@@ -28421,14 +28422,14 @@
       <c r="A1498" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1498" s="8" t="s">
+      <c r="B1498" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1498" s="8"/>
-      <c r="D1498" s="8"/>
-      <c r="E1498" s="8"/>
-      <c r="F1498" s="8"/>
-      <c r="G1498" s="8"/>
+      <c r="C1498" s="7"/>
+      <c r="D1498" s="7"/>
+      <c r="E1498" s="7"/>
+      <c r="F1498" s="7"/>
+      <c r="G1498" s="7"/>
     </row>
     <row r="1499" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1499" s="4" t="s">
@@ -28518,13 +28519,13 @@
       </c>
     </row>
     <row r="1504" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1504" s="7"/>
-      <c r="B1504" s="7"/>
-      <c r="C1504" s="7"/>
-      <c r="D1504" s="7"/>
-      <c r="E1504" s="7"/>
-      <c r="F1504" s="7"/>
-      <c r="G1504" s="7"/>
+      <c r="A1504" s="8"/>
+      <c r="B1504" s="8"/>
+      <c r="C1504" s="8"/>
+      <c r="D1504" s="8"/>
+      <c r="E1504" s="8"/>
+      <c r="F1504" s="8"/>
+      <c r="G1504" s="8"/>
       <c r="H1504" s="1">
         <v>24076</v>
       </c>
@@ -28562,14 +28563,14 @@
       <c r="A1506" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1506" s="8" t="s">
+      <c r="B1506" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1506" s="8"/>
-      <c r="D1506" s="8"/>
-      <c r="E1506" s="8"/>
-      <c r="F1506" s="8"/>
-      <c r="G1506" s="8"/>
+      <c r="C1506" s="7"/>
+      <c r="D1506" s="7"/>
+      <c r="E1506" s="7"/>
+      <c r="F1506" s="7"/>
+      <c r="G1506" s="7"/>
     </row>
     <row r="1507" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1507" s="4" t="s">
@@ -28659,13 +28660,13 @@
       </c>
     </row>
     <row r="1512" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1512" s="7"/>
-      <c r="B1512" s="7"/>
-      <c r="C1512" s="7"/>
-      <c r="D1512" s="7"/>
-      <c r="E1512" s="7"/>
-      <c r="F1512" s="7"/>
-      <c r="G1512" s="7"/>
+      <c r="A1512" s="8"/>
+      <c r="B1512" s="8"/>
+      <c r="C1512" s="8"/>
+      <c r="D1512" s="8"/>
+      <c r="E1512" s="8"/>
+      <c r="F1512" s="8"/>
+      <c r="G1512" s="8"/>
       <c r="H1512" s="1">
         <v>24077</v>
       </c>
@@ -28703,14 +28704,14 @@
       <c r="A1514" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1514" s="8" t="s">
+      <c r="B1514" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1514" s="8"/>
-      <c r="D1514" s="8"/>
-      <c r="E1514" s="8"/>
-      <c r="F1514" s="8"/>
-      <c r="G1514" s="8"/>
+      <c r="C1514" s="7"/>
+      <c r="D1514" s="7"/>
+      <c r="E1514" s="7"/>
+      <c r="F1514" s="7"/>
+      <c r="G1514" s="7"/>
     </row>
     <row r="1515" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1515" s="4" t="s">
@@ -28800,13 +28801,13 @@
       </c>
     </row>
     <row r="1520" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1520" s="7"/>
-      <c r="B1520" s="7"/>
-      <c r="C1520" s="7"/>
-      <c r="D1520" s="7"/>
-      <c r="E1520" s="7"/>
-      <c r="F1520" s="7"/>
-      <c r="G1520" s="7"/>
+      <c r="A1520" s="8"/>
+      <c r="B1520" s="8"/>
+      <c r="C1520" s="8"/>
+      <c r="D1520" s="8"/>
+      <c r="E1520" s="8"/>
+      <c r="F1520" s="8"/>
+      <c r="G1520" s="8"/>
       <c r="H1520" s="1">
         <v>24078</v>
       </c>
@@ -28844,14 +28845,14 @@
       <c r="A1522" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1522" s="8" t="s">
+      <c r="B1522" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1522" s="8"/>
-      <c r="D1522" s="8"/>
-      <c r="E1522" s="8"/>
-      <c r="F1522" s="8"/>
-      <c r="G1522" s="8"/>
+      <c r="C1522" s="7"/>
+      <c r="D1522" s="7"/>
+      <c r="E1522" s="7"/>
+      <c r="F1522" s="7"/>
+      <c r="G1522" s="7"/>
     </row>
     <row r="1523" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1523" s="4" t="s">
@@ -28941,13 +28942,13 @@
       </c>
     </row>
     <row r="1528" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1528" s="7"/>
-      <c r="B1528" s="7"/>
-      <c r="C1528" s="7"/>
-      <c r="D1528" s="7"/>
-      <c r="E1528" s="7"/>
-      <c r="F1528" s="7"/>
-      <c r="G1528" s="7"/>
+      <c r="A1528" s="8"/>
+      <c r="B1528" s="8"/>
+      <c r="C1528" s="8"/>
+      <c r="D1528" s="8"/>
+      <c r="E1528" s="8"/>
+      <c r="F1528" s="8"/>
+      <c r="G1528" s="8"/>
       <c r="H1528" s="1">
         <v>24079</v>
       </c>
@@ -28985,14 +28986,14 @@
       <c r="A1530" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1530" s="8" t="s">
+      <c r="B1530" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1530" s="8"/>
-      <c r="D1530" s="8"/>
-      <c r="E1530" s="8"/>
-      <c r="F1530" s="8"/>
-      <c r="G1530" s="8"/>
+      <c r="C1530" s="7"/>
+      <c r="D1530" s="7"/>
+      <c r="E1530" s="7"/>
+      <c r="F1530" s="7"/>
+      <c r="G1530" s="7"/>
     </row>
     <row r="1531" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1531" s="4" t="s">
@@ -29082,13 +29083,13 @@
       </c>
     </row>
     <row r="1536" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1536" s="7"/>
-      <c r="B1536" s="7"/>
-      <c r="C1536" s="7"/>
-      <c r="D1536" s="7"/>
-      <c r="E1536" s="7"/>
-      <c r="F1536" s="7"/>
-      <c r="G1536" s="7"/>
+      <c r="A1536" s="8"/>
+      <c r="B1536" s="8"/>
+      <c r="C1536" s="8"/>
+      <c r="D1536" s="8"/>
+      <c r="E1536" s="8"/>
+      <c r="F1536" s="8"/>
+      <c r="G1536" s="8"/>
       <c r="H1536" s="1">
         <v>24080</v>
       </c>
@@ -29126,14 +29127,14 @@
       <c r="A1538" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1538" s="8" t="s">
+      <c r="B1538" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1538" s="8"/>
-      <c r="D1538" s="8"/>
-      <c r="E1538" s="8"/>
-      <c r="F1538" s="8"/>
-      <c r="G1538" s="8"/>
+      <c r="C1538" s="7"/>
+      <c r="D1538" s="7"/>
+      <c r="E1538" s="7"/>
+      <c r="F1538" s="7"/>
+      <c r="G1538" s="7"/>
     </row>
     <row r="1539" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1539" s="4" t="s">
@@ -29223,13 +29224,13 @@
       </c>
     </row>
     <row r="1544" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1544" s="7"/>
-      <c r="B1544" s="7"/>
-      <c r="C1544" s="7"/>
-      <c r="D1544" s="7"/>
-      <c r="E1544" s="7"/>
-      <c r="F1544" s="7"/>
-      <c r="G1544" s="7"/>
+      <c r="A1544" s="8"/>
+      <c r="B1544" s="8"/>
+      <c r="C1544" s="8"/>
+      <c r="D1544" s="8"/>
+      <c r="E1544" s="8"/>
+      <c r="F1544" s="8"/>
+      <c r="G1544" s="8"/>
       <c r="H1544" s="1">
         <v>24081</v>
       </c>
@@ -29267,14 +29268,14 @@
       <c r="A1546" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1546" s="8" t="s">
+      <c r="B1546" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1546" s="8"/>
-      <c r="D1546" s="8"/>
-      <c r="E1546" s="8"/>
-      <c r="F1546" s="8"/>
-      <c r="G1546" s="8"/>
+      <c r="C1546" s="7"/>
+      <c r="D1546" s="7"/>
+      <c r="E1546" s="7"/>
+      <c r="F1546" s="7"/>
+      <c r="G1546" s="7"/>
     </row>
     <row r="1547" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1547" s="4" t="s">
@@ -29364,13 +29365,13 @@
       </c>
     </row>
     <row r="1552" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1552" s="7"/>
-      <c r="B1552" s="7"/>
-      <c r="C1552" s="7"/>
-      <c r="D1552" s="7"/>
-      <c r="E1552" s="7"/>
-      <c r="F1552" s="7"/>
-      <c r="G1552" s="7"/>
+      <c r="A1552" s="8"/>
+      <c r="B1552" s="8"/>
+      <c r="C1552" s="8"/>
+      <c r="D1552" s="8"/>
+      <c r="E1552" s="8"/>
+      <c r="F1552" s="8"/>
+      <c r="G1552" s="8"/>
       <c r="H1552" s="1">
         <v>24082</v>
       </c>
@@ -29408,14 +29409,14 @@
       <c r="A1554" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1554" s="8" t="s">
+      <c r="B1554" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1554" s="8"/>
-      <c r="D1554" s="8"/>
-      <c r="E1554" s="8"/>
-      <c r="F1554" s="8"/>
-      <c r="G1554" s="8"/>
+      <c r="C1554" s="7"/>
+      <c r="D1554" s="7"/>
+      <c r="E1554" s="7"/>
+      <c r="F1554" s="7"/>
+      <c r="G1554" s="7"/>
     </row>
     <row r="1555" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1555" s="4" t="s">
@@ -29505,13 +29506,13 @@
       </c>
     </row>
     <row r="1560" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1560" s="7"/>
-      <c r="B1560" s="7"/>
-      <c r="C1560" s="7"/>
-      <c r="D1560" s="7"/>
-      <c r="E1560" s="7"/>
-      <c r="F1560" s="7"/>
-      <c r="G1560" s="7"/>
+      <c r="A1560" s="8"/>
+      <c r="B1560" s="8"/>
+      <c r="C1560" s="8"/>
+      <c r="D1560" s="8"/>
+      <c r="E1560" s="8"/>
+      <c r="F1560" s="8"/>
+      <c r="G1560" s="8"/>
       <c r="H1560" s="1">
         <v>24083</v>
       </c>
@@ -29549,14 +29550,14 @@
       <c r="A1562" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1562" s="8" t="s">
+      <c r="B1562" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1562" s="8"/>
-      <c r="D1562" s="8"/>
-      <c r="E1562" s="8"/>
-      <c r="F1562" s="8"/>
-      <c r="G1562" s="8"/>
+      <c r="C1562" s="7"/>
+      <c r="D1562" s="7"/>
+      <c r="E1562" s="7"/>
+      <c r="F1562" s="7"/>
+      <c r="G1562" s="7"/>
     </row>
     <row r="1563" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1563" s="4" t="s">
@@ -29646,13 +29647,13 @@
       </c>
     </row>
     <row r="1568" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1568" s="7"/>
-      <c r="B1568" s="7"/>
-      <c r="C1568" s="7"/>
-      <c r="D1568" s="7"/>
-      <c r="E1568" s="7"/>
-      <c r="F1568" s="7"/>
-      <c r="G1568" s="7"/>
+      <c r="A1568" s="8"/>
+      <c r="B1568" s="8"/>
+      <c r="C1568" s="8"/>
+      <c r="D1568" s="8"/>
+      <c r="E1568" s="8"/>
+      <c r="F1568" s="8"/>
+      <c r="G1568" s="8"/>
       <c r="H1568" s="1">
         <v>45792</v>
       </c>
@@ -29690,14 +29691,14 @@
       <c r="A1570" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1570" s="8" t="s">
+      <c r="B1570" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1570" s="8"/>
-      <c r="D1570" s="8"/>
-      <c r="E1570" s="8"/>
-      <c r="F1570" s="8"/>
-      <c r="G1570" s="8"/>
+      <c r="C1570" s="7"/>
+      <c r="D1570" s="7"/>
+      <c r="E1570" s="7"/>
+      <c r="F1570" s="7"/>
+      <c r="G1570" s="7"/>
     </row>
     <row r="1571" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1571" s="4" t="s">
@@ -29787,13 +29788,13 @@
       </c>
     </row>
     <row r="1576" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1576" s="7"/>
-      <c r="B1576" s="7"/>
-      <c r="C1576" s="7"/>
-      <c r="D1576" s="7"/>
-      <c r="E1576" s="7"/>
-      <c r="F1576" s="7"/>
-      <c r="G1576" s="7"/>
+      <c r="A1576" s="8"/>
+      <c r="B1576" s="8"/>
+      <c r="C1576" s="8"/>
+      <c r="D1576" s="8"/>
+      <c r="E1576" s="8"/>
+      <c r="F1576" s="8"/>
+      <c r="G1576" s="8"/>
       <c r="H1576" s="1">
         <v>24084</v>
       </c>
@@ -29831,14 +29832,14 @@
       <c r="A1578" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1578" s="8" t="s">
+      <c r="B1578" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1578" s="8"/>
-      <c r="D1578" s="8"/>
-      <c r="E1578" s="8"/>
-      <c r="F1578" s="8"/>
-      <c r="G1578" s="8"/>
+      <c r="C1578" s="7"/>
+      <c r="D1578" s="7"/>
+      <c r="E1578" s="7"/>
+      <c r="F1578" s="7"/>
+      <c r="G1578" s="7"/>
     </row>
     <row r="1579" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1579" s="4" t="s">
@@ -29928,13 +29929,13 @@
       </c>
     </row>
     <row r="1584" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1584" s="7"/>
-      <c r="B1584" s="7"/>
-      <c r="C1584" s="7"/>
-      <c r="D1584" s="7"/>
-      <c r="E1584" s="7"/>
-      <c r="F1584" s="7"/>
-      <c r="G1584" s="7"/>
+      <c r="A1584" s="8"/>
+      <c r="B1584" s="8"/>
+      <c r="C1584" s="8"/>
+      <c r="D1584" s="8"/>
+      <c r="E1584" s="8"/>
+      <c r="F1584" s="8"/>
+      <c r="G1584" s="8"/>
       <c r="H1584" s="1">
         <v>24085</v>
       </c>
@@ -29972,14 +29973,14 @@
       <c r="A1586" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1586" s="8" t="s">
+      <c r="B1586" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1586" s="8"/>
-      <c r="D1586" s="8"/>
-      <c r="E1586" s="8"/>
-      <c r="F1586" s="8"/>
-      <c r="G1586" s="8"/>
+      <c r="C1586" s="7"/>
+      <c r="D1586" s="7"/>
+      <c r="E1586" s="7"/>
+      <c r="F1586" s="7"/>
+      <c r="G1586" s="7"/>
     </row>
     <row r="1587" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1587" s="4" t="s">
@@ -30069,13 +30070,13 @@
       </c>
     </row>
     <row r="1592" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1592" s="7"/>
-      <c r="B1592" s="7"/>
-      <c r="C1592" s="7"/>
-      <c r="D1592" s="7"/>
-      <c r="E1592" s="7"/>
-      <c r="F1592" s="7"/>
-      <c r="G1592" s="7"/>
+      <c r="A1592" s="8"/>
+      <c r="B1592" s="8"/>
+      <c r="C1592" s="8"/>
+      <c r="D1592" s="8"/>
+      <c r="E1592" s="8"/>
+      <c r="F1592" s="8"/>
+      <c r="G1592" s="8"/>
       <c r="H1592" s="1">
         <v>24086</v>
       </c>
@@ -30113,14 +30114,14 @@
       <c r="A1594" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1594" s="8" t="s">
+      <c r="B1594" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1594" s="8"/>
-      <c r="D1594" s="8"/>
-      <c r="E1594" s="8"/>
-      <c r="F1594" s="8"/>
-      <c r="G1594" s="8"/>
+      <c r="C1594" s="7"/>
+      <c r="D1594" s="7"/>
+      <c r="E1594" s="7"/>
+      <c r="F1594" s="7"/>
+      <c r="G1594" s="7"/>
     </row>
     <row r="1595" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1595" s="4" t="s">
@@ -30210,13 +30211,13 @@
       </c>
     </row>
     <row r="1600" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1600" s="7"/>
-      <c r="B1600" s="7"/>
-      <c r="C1600" s="7"/>
-      <c r="D1600" s="7"/>
-      <c r="E1600" s="7"/>
-      <c r="F1600" s="7"/>
-      <c r="G1600" s="7"/>
+      <c r="A1600" s="8"/>
+      <c r="B1600" s="8"/>
+      <c r="C1600" s="8"/>
+      <c r="D1600" s="8"/>
+      <c r="E1600" s="8"/>
+      <c r="F1600" s="8"/>
+      <c r="G1600" s="8"/>
       <c r="H1600" s="1">
         <v>24087</v>
       </c>
@@ -30254,14 +30255,14 @@
       <c r="A1602" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1602" s="8" t="s">
+      <c r="B1602" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1602" s="8"/>
-      <c r="D1602" s="8"/>
-      <c r="E1602" s="8"/>
-      <c r="F1602" s="8"/>
-      <c r="G1602" s="8"/>
+      <c r="C1602" s="7"/>
+      <c r="D1602" s="7"/>
+      <c r="E1602" s="7"/>
+      <c r="F1602" s="7"/>
+      <c r="G1602" s="7"/>
     </row>
     <row r="1603" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1603" s="4" t="s">
@@ -30351,13 +30352,13 @@
       </c>
     </row>
     <row r="1608" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1608" s="7"/>
-      <c r="B1608" s="7"/>
-      <c r="C1608" s="7"/>
-      <c r="D1608" s="7"/>
-      <c r="E1608" s="7"/>
-      <c r="F1608" s="7"/>
-      <c r="G1608" s="7"/>
+      <c r="A1608" s="8"/>
+      <c r="B1608" s="8"/>
+      <c r="C1608" s="8"/>
+      <c r="D1608" s="8"/>
+      <c r="E1608" s="8"/>
+      <c r="F1608" s="8"/>
+      <c r="G1608" s="8"/>
       <c r="H1608" s="1">
         <v>24088</v>
       </c>
@@ -30395,14 +30396,14 @@
       <c r="A1610" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1610" s="8" t="s">
+      <c r="B1610" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1610" s="8"/>
-      <c r="D1610" s="8"/>
-      <c r="E1610" s="8"/>
-      <c r="F1610" s="8"/>
-      <c r="G1610" s="8"/>
+      <c r="C1610" s="7"/>
+      <c r="D1610" s="7"/>
+      <c r="E1610" s="7"/>
+      <c r="F1610" s="7"/>
+      <c r="G1610" s="7"/>
     </row>
     <row r="1611" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1611" s="4" t="s">
@@ -30492,13 +30493,13 @@
       </c>
     </row>
     <row r="1616" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1616" s="7"/>
-      <c r="B1616" s="7"/>
-      <c r="C1616" s="7"/>
-      <c r="D1616" s="7"/>
-      <c r="E1616" s="7"/>
-      <c r="F1616" s="7"/>
-      <c r="G1616" s="7"/>
+      <c r="A1616" s="8"/>
+      <c r="B1616" s="8"/>
+      <c r="C1616" s="8"/>
+      <c r="D1616" s="8"/>
+      <c r="E1616" s="8"/>
+      <c r="F1616" s="8"/>
+      <c r="G1616" s="8"/>
       <c r="H1616" s="1">
         <v>24091</v>
       </c>
@@ -30536,14 +30537,14 @@
       <c r="A1618" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1618" s="8" t="s">
+      <c r="B1618" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1618" s="8"/>
-      <c r="D1618" s="8"/>
-      <c r="E1618" s="8"/>
-      <c r="F1618" s="8"/>
-      <c r="G1618" s="8"/>
+      <c r="C1618" s="7"/>
+      <c r="D1618" s="7"/>
+      <c r="E1618" s="7"/>
+      <c r="F1618" s="7"/>
+      <c r="G1618" s="7"/>
     </row>
     <row r="1619" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1619" s="4" t="s">
@@ -30633,13 +30634,13 @@
       </c>
     </row>
     <row r="1624" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1624" s="7"/>
-      <c r="B1624" s="7"/>
-      <c r="C1624" s="7"/>
-      <c r="D1624" s="7"/>
-      <c r="E1624" s="7"/>
-      <c r="F1624" s="7"/>
-      <c r="G1624" s="7"/>
+      <c r="A1624" s="8"/>
+      <c r="B1624" s="8"/>
+      <c r="C1624" s="8"/>
+      <c r="D1624" s="8"/>
+      <c r="E1624" s="8"/>
+      <c r="F1624" s="8"/>
+      <c r="G1624" s="8"/>
       <c r="H1624" s="1">
         <v>24089</v>
       </c>
@@ -30677,14 +30678,14 @@
       <c r="A1626" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1626" s="8" t="s">
+      <c r="B1626" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1626" s="8"/>
-      <c r="D1626" s="8"/>
-      <c r="E1626" s="8"/>
-      <c r="F1626" s="8"/>
-      <c r="G1626" s="8"/>
+      <c r="C1626" s="7"/>
+      <c r="D1626" s="7"/>
+      <c r="E1626" s="7"/>
+      <c r="F1626" s="7"/>
+      <c r="G1626" s="7"/>
     </row>
     <row r="1627" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1627" s="4" t="s">
@@ -30774,15 +30775,15 @@
       </c>
     </row>
     <row r="1632" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1632" s="7">
+      <c r="A1632" s="8">
         <v>45793</v>
       </c>
-      <c r="B1632" s="7"/>
-      <c r="C1632" s="7"/>
-      <c r="D1632" s="7"/>
-      <c r="E1632" s="7"/>
-      <c r="F1632" s="7"/>
-      <c r="G1632" s="7"/>
+      <c r="B1632" s="8"/>
+      <c r="C1632" s="8"/>
+      <c r="D1632" s="8"/>
+      <c r="E1632" s="8"/>
+      <c r="F1632" s="8"/>
+      <c r="G1632" s="8"/>
       <c r="H1632" s="1" t="s">
         <v>0</v>
       </c>
@@ -30817,14 +30818,14 @@
       <c r="A1634" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1634" s="8" t="s">
+      <c r="B1634" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1634" s="8"/>
-      <c r="D1634" s="8"/>
-      <c r="E1634" s="8"/>
-      <c r="F1634" s="8"/>
-      <c r="G1634" s="8"/>
+      <c r="C1634" s="7"/>
+      <c r="D1634" s="7"/>
+      <c r="E1634" s="7"/>
+      <c r="F1634" s="7"/>
+      <c r="G1634" s="7"/>
     </row>
     <row r="1635" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1635" s="4" t="s">
@@ -30914,13 +30915,13 @@
       </c>
     </row>
     <row r="1640" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1640" s="7"/>
-      <c r="B1640" s="7"/>
-      <c r="C1640" s="7"/>
-      <c r="D1640" s="7"/>
-      <c r="E1640" s="7"/>
-      <c r="F1640" s="7"/>
-      <c r="G1640" s="7"/>
+      <c r="A1640" s="8"/>
+      <c r="B1640" s="8"/>
+      <c r="C1640" s="8"/>
+      <c r="D1640" s="8"/>
+      <c r="E1640" s="8"/>
+      <c r="F1640" s="8"/>
+      <c r="G1640" s="8"/>
       <c r="H1640" s="1">
         <v>43450</v>
       </c>
@@ -30958,14 +30959,14 @@
       <c r="A1642" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1642" s="8" t="s">
+      <c r="B1642" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1642" s="8"/>
-      <c r="D1642" s="8"/>
-      <c r="E1642" s="8"/>
-      <c r="F1642" s="8"/>
-      <c r="G1642" s="8"/>
+      <c r="C1642" s="7"/>
+      <c r="D1642" s="7"/>
+      <c r="E1642" s="7"/>
+      <c r="F1642" s="7"/>
+      <c r="G1642" s="7"/>
     </row>
     <row r="1643" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1643" s="4" t="s">
@@ -31055,13 +31056,13 @@
       </c>
     </row>
     <row r="1648" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1648" s="7"/>
-      <c r="B1648" s="7"/>
-      <c r="C1648" s="7"/>
-      <c r="D1648" s="7"/>
-      <c r="E1648" s="7"/>
-      <c r="F1648" s="7"/>
-      <c r="G1648" s="7"/>
+      <c r="A1648" s="8"/>
+      <c r="B1648" s="8"/>
+      <c r="C1648" s="8"/>
+      <c r="D1648" s="8"/>
+      <c r="E1648" s="8"/>
+      <c r="F1648" s="8"/>
+      <c r="G1648" s="8"/>
       <c r="H1648" s="1">
         <v>43451</v>
       </c>
@@ -31099,14 +31100,14 @@
       <c r="A1650" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1650" s="8" t="s">
+      <c r="B1650" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1650" s="8"/>
-      <c r="D1650" s="8"/>
-      <c r="E1650" s="8"/>
-      <c r="F1650" s="8"/>
-      <c r="G1650" s="8"/>
+      <c r="C1650" s="7"/>
+      <c r="D1650" s="7"/>
+      <c r="E1650" s="7"/>
+      <c r="F1650" s="7"/>
+      <c r="G1650" s="7"/>
     </row>
     <row r="1651" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1651" s="4" t="s">
@@ -31196,13 +31197,13 @@
       </c>
     </row>
     <row r="1656" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1656" s="7"/>
-      <c r="B1656" s="7"/>
-      <c r="C1656" s="7"/>
-      <c r="D1656" s="7"/>
-      <c r="E1656" s="7"/>
-      <c r="F1656" s="7"/>
-      <c r="G1656" s="7"/>
+      <c r="A1656" s="8"/>
+      <c r="B1656" s="8"/>
+      <c r="C1656" s="8"/>
+      <c r="D1656" s="8"/>
+      <c r="E1656" s="8"/>
+      <c r="F1656" s="8"/>
+      <c r="G1656" s="8"/>
       <c r="H1656" s="1">
         <v>43452</v>
       </c>
@@ -31240,14 +31241,14 @@
       <c r="A1658" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1658" s="8" t="s">
+      <c r="B1658" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1658" s="8"/>
-      <c r="D1658" s="8"/>
-      <c r="E1658" s="8"/>
-      <c r="F1658" s="8"/>
-      <c r="G1658" s="8"/>
+      <c r="C1658" s="7"/>
+      <c r="D1658" s="7"/>
+      <c r="E1658" s="7"/>
+      <c r="F1658" s="7"/>
+      <c r="G1658" s="7"/>
     </row>
     <row r="1659" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1659" s="4" t="s">
@@ -31337,13 +31338,13 @@
       </c>
     </row>
     <row r="1664" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1664" s="7"/>
-      <c r="B1664" s="7"/>
-      <c r="C1664" s="7"/>
-      <c r="D1664" s="7"/>
-      <c r="E1664" s="7"/>
-      <c r="F1664" s="7"/>
-      <c r="G1664" s="7"/>
+      <c r="A1664" s="8"/>
+      <c r="B1664" s="8"/>
+      <c r="C1664" s="8"/>
+      <c r="D1664" s="8"/>
+      <c r="E1664" s="8"/>
+      <c r="F1664" s="8"/>
+      <c r="G1664" s="8"/>
       <c r="H1664" s="1">
         <v>47726</v>
       </c>
@@ -31381,14 +31382,14 @@
       <c r="A1666" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1666" s="8" t="s">
+      <c r="B1666" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1666" s="8"/>
-      <c r="D1666" s="8"/>
-      <c r="E1666" s="8"/>
-      <c r="F1666" s="8"/>
-      <c r="G1666" s="8"/>
+      <c r="C1666" s="7"/>
+      <c r="D1666" s="7"/>
+      <c r="E1666" s="7"/>
+      <c r="F1666" s="7"/>
+      <c r="G1666" s="7"/>
     </row>
     <row r="1667" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1667" s="4" t="s">
@@ -31478,13 +31479,13 @@
       </c>
     </row>
     <row r="1672" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1672" s="7"/>
-      <c r="B1672" s="7"/>
-      <c r="C1672" s="7"/>
-      <c r="D1672" s="7"/>
-      <c r="E1672" s="7"/>
-      <c r="F1672" s="7"/>
-      <c r="G1672" s="7"/>
+      <c r="A1672" s="8"/>
+      <c r="B1672" s="8"/>
+      <c r="C1672" s="8"/>
+      <c r="D1672" s="8"/>
+      <c r="E1672" s="8"/>
+      <c r="F1672" s="8"/>
+      <c r="G1672" s="8"/>
       <c r="H1672" s="1">
         <v>47727</v>
       </c>
@@ -31522,14 +31523,14 @@
       <c r="A1674" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1674" s="8" t="s">
+      <c r="B1674" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1674" s="8"/>
-      <c r="D1674" s="8"/>
-      <c r="E1674" s="8"/>
-      <c r="F1674" s="8"/>
-      <c r="G1674" s="8"/>
+      <c r="C1674" s="7"/>
+      <c r="D1674" s="7"/>
+      <c r="E1674" s="7"/>
+      <c r="F1674" s="7"/>
+      <c r="G1674" s="7"/>
     </row>
     <row r="1675" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1675" s="4" t="s">
@@ -31619,13 +31620,13 @@
       </c>
     </row>
     <row r="1680" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1680" s="7"/>
-      <c r="B1680" s="7"/>
-      <c r="C1680" s="7"/>
-      <c r="D1680" s="7"/>
-      <c r="E1680" s="7"/>
-      <c r="F1680" s="7"/>
-      <c r="G1680" s="7"/>
+      <c r="A1680" s="8"/>
+      <c r="B1680" s="8"/>
+      <c r="C1680" s="8"/>
+      <c r="D1680" s="8"/>
+      <c r="E1680" s="8"/>
+      <c r="F1680" s="8"/>
+      <c r="G1680" s="8"/>
       <c r="H1680" s="1">
         <v>47728</v>
       </c>
@@ -31663,14 +31664,14 @@
       <c r="A1682" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B1682" s="8" t="s">
+      <c r="B1682" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C1682" s="8"/>
-      <c r="D1682" s="8"/>
-      <c r="E1682" s="8"/>
-      <c r="F1682" s="8"/>
-      <c r="G1682" s="8"/>
+      <c r="C1682" s="7"/>
+      <c r="D1682" s="7"/>
+      <c r="E1682" s="7"/>
+      <c r="F1682" s="7"/>
+      <c r="G1682" s="7"/>
     </row>
     <row r="1683" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1683" s="4" t="s">
@@ -31760,281 +31761,96 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="414">
-    <mergeCell ref="B1634:G1634"/>
-    <mergeCell ref="B1642:G1642"/>
-    <mergeCell ref="B1650:G1650"/>
-    <mergeCell ref="B1658:G1658"/>
-    <mergeCell ref="B1666:G1666"/>
-    <mergeCell ref="B1674:G1674"/>
-    <mergeCell ref="B1682:G1682"/>
-    <mergeCell ref="A1632:G1632"/>
-    <mergeCell ref="A1640:G1640"/>
-    <mergeCell ref="A1648:G1648"/>
-    <mergeCell ref="A1656:G1656"/>
-    <mergeCell ref="A1664:G1664"/>
-    <mergeCell ref="A1672:G1672"/>
-    <mergeCell ref="A1680:G1680"/>
-    <mergeCell ref="A1560:G1560"/>
-    <mergeCell ref="A1568:G1568"/>
-    <mergeCell ref="A1576:G1576"/>
-    <mergeCell ref="A1584:G1584"/>
-    <mergeCell ref="A1592:G1592"/>
-    <mergeCell ref="A1600:G1600"/>
-    <mergeCell ref="A1608:G1608"/>
-    <mergeCell ref="A1616:G1616"/>
-    <mergeCell ref="A1624:G1624"/>
-    <mergeCell ref="A1488:G1488"/>
-    <mergeCell ref="A1496:G1496"/>
-    <mergeCell ref="A1504:G1504"/>
-    <mergeCell ref="A1512:G1512"/>
-    <mergeCell ref="A1520:G1520"/>
-    <mergeCell ref="A1528:G1528"/>
-    <mergeCell ref="A1536:G1536"/>
-    <mergeCell ref="A1544:G1544"/>
-    <mergeCell ref="A1552:G1552"/>
-    <mergeCell ref="A1416:G1416"/>
-    <mergeCell ref="A1424:G1424"/>
-    <mergeCell ref="A1432:G1432"/>
-    <mergeCell ref="A1440:G1440"/>
-    <mergeCell ref="A1448:G1448"/>
-    <mergeCell ref="A1456:G1456"/>
-    <mergeCell ref="A1464:G1464"/>
-    <mergeCell ref="A1472:G1472"/>
-    <mergeCell ref="A1480:G1480"/>
-    <mergeCell ref="A1344:G1344"/>
-    <mergeCell ref="A1352:G1352"/>
-    <mergeCell ref="A1360:G1360"/>
-    <mergeCell ref="A1368:G1368"/>
-    <mergeCell ref="A1376:G1376"/>
-    <mergeCell ref="A1384:G1384"/>
-    <mergeCell ref="A1392:G1392"/>
-    <mergeCell ref="A1400:G1400"/>
-    <mergeCell ref="A1408:G1408"/>
-    <mergeCell ref="A1272:G1272"/>
-    <mergeCell ref="A1280:G1280"/>
-    <mergeCell ref="A1288:G1288"/>
-    <mergeCell ref="A1296:G1296"/>
-    <mergeCell ref="A1304:G1304"/>
-    <mergeCell ref="A1312:G1312"/>
-    <mergeCell ref="A1320:G1320"/>
-    <mergeCell ref="A1328:G1328"/>
-    <mergeCell ref="A1336:G1336"/>
-    <mergeCell ref="A1200:G1200"/>
-    <mergeCell ref="A1208:G1208"/>
-    <mergeCell ref="A1216:G1216"/>
-    <mergeCell ref="A1224:G1224"/>
-    <mergeCell ref="A1232:G1232"/>
-    <mergeCell ref="A1240:G1240"/>
-    <mergeCell ref="A1248:G1248"/>
-    <mergeCell ref="A1256:G1256"/>
-    <mergeCell ref="A1264:G1264"/>
-    <mergeCell ref="A1128:G1128"/>
-    <mergeCell ref="A1136:G1136"/>
-    <mergeCell ref="A1144:G1144"/>
-    <mergeCell ref="A1152:G1152"/>
-    <mergeCell ref="A1160:G1160"/>
-    <mergeCell ref="A1168:G1168"/>
-    <mergeCell ref="A1176:G1176"/>
-    <mergeCell ref="A1184:G1184"/>
-    <mergeCell ref="A1192:G1192"/>
-    <mergeCell ref="A1056:G1056"/>
-    <mergeCell ref="A1064:G1064"/>
-    <mergeCell ref="A1072:G1072"/>
-    <mergeCell ref="A1080:G1080"/>
-    <mergeCell ref="A1088:G1088"/>
-    <mergeCell ref="A1096:G1096"/>
-    <mergeCell ref="A1104:G1104"/>
-    <mergeCell ref="A1112:G1112"/>
-    <mergeCell ref="A1120:G1120"/>
-    <mergeCell ref="A984:G984"/>
-    <mergeCell ref="A992:G992"/>
-    <mergeCell ref="A1000:G1000"/>
-    <mergeCell ref="A1008:G1008"/>
-    <mergeCell ref="A1016:G1016"/>
-    <mergeCell ref="A1024:G1024"/>
-    <mergeCell ref="A1032:G1032"/>
-    <mergeCell ref="A1040:G1040"/>
-    <mergeCell ref="A1048:G1048"/>
-    <mergeCell ref="A909:G909"/>
-    <mergeCell ref="A918:G918"/>
-    <mergeCell ref="A927:G927"/>
-    <mergeCell ref="A936:G936"/>
-    <mergeCell ref="A944:G944"/>
-    <mergeCell ref="A952:G952"/>
-    <mergeCell ref="A960:G960"/>
-    <mergeCell ref="A968:G968"/>
-    <mergeCell ref="A976:G976"/>
-    <mergeCell ref="A832:G832"/>
-    <mergeCell ref="A840:G840"/>
-    <mergeCell ref="A848:G848"/>
-    <mergeCell ref="A856:G856"/>
-    <mergeCell ref="A864:G864"/>
-    <mergeCell ref="A873:G873"/>
-    <mergeCell ref="A882:G882"/>
-    <mergeCell ref="A891:G891"/>
-    <mergeCell ref="A900:G900"/>
-    <mergeCell ref="B1562:G1562"/>
-    <mergeCell ref="B1570:G1570"/>
-    <mergeCell ref="B1578:G1578"/>
-    <mergeCell ref="B1586:G1586"/>
-    <mergeCell ref="B1594:G1594"/>
-    <mergeCell ref="B1602:G1602"/>
-    <mergeCell ref="B1610:G1610"/>
-    <mergeCell ref="B1618:G1618"/>
-    <mergeCell ref="B1626:G1626"/>
-    <mergeCell ref="B1490:G1490"/>
-    <mergeCell ref="B1498:G1498"/>
-    <mergeCell ref="B1506:G1506"/>
-    <mergeCell ref="B1514:G1514"/>
-    <mergeCell ref="B1522:G1522"/>
-    <mergeCell ref="B1530:G1530"/>
-    <mergeCell ref="B1538:G1538"/>
-    <mergeCell ref="B1546:G1546"/>
-    <mergeCell ref="B1554:G1554"/>
-    <mergeCell ref="B1418:G1418"/>
-    <mergeCell ref="B1426:G1426"/>
-    <mergeCell ref="B1434:G1434"/>
-    <mergeCell ref="B1442:G1442"/>
-    <mergeCell ref="B1450:G1450"/>
-    <mergeCell ref="B1458:G1458"/>
-    <mergeCell ref="B1466:G1466"/>
-    <mergeCell ref="B1474:G1474"/>
-    <mergeCell ref="B1482:G1482"/>
-    <mergeCell ref="B1346:G1346"/>
-    <mergeCell ref="B1354:G1354"/>
-    <mergeCell ref="B1362:G1362"/>
-    <mergeCell ref="B1370:G1370"/>
-    <mergeCell ref="B1378:G1378"/>
-    <mergeCell ref="B1386:G1386"/>
-    <mergeCell ref="B1394:G1394"/>
-    <mergeCell ref="B1402:G1402"/>
-    <mergeCell ref="B1410:G1410"/>
-    <mergeCell ref="B1274:G1274"/>
-    <mergeCell ref="B1282:G1282"/>
-    <mergeCell ref="B1290:G1290"/>
-    <mergeCell ref="B1298:G1298"/>
-    <mergeCell ref="B1306:G1306"/>
-    <mergeCell ref="B1314:G1314"/>
-    <mergeCell ref="B1322:G1322"/>
-    <mergeCell ref="B1330:G1330"/>
-    <mergeCell ref="B1338:G1338"/>
-    <mergeCell ref="B1202:G1202"/>
-    <mergeCell ref="B1210:G1210"/>
-    <mergeCell ref="B1218:G1218"/>
-    <mergeCell ref="B1226:G1226"/>
-    <mergeCell ref="B1234:G1234"/>
-    <mergeCell ref="B1242:G1242"/>
-    <mergeCell ref="B1250:G1250"/>
-    <mergeCell ref="B1258:G1258"/>
-    <mergeCell ref="B1266:G1266"/>
-    <mergeCell ref="B1130:G1130"/>
-    <mergeCell ref="B1138:G1138"/>
-    <mergeCell ref="B1146:G1146"/>
-    <mergeCell ref="B1154:G1154"/>
-    <mergeCell ref="B1162:G1162"/>
-    <mergeCell ref="B1170:G1170"/>
-    <mergeCell ref="B1178:G1178"/>
-    <mergeCell ref="B1186:G1186"/>
-    <mergeCell ref="B1194:G1194"/>
-    <mergeCell ref="B1058:G1058"/>
-    <mergeCell ref="B1066:G1066"/>
-    <mergeCell ref="B1074:G1074"/>
-    <mergeCell ref="B1082:G1082"/>
-    <mergeCell ref="B1090:G1090"/>
-    <mergeCell ref="B1098:G1098"/>
-    <mergeCell ref="B1106:G1106"/>
-    <mergeCell ref="B1114:G1114"/>
-    <mergeCell ref="B1122:G1122"/>
-    <mergeCell ref="B986:G986"/>
-    <mergeCell ref="B994:G994"/>
-    <mergeCell ref="B1002:G1002"/>
-    <mergeCell ref="B1010:G1010"/>
-    <mergeCell ref="B1018:G1018"/>
-    <mergeCell ref="B1026:G1026"/>
-    <mergeCell ref="B1034:G1034"/>
-    <mergeCell ref="B1042:G1042"/>
-    <mergeCell ref="B1050:G1050"/>
-    <mergeCell ref="B911:G911"/>
-    <mergeCell ref="B920:G920"/>
-    <mergeCell ref="B929:G929"/>
-    <mergeCell ref="B938:G938"/>
-    <mergeCell ref="B946:G946"/>
-    <mergeCell ref="B954:G954"/>
-    <mergeCell ref="B962:G962"/>
-    <mergeCell ref="B970:G970"/>
-    <mergeCell ref="B978:G978"/>
-    <mergeCell ref="B834:G834"/>
-    <mergeCell ref="B842:G842"/>
-    <mergeCell ref="B850:G850"/>
-    <mergeCell ref="B858:G858"/>
-    <mergeCell ref="B866:G866"/>
-    <mergeCell ref="B875:G875"/>
-    <mergeCell ref="B884:G884"/>
-    <mergeCell ref="B893:G893"/>
-    <mergeCell ref="B902:G902"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="B826:G826"/>
-    <mergeCell ref="A824:G824"/>
-    <mergeCell ref="B230:G230"/>
-    <mergeCell ref="B137:G137"/>
-    <mergeCell ref="B145:G145"/>
-    <mergeCell ref="B153:G153"/>
-    <mergeCell ref="B161:G161"/>
-    <mergeCell ref="B170:G170"/>
-    <mergeCell ref="B178:G178"/>
-    <mergeCell ref="B87:G87"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="B112:G112"/>
-    <mergeCell ref="B121:G121"/>
-    <mergeCell ref="B129:G129"/>
-    <mergeCell ref="B423:G423"/>
-    <mergeCell ref="B334:G334"/>
-    <mergeCell ref="B342:G342"/>
-    <mergeCell ref="B351:G351"/>
-    <mergeCell ref="B359:G359"/>
-    <mergeCell ref="B367:G367"/>
-    <mergeCell ref="B375:G375"/>
-    <mergeCell ref="B286:G286"/>
-    <mergeCell ref="B294:G294"/>
-    <mergeCell ref="B302:G302"/>
-    <mergeCell ref="B310:G310"/>
-    <mergeCell ref="B318:G318"/>
-    <mergeCell ref="B326:G326"/>
-    <mergeCell ref="B615:G615"/>
-    <mergeCell ref="B527:G527"/>
-    <mergeCell ref="B535:G535"/>
-    <mergeCell ref="B543:G543"/>
-    <mergeCell ref="B551:G551"/>
-    <mergeCell ref="B559:G559"/>
-    <mergeCell ref="B567:G567"/>
-    <mergeCell ref="B479:G479"/>
-    <mergeCell ref="B487:G487"/>
-    <mergeCell ref="B495:G495"/>
-    <mergeCell ref="B503:G503"/>
-    <mergeCell ref="B511:G511"/>
-    <mergeCell ref="B519:G519"/>
-    <mergeCell ref="B818:G818"/>
-    <mergeCell ref="B728:G728"/>
-    <mergeCell ref="B737:G737"/>
-    <mergeCell ref="B746:G746"/>
-    <mergeCell ref="B754:G754"/>
-    <mergeCell ref="B762:G762"/>
-    <mergeCell ref="B770:G770"/>
-    <mergeCell ref="B676:G676"/>
-    <mergeCell ref="B685:G685"/>
-    <mergeCell ref="B694:G694"/>
-    <mergeCell ref="B703:G703"/>
-    <mergeCell ref="B711:G711"/>
-    <mergeCell ref="B719:G719"/>
+  <mergeCells count="413">
+    <mergeCell ref="A768:G768"/>
+    <mergeCell ref="B778:G778"/>
+    <mergeCell ref="B786:G786"/>
+    <mergeCell ref="B794:G794"/>
+    <mergeCell ref="B802:G802"/>
+    <mergeCell ref="B810:G810"/>
+    <mergeCell ref="A674:G674"/>
+    <mergeCell ref="A683:G683"/>
+    <mergeCell ref="A692:G692"/>
+    <mergeCell ref="A701:G701"/>
+    <mergeCell ref="A709:G709"/>
+    <mergeCell ref="A717:G717"/>
+    <mergeCell ref="A621:G621"/>
+    <mergeCell ref="A629:G629"/>
+    <mergeCell ref="A638:G638"/>
+    <mergeCell ref="A647:G647"/>
+    <mergeCell ref="A656:G656"/>
+    <mergeCell ref="A665:G665"/>
+    <mergeCell ref="B623:G623"/>
+    <mergeCell ref="B631:G631"/>
+    <mergeCell ref="B640:G640"/>
+    <mergeCell ref="B649:G649"/>
+    <mergeCell ref="B658:G658"/>
+    <mergeCell ref="B667:G667"/>
+    <mergeCell ref="A541:G541"/>
+    <mergeCell ref="A549:G549"/>
+    <mergeCell ref="A557:G557"/>
+    <mergeCell ref="A565:G565"/>
+    <mergeCell ref="B575:G575"/>
+    <mergeCell ref="B583:G583"/>
+    <mergeCell ref="B591:G591"/>
+    <mergeCell ref="B599:G599"/>
+    <mergeCell ref="B607:G607"/>
+    <mergeCell ref="A373:G373"/>
+    <mergeCell ref="B383:G383"/>
+    <mergeCell ref="B391:G391"/>
+    <mergeCell ref="B399:G399"/>
+    <mergeCell ref="B407:G407"/>
+    <mergeCell ref="B415:G415"/>
+    <mergeCell ref="A477:G477"/>
+    <mergeCell ref="A485:G485"/>
+    <mergeCell ref="A493:G493"/>
+    <mergeCell ref="A429:G429"/>
+    <mergeCell ref="A437:G437"/>
+    <mergeCell ref="A445:G445"/>
+    <mergeCell ref="A453:G453"/>
+    <mergeCell ref="A461:G461"/>
+    <mergeCell ref="A469:G469"/>
+    <mergeCell ref="B431:G431"/>
+    <mergeCell ref="B439:G439"/>
+    <mergeCell ref="B447:G447"/>
+    <mergeCell ref="B455:G455"/>
+    <mergeCell ref="B463:G463"/>
+    <mergeCell ref="B471:G471"/>
+    <mergeCell ref="A284:G284"/>
+    <mergeCell ref="A292:G292"/>
+    <mergeCell ref="A300:G300"/>
+    <mergeCell ref="A308:G308"/>
+    <mergeCell ref="A316:G316"/>
+    <mergeCell ref="A324:G324"/>
+    <mergeCell ref="A236:G236"/>
+    <mergeCell ref="A244:G244"/>
+    <mergeCell ref="A252:G252"/>
+    <mergeCell ref="A260:G260"/>
+    <mergeCell ref="A268:G268"/>
+    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="B238:G238"/>
+    <mergeCell ref="B246:G246"/>
+    <mergeCell ref="B254:G254"/>
+    <mergeCell ref="B262:G262"/>
+    <mergeCell ref="B270:G270"/>
+    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="A185:G185"/>
+    <mergeCell ref="A193:G193"/>
+    <mergeCell ref="A202:G202"/>
+    <mergeCell ref="A211:G211"/>
+    <mergeCell ref="A220:G220"/>
+    <mergeCell ref="A228:G228"/>
+    <mergeCell ref="A135:G135"/>
+    <mergeCell ref="A143:G143"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A159:G159"/>
+    <mergeCell ref="A168:G168"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="B187:G187"/>
+    <mergeCell ref="B195:G195"/>
+    <mergeCell ref="B204:G204"/>
+    <mergeCell ref="B213:G213"/>
+    <mergeCell ref="B222:G222"/>
     <mergeCell ref="A85:G85"/>
     <mergeCell ref="A93:G93"/>
     <mergeCell ref="A101:G101"/>
@@ -32053,41 +31869,67 @@
     <mergeCell ref="B61:G61"/>
     <mergeCell ref="B70:G70"/>
     <mergeCell ref="B79:G79"/>
-    <mergeCell ref="A185:G185"/>
-    <mergeCell ref="A193:G193"/>
-    <mergeCell ref="A202:G202"/>
-    <mergeCell ref="A211:G211"/>
-    <mergeCell ref="A220:G220"/>
-    <mergeCell ref="A228:G228"/>
-    <mergeCell ref="A135:G135"/>
-    <mergeCell ref="A143:G143"/>
-    <mergeCell ref="A151:G151"/>
-    <mergeCell ref="A159:G159"/>
-    <mergeCell ref="A168:G168"/>
-    <mergeCell ref="A176:G176"/>
-    <mergeCell ref="B187:G187"/>
-    <mergeCell ref="B195:G195"/>
-    <mergeCell ref="B204:G204"/>
-    <mergeCell ref="B213:G213"/>
-    <mergeCell ref="B222:G222"/>
-    <mergeCell ref="A284:G284"/>
-    <mergeCell ref="A292:G292"/>
-    <mergeCell ref="A300:G300"/>
-    <mergeCell ref="A308:G308"/>
-    <mergeCell ref="A316:G316"/>
-    <mergeCell ref="A324:G324"/>
-    <mergeCell ref="A236:G236"/>
-    <mergeCell ref="A244:G244"/>
-    <mergeCell ref="A252:G252"/>
-    <mergeCell ref="A260:G260"/>
-    <mergeCell ref="A268:G268"/>
-    <mergeCell ref="A276:G276"/>
-    <mergeCell ref="B238:G238"/>
-    <mergeCell ref="B246:G246"/>
-    <mergeCell ref="B254:G254"/>
-    <mergeCell ref="B262:G262"/>
-    <mergeCell ref="B270:G270"/>
-    <mergeCell ref="B278:G278"/>
+    <mergeCell ref="B818:G818"/>
+    <mergeCell ref="B728:G728"/>
+    <mergeCell ref="B737:G737"/>
+    <mergeCell ref="B746:G746"/>
+    <mergeCell ref="B754:G754"/>
+    <mergeCell ref="B762:G762"/>
+    <mergeCell ref="B770:G770"/>
+    <mergeCell ref="B676:G676"/>
+    <mergeCell ref="B685:G685"/>
+    <mergeCell ref="B694:G694"/>
+    <mergeCell ref="B703:G703"/>
+    <mergeCell ref="B711:G711"/>
+    <mergeCell ref="B719:G719"/>
+    <mergeCell ref="A776:G776"/>
+    <mergeCell ref="A784:G784"/>
+    <mergeCell ref="A792:G792"/>
+    <mergeCell ref="A800:G800"/>
+    <mergeCell ref="A808:G808"/>
+    <mergeCell ref="A816:G816"/>
+    <mergeCell ref="A726:G726"/>
+    <mergeCell ref="A735:G735"/>
+    <mergeCell ref="A744:G744"/>
+    <mergeCell ref="A752:G752"/>
+    <mergeCell ref="A760:G760"/>
+    <mergeCell ref="B615:G615"/>
+    <mergeCell ref="B527:G527"/>
+    <mergeCell ref="B535:G535"/>
+    <mergeCell ref="B543:G543"/>
+    <mergeCell ref="B551:G551"/>
+    <mergeCell ref="B559:G559"/>
+    <mergeCell ref="B567:G567"/>
+    <mergeCell ref="B479:G479"/>
+    <mergeCell ref="B487:G487"/>
+    <mergeCell ref="B495:G495"/>
+    <mergeCell ref="B503:G503"/>
+    <mergeCell ref="B511:G511"/>
+    <mergeCell ref="B519:G519"/>
+    <mergeCell ref="A501:G501"/>
+    <mergeCell ref="A509:G509"/>
+    <mergeCell ref="A517:G517"/>
+    <mergeCell ref="A573:G573"/>
+    <mergeCell ref="A581:G581"/>
+    <mergeCell ref="A589:G589"/>
+    <mergeCell ref="A597:G597"/>
+    <mergeCell ref="A605:G605"/>
+    <mergeCell ref="A613:G613"/>
+    <mergeCell ref="A525:G525"/>
+    <mergeCell ref="A533:G533"/>
+    <mergeCell ref="B423:G423"/>
+    <mergeCell ref="B334:G334"/>
+    <mergeCell ref="B342:G342"/>
+    <mergeCell ref="B351:G351"/>
+    <mergeCell ref="B359:G359"/>
+    <mergeCell ref="B367:G367"/>
+    <mergeCell ref="B375:G375"/>
+    <mergeCell ref="B286:G286"/>
+    <mergeCell ref="B294:G294"/>
+    <mergeCell ref="B302:G302"/>
+    <mergeCell ref="B310:G310"/>
+    <mergeCell ref="B318:G318"/>
+    <mergeCell ref="B326:G326"/>
     <mergeCell ref="A381:G381"/>
     <mergeCell ref="A389:G389"/>
     <mergeCell ref="A397:G397"/>
@@ -32099,82 +31941,240 @@
     <mergeCell ref="A349:G349"/>
     <mergeCell ref="A357:G357"/>
     <mergeCell ref="A365:G365"/>
-    <mergeCell ref="A373:G373"/>
-    <mergeCell ref="B383:G383"/>
-    <mergeCell ref="B391:G391"/>
-    <mergeCell ref="B399:G399"/>
-    <mergeCell ref="B407:G407"/>
-    <mergeCell ref="B415:G415"/>
-    <mergeCell ref="A477:G477"/>
-    <mergeCell ref="A485:G485"/>
-    <mergeCell ref="A493:G493"/>
-    <mergeCell ref="A501:G501"/>
-    <mergeCell ref="A509:G509"/>
-    <mergeCell ref="A517:G517"/>
-    <mergeCell ref="A429:G429"/>
-    <mergeCell ref="A437:G437"/>
-    <mergeCell ref="A445:G445"/>
-    <mergeCell ref="A453:G453"/>
-    <mergeCell ref="A461:G461"/>
-    <mergeCell ref="A469:G469"/>
-    <mergeCell ref="B431:G431"/>
-    <mergeCell ref="B439:G439"/>
-    <mergeCell ref="B447:G447"/>
-    <mergeCell ref="B455:G455"/>
-    <mergeCell ref="B463:G463"/>
-    <mergeCell ref="B471:G471"/>
-    <mergeCell ref="A573:G573"/>
-    <mergeCell ref="A581:G581"/>
-    <mergeCell ref="A589:G589"/>
-    <mergeCell ref="A597:G597"/>
-    <mergeCell ref="A605:G605"/>
-    <mergeCell ref="A613:G613"/>
-    <mergeCell ref="A525:G525"/>
-    <mergeCell ref="A533:G533"/>
-    <mergeCell ref="A541:G541"/>
-    <mergeCell ref="A549:G549"/>
-    <mergeCell ref="A557:G557"/>
-    <mergeCell ref="A565:G565"/>
-    <mergeCell ref="B575:G575"/>
-    <mergeCell ref="B583:G583"/>
-    <mergeCell ref="B591:G591"/>
-    <mergeCell ref="B599:G599"/>
-    <mergeCell ref="B607:G607"/>
-    <mergeCell ref="A674:G674"/>
-    <mergeCell ref="A683:G683"/>
-    <mergeCell ref="A692:G692"/>
-    <mergeCell ref="A701:G701"/>
-    <mergeCell ref="A709:G709"/>
-    <mergeCell ref="A717:G717"/>
-    <mergeCell ref="A621:G621"/>
-    <mergeCell ref="A629:G629"/>
-    <mergeCell ref="A638:G638"/>
-    <mergeCell ref="A647:G647"/>
-    <mergeCell ref="A656:G656"/>
-    <mergeCell ref="A665:G665"/>
-    <mergeCell ref="B623:G623"/>
-    <mergeCell ref="B631:G631"/>
-    <mergeCell ref="B640:G640"/>
-    <mergeCell ref="B649:G649"/>
-    <mergeCell ref="B658:G658"/>
-    <mergeCell ref="B667:G667"/>
-    <mergeCell ref="A776:G776"/>
-    <mergeCell ref="A784:G784"/>
-    <mergeCell ref="A792:G792"/>
-    <mergeCell ref="A800:G800"/>
-    <mergeCell ref="A808:G808"/>
-    <mergeCell ref="A816:G816"/>
-    <mergeCell ref="A726:G726"/>
-    <mergeCell ref="A735:G735"/>
-    <mergeCell ref="A744:G744"/>
-    <mergeCell ref="A752:G752"/>
-    <mergeCell ref="A760:G760"/>
-    <mergeCell ref="A768:G768"/>
-    <mergeCell ref="B778:G778"/>
-    <mergeCell ref="B786:G786"/>
-    <mergeCell ref="B794:G794"/>
-    <mergeCell ref="B802:G802"/>
-    <mergeCell ref="B810:G810"/>
+    <mergeCell ref="B902:G902"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="B826:G826"/>
+    <mergeCell ref="B230:G230"/>
+    <mergeCell ref="B137:G137"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B153:G153"/>
+    <mergeCell ref="B161:G161"/>
+    <mergeCell ref="B170:G170"/>
+    <mergeCell ref="B178:G178"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="B112:G112"/>
+    <mergeCell ref="B121:G121"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="B1050:G1050"/>
+    <mergeCell ref="B911:G911"/>
+    <mergeCell ref="B920:G920"/>
+    <mergeCell ref="B929:G929"/>
+    <mergeCell ref="B938:G938"/>
+    <mergeCell ref="B946:G946"/>
+    <mergeCell ref="B954:G954"/>
+    <mergeCell ref="B962:G962"/>
+    <mergeCell ref="B970:G970"/>
+    <mergeCell ref="B978:G978"/>
+    <mergeCell ref="B1194:G1194"/>
+    <mergeCell ref="B1058:G1058"/>
+    <mergeCell ref="B1066:G1066"/>
+    <mergeCell ref="B1074:G1074"/>
+    <mergeCell ref="B1082:G1082"/>
+    <mergeCell ref="B1090:G1090"/>
+    <mergeCell ref="B1098:G1098"/>
+    <mergeCell ref="B1106:G1106"/>
+    <mergeCell ref="B1114:G1114"/>
+    <mergeCell ref="B1122:G1122"/>
+    <mergeCell ref="B1338:G1338"/>
+    <mergeCell ref="B1202:G1202"/>
+    <mergeCell ref="B1210:G1210"/>
+    <mergeCell ref="B1218:G1218"/>
+    <mergeCell ref="B1226:G1226"/>
+    <mergeCell ref="B1234:G1234"/>
+    <mergeCell ref="B1242:G1242"/>
+    <mergeCell ref="B1250:G1250"/>
+    <mergeCell ref="B1258:G1258"/>
+    <mergeCell ref="B1266:G1266"/>
+    <mergeCell ref="B1482:G1482"/>
+    <mergeCell ref="B1346:G1346"/>
+    <mergeCell ref="B1354:G1354"/>
+    <mergeCell ref="B1362:G1362"/>
+    <mergeCell ref="B1370:G1370"/>
+    <mergeCell ref="B1378:G1378"/>
+    <mergeCell ref="B1386:G1386"/>
+    <mergeCell ref="B1394:G1394"/>
+    <mergeCell ref="B1402:G1402"/>
+    <mergeCell ref="B1410:G1410"/>
+    <mergeCell ref="B1626:G1626"/>
+    <mergeCell ref="B1490:G1490"/>
+    <mergeCell ref="B1498:G1498"/>
+    <mergeCell ref="B1506:G1506"/>
+    <mergeCell ref="B1514:G1514"/>
+    <mergeCell ref="B1522:G1522"/>
+    <mergeCell ref="B1530:G1530"/>
+    <mergeCell ref="B1538:G1538"/>
+    <mergeCell ref="B1546:G1546"/>
+    <mergeCell ref="B1554:G1554"/>
+    <mergeCell ref="A832:G832"/>
+    <mergeCell ref="A840:G840"/>
+    <mergeCell ref="A848:G848"/>
+    <mergeCell ref="A856:G856"/>
+    <mergeCell ref="A864:G864"/>
+    <mergeCell ref="A873:G873"/>
+    <mergeCell ref="A882:G882"/>
+    <mergeCell ref="A891:G891"/>
+    <mergeCell ref="A900:G900"/>
+    <mergeCell ref="B834:G834"/>
+    <mergeCell ref="B842:G842"/>
+    <mergeCell ref="B850:G850"/>
+    <mergeCell ref="B858:G858"/>
+    <mergeCell ref="B866:G866"/>
+    <mergeCell ref="B875:G875"/>
+    <mergeCell ref="B884:G884"/>
+    <mergeCell ref="B893:G893"/>
+    <mergeCell ref="A909:G909"/>
+    <mergeCell ref="A918:G918"/>
+    <mergeCell ref="A927:G927"/>
+    <mergeCell ref="A936:G936"/>
+    <mergeCell ref="A944:G944"/>
+    <mergeCell ref="A952:G952"/>
+    <mergeCell ref="A960:G960"/>
+    <mergeCell ref="A968:G968"/>
+    <mergeCell ref="A976:G976"/>
+    <mergeCell ref="A984:G984"/>
+    <mergeCell ref="A992:G992"/>
+    <mergeCell ref="A1000:G1000"/>
+    <mergeCell ref="A1008:G1008"/>
+    <mergeCell ref="A1016:G1016"/>
+    <mergeCell ref="A1024:G1024"/>
+    <mergeCell ref="A1032:G1032"/>
+    <mergeCell ref="A1040:G1040"/>
+    <mergeCell ref="A1048:G1048"/>
+    <mergeCell ref="B986:G986"/>
+    <mergeCell ref="B994:G994"/>
+    <mergeCell ref="B1002:G1002"/>
+    <mergeCell ref="B1010:G1010"/>
+    <mergeCell ref="B1018:G1018"/>
+    <mergeCell ref="B1026:G1026"/>
+    <mergeCell ref="B1034:G1034"/>
+    <mergeCell ref="B1042:G1042"/>
+    <mergeCell ref="A1056:G1056"/>
+    <mergeCell ref="A1064:G1064"/>
+    <mergeCell ref="A1072:G1072"/>
+    <mergeCell ref="A1080:G1080"/>
+    <mergeCell ref="A1088:G1088"/>
+    <mergeCell ref="A1096:G1096"/>
+    <mergeCell ref="A1104:G1104"/>
+    <mergeCell ref="A1112:G1112"/>
+    <mergeCell ref="A1120:G1120"/>
+    <mergeCell ref="A1128:G1128"/>
+    <mergeCell ref="A1136:G1136"/>
+    <mergeCell ref="A1144:G1144"/>
+    <mergeCell ref="A1152:G1152"/>
+    <mergeCell ref="A1160:G1160"/>
+    <mergeCell ref="A1168:G1168"/>
+    <mergeCell ref="A1176:G1176"/>
+    <mergeCell ref="A1184:G1184"/>
+    <mergeCell ref="A1192:G1192"/>
+    <mergeCell ref="B1130:G1130"/>
+    <mergeCell ref="B1138:G1138"/>
+    <mergeCell ref="B1146:G1146"/>
+    <mergeCell ref="B1154:G1154"/>
+    <mergeCell ref="B1162:G1162"/>
+    <mergeCell ref="B1170:G1170"/>
+    <mergeCell ref="B1178:G1178"/>
+    <mergeCell ref="B1186:G1186"/>
+    <mergeCell ref="A1200:G1200"/>
+    <mergeCell ref="A1208:G1208"/>
+    <mergeCell ref="A1216:G1216"/>
+    <mergeCell ref="A1224:G1224"/>
+    <mergeCell ref="A1232:G1232"/>
+    <mergeCell ref="A1240:G1240"/>
+    <mergeCell ref="A1248:G1248"/>
+    <mergeCell ref="A1256:G1256"/>
+    <mergeCell ref="A1264:G1264"/>
+    <mergeCell ref="A1272:G1272"/>
+    <mergeCell ref="A1280:G1280"/>
+    <mergeCell ref="A1288:G1288"/>
+    <mergeCell ref="A1296:G1296"/>
+    <mergeCell ref="A1304:G1304"/>
+    <mergeCell ref="A1312:G1312"/>
+    <mergeCell ref="A1320:G1320"/>
+    <mergeCell ref="A1328:G1328"/>
+    <mergeCell ref="A1336:G1336"/>
+    <mergeCell ref="B1274:G1274"/>
+    <mergeCell ref="B1282:G1282"/>
+    <mergeCell ref="B1290:G1290"/>
+    <mergeCell ref="B1298:G1298"/>
+    <mergeCell ref="B1306:G1306"/>
+    <mergeCell ref="B1314:G1314"/>
+    <mergeCell ref="B1322:G1322"/>
+    <mergeCell ref="B1330:G1330"/>
+    <mergeCell ref="A1344:G1344"/>
+    <mergeCell ref="A1352:G1352"/>
+    <mergeCell ref="A1360:G1360"/>
+    <mergeCell ref="A1368:G1368"/>
+    <mergeCell ref="A1376:G1376"/>
+    <mergeCell ref="A1384:G1384"/>
+    <mergeCell ref="A1392:G1392"/>
+    <mergeCell ref="A1400:G1400"/>
+    <mergeCell ref="A1408:G1408"/>
+    <mergeCell ref="A1416:G1416"/>
+    <mergeCell ref="A1424:G1424"/>
+    <mergeCell ref="A1432:G1432"/>
+    <mergeCell ref="A1440:G1440"/>
+    <mergeCell ref="A1448:G1448"/>
+    <mergeCell ref="A1456:G1456"/>
+    <mergeCell ref="A1464:G1464"/>
+    <mergeCell ref="A1472:G1472"/>
+    <mergeCell ref="A1480:G1480"/>
+    <mergeCell ref="B1418:G1418"/>
+    <mergeCell ref="B1426:G1426"/>
+    <mergeCell ref="B1434:G1434"/>
+    <mergeCell ref="B1442:G1442"/>
+    <mergeCell ref="B1450:G1450"/>
+    <mergeCell ref="B1458:G1458"/>
+    <mergeCell ref="B1466:G1466"/>
+    <mergeCell ref="B1474:G1474"/>
+    <mergeCell ref="A1488:G1488"/>
+    <mergeCell ref="A1496:G1496"/>
+    <mergeCell ref="A1504:G1504"/>
+    <mergeCell ref="A1512:G1512"/>
+    <mergeCell ref="A1520:G1520"/>
+    <mergeCell ref="A1528:G1528"/>
+    <mergeCell ref="A1536:G1536"/>
+    <mergeCell ref="A1544:G1544"/>
+    <mergeCell ref="A1552:G1552"/>
+    <mergeCell ref="A1560:G1560"/>
+    <mergeCell ref="A1568:G1568"/>
+    <mergeCell ref="A1576:G1576"/>
+    <mergeCell ref="A1584:G1584"/>
+    <mergeCell ref="A1592:G1592"/>
+    <mergeCell ref="A1600:G1600"/>
+    <mergeCell ref="A1608:G1608"/>
+    <mergeCell ref="A1616:G1616"/>
+    <mergeCell ref="A1624:G1624"/>
+    <mergeCell ref="B1562:G1562"/>
+    <mergeCell ref="B1570:G1570"/>
+    <mergeCell ref="B1578:G1578"/>
+    <mergeCell ref="B1586:G1586"/>
+    <mergeCell ref="B1594:G1594"/>
+    <mergeCell ref="B1602:G1602"/>
+    <mergeCell ref="B1610:G1610"/>
+    <mergeCell ref="B1618:G1618"/>
+    <mergeCell ref="B1634:G1634"/>
+    <mergeCell ref="B1642:G1642"/>
+    <mergeCell ref="B1650:G1650"/>
+    <mergeCell ref="B1658:G1658"/>
+    <mergeCell ref="B1666:G1666"/>
+    <mergeCell ref="B1674:G1674"/>
+    <mergeCell ref="B1682:G1682"/>
+    <mergeCell ref="A1632:G1632"/>
+    <mergeCell ref="A1640:G1640"/>
+    <mergeCell ref="A1648:G1648"/>
+    <mergeCell ref="A1656:G1656"/>
+    <mergeCell ref="A1664:G1664"/>
+    <mergeCell ref="A1672:G1672"/>
+    <mergeCell ref="A1680:G1680"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
